--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Japanese J League 2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03:00:00</t>
+          <t>01:05:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Jef Utd Chiba</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.01</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>1.69</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="I3" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>32</v>
       </c>
-      <c r="Y3" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AK3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO3" t="n">
         <v>60</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06:00:00</t>
+          <t>05:35:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSC 1599 Selimbar</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.04</v>
       </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Hunedoara</t>
+          <t>Ceahlaul</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS Tunari</t>
+          <t>ACS Fotbal Club Bacau</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chindia Targoviste</t>
+          <t>FC Hunedoara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS FC Dinamo Bucuresti</t>
+          <t>CS Tunari</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ceahlaul</t>
+          <t>Chindia Targoviste</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ACS Fotbal Club Bacau</t>
+          <t>CS FC Dinamo Bucuresti</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1366,16 +1366,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,12 +1468,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CSA Steaua Bucuresti</t>
+          <t>CSC 1599 Selimbar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS Gloria 2018 Bistrita-Na</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1501,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,12 +1603,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CSM Satu Mare</t>
+          <t>CSA Steaua Bucuresti</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS Afumati</t>
+          <t>CS Gloria 2018 Bistrita-Na</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,12 +1738,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ACS Dumbravita</t>
+          <t>CSM Satu Mare</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CSM Slatina</t>
+          <t>CS Afumati</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
         <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,12 +1873,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ACS Muscelul Campulung Elite</t>
+          <t>ACS Dumbravita</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Voluntari</t>
+          <t>CSM Slatina</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>ACS Muscelul Campulung Elite</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>FC Voluntari</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,49 +2143,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>4.3</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.92</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>2.64</v>
       </c>
       <c r="H14" t="n">
-        <v>1.94</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>970</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>1.92</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>2.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kryvbas Krivyi Rih</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>Nakhon Ratchasima</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kryvbas Krivyi Rih</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>2.28</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>1.99</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3083,54 +3083,54 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.93</v>
       </c>
-      <c r="G20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.87</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="G21" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>970</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.36</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.85</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>2.06</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>2.18</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,32 +3763,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="G25" t="n">
-        <v>2.98</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.65</v>
       </c>
-      <c r="J25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hoffenheim II</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J26" t="n">
         <v>2.58</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.66</v>
-      </c>
       <c r="K26" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3931,16 +3931,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hoffenheim II</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="G27" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="H27" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="I27" t="n">
-        <v>2.34</v>
+        <v>2.82</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="K27" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,61 +4168,61 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.33</v>
+        <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1.35</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
-        <v>13</v>
+        <v>2.04</v>
       </c>
       <c r="I28" t="n">
-        <v>13.5</v>
+        <v>2.34</v>
       </c>
       <c r="J28" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="R28" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,64 +4231,64 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="G29" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="H29" t="n">
-        <v>1.96</v>
+        <v>13</v>
       </c>
       <c r="I29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA29" t="n">
         <v>1000</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="AB29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO29" t="n">
         <v>1000</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.36</v>
+        <v>1.69</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="H30" t="n">
-        <v>2.66</v>
+        <v>1.96</v>
       </c>
       <c r="I30" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
-        <v>2.3</v>
+        <v>2.66</v>
       </c>
       <c r="I31" t="n">
-        <v>2.68</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1860 Munich</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.46</v>
+        <v>2.82</v>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,36 +4973,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>1860 Munich</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5113,49 +5113,49 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q35" t="n">
         <v>1.01</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5248,31 +5248,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sassari Torres</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5281,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5383,12 +5383,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sassari Torres</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5518,12 +5518,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LNZ-Lebedyn</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q40" t="n">
         <v>1.01</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>LNZ-Lebedyn</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q41" t="n">
         <v>1.01</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,31 +6058,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,31 +6193,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.69</v>
+        <v>2.88</v>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>2.44</v>
       </c>
       <c r="I43" t="n">
-        <v>5.8</v>
+        <v>2.52</v>
       </c>
       <c r="J43" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6328,32 +6328,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="G44" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K44" t="n">
         <v>4</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="G45" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="H45" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.46</v>
+        <v>3.55</v>
       </c>
       <c r="G46" t="n">
-        <v>2.72</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>2.26</v>
       </c>
       <c r="I46" t="n">
-        <v>3.85</v>
+        <v>2.42</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K46" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="G47" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,61 +6868,61 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="G48" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="I48" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,64 +6931,64 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,66 +6998,66 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="G49" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="H49" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J49" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S49" t="n">
         <v>4.4</v>
       </c>
-      <c r="K49" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P49" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2.44</v>
-      </c>
       <c r="T49" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="U49" t="n">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7066,58 +7066,58 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Y49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK49" t="n">
         <v>24</v>
       </c>
-      <c r="Z49" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD49" t="n">
+      <c r="AL49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN49" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE49" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AO49" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -7138,61 +7138,61 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H50" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J50" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K50" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P50" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="Q50" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R50" t="n">
         <v>1.65</v>
       </c>
-      <c r="R50" t="n">
-        <v>1.58</v>
-      </c>
       <c r="S50" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="T50" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U50" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -7201,22 +7201,22 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y50" t="n">
         <v>24</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>23</v>
       </c>
       <c r="Z50" t="n">
         <v>42</v>
       </c>
       <c r="AA50" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB50" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC50" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
         <v>19.5</v>
@@ -7225,34 +7225,34 @@
         <v>60</v>
       </c>
       <c r="AF50" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG50" t="n">
         <v>10.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ50" t="n">
         <v>21</v>
       </c>
       <c r="AK50" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AL50" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM50" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN50" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AO50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
@@ -7273,61 +7273,61 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="G51" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K51" t="n">
         <v>4.4</v>
       </c>
-      <c r="I51" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="P51" t="n">
-        <v>1.75</v>
+        <v>2.44</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="R51" t="n">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="S51" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="U51" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,58 +7336,58 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB51" t="n">
         <v>12</v>
       </c>
-      <c r="Y51" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AC51" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG51" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ51" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK51" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AL51" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO51" t="n">
         <v>50</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="52">
@@ -7408,61 +7408,61 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="J52" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="O52" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P52" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="R52" t="n">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="S52" t="n">
-        <v>2.62</v>
+        <v>4.2</v>
       </c>
       <c r="T52" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -7471,64 +7471,64 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="Z52" t="n">
         <v>32</v>
       </c>
       <c r="AA52" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AB52" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD52" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AE52" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="AF52" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AG52" t="n">
         <v>11.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI52" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL52" t="n">
         <v>48</v>
       </c>
-      <c r="AJ52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>36</v>
-      </c>
       <c r="AM52" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AN52" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AO52" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,66 +7538,66 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.96</v>
+        <v>2.06</v>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>2.08</v>
       </c>
       <c r="H53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P53" t="n">
         <v>2.46</v>
       </c>
-      <c r="I53" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.92</v>
-      </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -7606,58 +7606,58 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -7678,31 +7678,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="G54" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="H54" t="n">
-        <v>1.09</v>
+        <v>2.46</v>
       </c>
       <c r="I54" t="n">
-        <v>4.6</v>
+        <v>2.74</v>
       </c>
       <c r="J54" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.25</v>
+        <v>1.92</v>
       </c>
       <c r="Q54" t="n">
         <v>1.01</v>
@@ -7798,7 +7798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,31 +7813,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F55" t="n">
         <v>1.96</v>
       </c>
       <c r="G55" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="H55" t="n">
-        <v>3.95</v>
+        <v>1.09</v>
       </c>
       <c r="I55" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7948,49 +7948,49 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.9</v>
       </c>
-      <c r="G56" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>1.71</v>
       </c>
-      <c r="I56" t="n">
+      <c r="Q56" t="n">
         <v>2.12</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.93</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8083,31 +8083,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.32</v>
+        <v>3.9</v>
       </c>
       <c r="G57" t="n">
-        <v>2.82</v>
+        <v>6.4</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>2.12</v>
       </c>
       <c r="J57" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="K57" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,49 +8218,49 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="G58" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="H58" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="I58" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q58" t="n">
         <v>2.38</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.06</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,61 +8353,61 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.73</v>
+        <v>2.86</v>
       </c>
       <c r="G59" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
         <v>1.75</v>
       </c>
-      <c r="H59" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2.66</v>
-      </c>
       <c r="Q59" t="n">
-        <v>1.58</v>
+        <v>2.04</v>
       </c>
       <c r="R59" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -8416,58 +8416,58 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL59" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM59" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN59" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -8488,12 +8488,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -8503,46 +8503,46 @@
         <v>1.74</v>
       </c>
       <c r="H60" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="I60" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K60" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P60" t="n">
-        <v>2.04</v>
+        <v>2.66</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="R60" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="S60" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="T60" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="U60" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,64 +8551,64 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Z60" t="n">
         <v>46</v>
       </c>
       <c r="AA60" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AB60" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF60" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG60" t="n">
         <v>10</v>
       </c>
       <c r="AH60" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI60" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ60" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AK60" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL60" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AM60" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AN60" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO60" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,62 +8623,62 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F61" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U61" t="n">
         <v>2.04</v>
       </c>
-      <c r="G61" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
@@ -8686,64 +8686,64 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE61" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH61" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK61" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL61" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM61" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN61" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8753,36 +8753,36 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="G62" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="H62" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="J62" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="K62" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8893,61 +8893,61 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.58</v>
+        <v>1.66</v>
       </c>
       <c r="G63" t="n">
-        <v>2.62</v>
+        <v>1.71</v>
       </c>
       <c r="H63" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I63" t="n">
-        <v>3.35</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K63" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.64</v>
+        <v>1.96</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="R63" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -8956,64 +8956,64 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI63" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK63" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL63" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM63" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN63" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO63" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,61 +9028,61 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="G64" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="H64" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K64" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P64" t="n">
         <v>1.66</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9091,64 +9091,64 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE64" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL64" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM64" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN64" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9158,36 +9158,36 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Karpaty</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="G65" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H65" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I65" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K65" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9298,61 +9298,61 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Karpaty</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="G66" t="n">
-        <v>1.91</v>
+        <v>1000</v>
       </c>
       <c r="H66" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I66" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J66" t="n">
-        <v>3.95</v>
+        <v>1.01</v>
       </c>
       <c r="K66" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.2</v>
+        <v>1.24</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R66" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -9361,64 +9361,64 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z66" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK66" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AL66" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM66" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN66" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO66" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9433,61 +9433,61 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="G67" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I67" t="n">
-        <v>8.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="J67" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K67" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>1.87</v>
+        <v>4.5</v>
       </c>
       <c r="O67" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P67" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -9496,64 +9496,64 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z67" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD67" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF67" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG67" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM67" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN67" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9563,36 +9563,36 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="G68" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="H68" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I68" t="n">
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="J68" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K68" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9601,16 +9601,16 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P68" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q68" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9698,36 +9698,36 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -9838,12 +9838,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -9973,12 +9973,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -10093,7 +10093,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -10103,66 +10103,66 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="R72" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -10171,64 +10171,64 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC72" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD72" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH72" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI72" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ72" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL72" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM72" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN72" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AO72" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10243,61 +10243,61 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>2.66</v>
+        <v>4.1</v>
       </c>
       <c r="H73" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="I73" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="K73" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P73" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.57</v>
+        <v>2.4</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10306,64 +10306,64 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ73" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM73" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN73" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO73" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10378,31 +10378,31 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>9.6</v>
+        <v>2.1</v>
       </c>
       <c r="G74" t="n">
-        <v>13.5</v>
+        <v>2.66</v>
       </c>
       <c r="H74" t="n">
-        <v>1.32</v>
+        <v>2.8</v>
       </c>
       <c r="I74" t="n">
-        <v>1.39</v>
+        <v>4.2</v>
       </c>
       <c r="J74" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="K74" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10417,10 +10417,10 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
@@ -10498,7 +10498,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10508,66 +10508,66 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.58</v>
+        <v>9.6</v>
       </c>
       <c r="G75" t="n">
-        <v>1.61</v>
+        <v>13.5</v>
       </c>
       <c r="H75" t="n">
-        <v>5.8</v>
+        <v>1.32</v>
       </c>
       <c r="I75" t="n">
-        <v>6.2</v>
+        <v>1.38</v>
       </c>
       <c r="J75" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="Q75" t="n">
         <v>1.55</v>
       </c>
       <c r="R75" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -10576,64 +10576,64 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z75" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC75" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH75" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ75" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AK75" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL75" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM75" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AN75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO75" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10648,61 +10648,61 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="G76" t="n">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="H76" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="I76" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J76" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="K76" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P76" t="n">
-        <v>2</v>
+        <v>2.66</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -10711,64 +10711,64 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG76" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL76" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM76" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO76" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10783,61 +10783,61 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.2</v>
+        <v>1.86</v>
       </c>
       <c r="G77" t="n">
-        <v>4.3</v>
+        <v>1.88</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="I77" t="n">
-        <v>2.02</v>
+        <v>5.4</v>
       </c>
       <c r="J77" t="n">
         <v>3.7</v>
       </c>
       <c r="K77" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="R77" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -10846,64 +10846,64 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA77" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD77" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF77" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG77" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AH77" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI77" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK77" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL77" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM77" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AN77" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AO77" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10918,127 +10918,127 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.22</v>
+        <v>4.2</v>
       </c>
       <c r="G78" t="n">
-        <v>1.23</v>
+        <v>4.3</v>
       </c>
       <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB78" t="n">
         <v>13.5</v>
       </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
+      <c r="AC78" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="K78" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N78" t="n">
-        <v>10</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P78" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
+      <c r="AD78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK78" t="n">
         <v>60</v>
       </c>
-      <c r="Y78" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>520</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>13</v>
-      </c>
       <c r="AL78" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AM78" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN78" t="n">
-        <v>2.8</v>
+        <v>70</v>
       </c>
       <c r="AO78" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11048,36 +11048,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>12</v>
+        <v>1.23</v>
       </c>
       <c r="G79" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H79" t="n">
         <v>13</v>
       </c>
-      <c r="H79" t="n">
-        <v>1.26</v>
-      </c>
       <c r="I79" t="n">
-        <v>1.28</v>
+        <v>15</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -11086,28 +11086,28 @@
         <v>1.02</v>
       </c>
       <c r="N79" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="O79" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P79" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="R79" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="S79" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="T79" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U79" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -11116,64 +11116,64 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Y79" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
       <c r="Z79" t="n">
-        <v>10.5</v>
+        <v>180</v>
       </c>
       <c r="AA79" t="n">
-        <v>11</v>
+        <v>520</v>
       </c>
       <c r="AB79" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD79" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ79" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE79" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>440</v>
-      </c>
       <c r="AK79" t="n">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="AL79" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="AM79" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN79" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="AO79" t="n">
-        <v>3.45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11183,132 +11183,132 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.82</v>
+        <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>1.94</v>
+        <v>13</v>
       </c>
       <c r="H80" t="n">
-        <v>4.6</v>
+        <v>1.26</v>
       </c>
       <c r="I80" t="n">
-        <v>5.4</v>
+        <v>1.28</v>
       </c>
       <c r="J80" t="n">
-        <v>3.55</v>
+        <v>7.2</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N80" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>440</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>180</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO80" t="n">
         <v>3.45</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P80" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="n">
-        <v>0</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11323,31 +11323,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F81" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G81" t="n">
         <v>1.94</v>
       </c>
-      <c r="G81" t="n">
-        <v>2.42</v>
-      </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="I81" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J81" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="K81" t="n">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11356,16 +11356,16 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P81" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -11443,7 +11443,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11453,36 +11453,36 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="G82" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="H82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I82" t="n">
         <v>5.3</v>
       </c>
-      <c r="I82" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J82" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="K82" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11578,7 +11578,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11588,36 +11588,36 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="G83" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="H83" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="J83" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K83" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11723,66 +11723,66 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.37</v>
+        <v>1.76</v>
       </c>
       <c r="G84" t="n">
-        <v>1.39</v>
+        <v>1.86</v>
       </c>
       <c r="H84" t="n">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
       <c r="I84" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="J84" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="K84" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="R84" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -11791,64 +11791,64 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA84" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI84" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ84" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK84" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL84" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM84" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN84" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AO84" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11858,66 +11858,66 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2.68</v>
+        <v>1.37</v>
       </c>
       <c r="G85" t="n">
-        <v>2.76</v>
+        <v>1.39</v>
       </c>
       <c r="H85" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="I85" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.96</v>
+        <v>5.6</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="N85" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="O85" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="P85" t="n">
-        <v>1.45</v>
+        <v>2.26</v>
       </c>
       <c r="Q85" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="R85" t="n">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="S85" t="n">
-        <v>7</v>
+        <v>2.92</v>
       </c>
       <c r="T85" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="U85" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -11926,64 +11926,64 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Y85" t="n">
-        <v>8.4</v>
+        <v>32</v>
       </c>
       <c r="Z85" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AA85" t="n">
-        <v>90</v>
+        <v>470</v>
       </c>
       <c r="AB85" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AC85" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AE85" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AF85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK85" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG85" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>50</v>
-      </c>
       <c r="AL85" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AM85" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="AN85" t="n">
-        <v>65</v>
+        <v>5.7</v>
       </c>
       <c r="AO85" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11998,61 +11998,61 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="H86" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="J86" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="K86" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P86" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -12061,64 +12061,64 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA86" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE86" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG86" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH86" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL86" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN86" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO86" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,61 +12133,61 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.14</v>
+        <v>2.16</v>
       </c>
       <c r="G87" t="n">
-        <v>1.15</v>
+        <v>2.32</v>
       </c>
       <c r="H87" t="n">
-        <v>29</v>
+        <v>3.65</v>
       </c>
       <c r="I87" t="n">
-        <v>34</v>
+        <v>4.2</v>
       </c>
       <c r="J87" t="n">
-        <v>9.800000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="K87" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>2.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="R87" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12196,64 +12196,64 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AG87" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ87" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AO87" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,61 +12268,61 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.3</v>
+        <v>1.14</v>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>1.15</v>
       </c>
       <c r="H88" t="n">
-        <v>1.86</v>
+        <v>30</v>
       </c>
       <c r="I88" t="n">
-        <v>1.98</v>
+        <v>34</v>
       </c>
       <c r="J88" t="n">
-        <v>3.55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P88" t="n">
-        <v>1.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12331,192 +12331,327 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AN88" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AO88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>French Ligue 1</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>2025-12-13</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>17:05:00</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Paris FC</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="F89" t="n">
+      <c r="F90" t="n">
         <v>2.5</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G90" t="n">
         <v>2.62</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H90" t="n">
         <v>3.05</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I90" t="n">
         <v>3.25</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J90" t="n">
         <v>3.35</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K90" t="n">
         <v>3.5</v>
       </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" t="n">
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
         <v>1.08</v>
       </c>
-      <c r="N89" t="n">
+      <c r="N90" t="n">
         <v>3.55</v>
       </c>
-      <c r="O89" t="n">
+      <c r="O90" t="n">
         <v>1.36</v>
       </c>
-      <c r="P89" t="n">
+      <c r="P90" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="Q90" t="n">
         <v>2.08</v>
       </c>
-      <c r="R89" t="n">
+      <c r="R90" t="n">
         <v>1.33</v>
       </c>
-      <c r="S89" t="n">
+      <c r="S90" t="n">
         <v>3.8</v>
       </c>
-      <c r="T89" t="n">
+      <c r="T90" t="n">
         <v>1.81</v>
       </c>
-      <c r="U89" t="n">
+      <c r="U90" t="n">
         <v>2.12</v>
       </c>
-      <c r="V89" t="n">
-        <v>0</v>
-      </c>
-      <c r="W89" t="n">
-        <v>0</v>
-      </c>
-      <c r="X89" t="n">
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
         <v>14</v>
       </c>
-      <c r="Y89" t="n">
+      <c r="Y90" t="n">
         <v>12</v>
       </c>
-      <c r="Z89" t="n">
+      <c r="Z90" t="n">
         <v>23</v>
       </c>
-      <c r="AA89" t="n">
+      <c r="AA90" t="n">
         <v>60</v>
       </c>
-      <c r="AB89" t="n">
+      <c r="AB90" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC89" t="n">
+      <c r="AC90" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD89" t="n">
+      <c r="AD90" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE89" t="n">
+      <c r="AE90" t="n">
         <v>40</v>
       </c>
-      <c r="AF89" t="n">
+      <c r="AF90" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG89" t="n">
+      <c r="AG90" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH89" t="n">
+      <c r="AH90" t="n">
         <v>21</v>
       </c>
-      <c r="AI89" t="n">
+      <c r="AI90" t="n">
         <v>55</v>
       </c>
-      <c r="AJ89" t="n">
+      <c r="AJ90" t="n">
         <v>40</v>
       </c>
-      <c r="AK89" t="n">
+      <c r="AK90" t="n">
         <v>34</v>
       </c>
-      <c r="AL89" t="n">
+      <c r="AL90" t="n">
         <v>50</v>
       </c>
-      <c r="AM89" t="n">
+      <c r="AM90" t="n">
         <v>120</v>
       </c>
-      <c r="AN89" t="n">
+      <c r="AN90" t="n">
         <v>26</v>
       </c>
-      <c r="AO89" t="n">
+      <c r="AO90" t="n">
         <v>44</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO90"/>
+  <dimension ref="A1:AO91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -820,31 +820,31 @@
         <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
         <v>2.06</v>
@@ -877,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
         <v>15.5</v>
@@ -904,7 +904,7 @@
         <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>60</v>
@@ -955,7 +955,7 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -967,7 +967,7 @@
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q4" t="n">
         <v>1.58</v>
@@ -976,25 +976,25 @@
         <v>1.64</v>
       </c>
       <c r="S4" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="n">
         <v>2.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
         <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
@@ -1006,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>16</v>
@@ -1018,7 +1018,7 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
         <v>18</v>
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ceahlaul</t>
+          <t>CSC 1599 Selimbar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ACS Fotbal Club Bacau</t>
+          <t>Poli Iasi</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
         <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1468,12 +1468,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CSC 1599 Selimbar</t>
+          <t>Ceahlaul</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Poli Iasi</t>
+          <t>ACS Fotbal Club Bacau</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1501,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>ASA Targu Mures</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Istanbulspor</t>
+          <t>CSM Scolar Resita</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>1.25</v>
       </c>
       <c r="O13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.24</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.12</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,49 +2278,49 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Istanbulspor</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.08</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K14" t="n">
-        <v>970</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.92</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>2.68</v>
       </c>
       <c r="H15" t="n">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>2.52</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>1.92</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Australian A-League Men</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sukhothai</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kryvbas Krivyi Rih</t>
+          <t>Sukhothai</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kolos Kovalyovka</t>
+          <t>Nakhon Ratchasima</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kryvbas Krivyi Rih</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Kolos Kovalyovka</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.99</v>
+        <v>1.26</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
       <c r="H20" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3218,37 +3218,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.93</v>
+        <v>2.48</v>
       </c>
       <c r="G21" t="n">
-        <v>2.44</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="I21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.8</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>970</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Magdeburg</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>FC Magdeburg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Holstein Kiel</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>2.52</v>
       </c>
       <c r="H23" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3628,49 +3628,49 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>2.3</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,36 +3758,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3913,16 +3913,16 @@
         <v>2.98</v>
       </c>
       <c r="H26" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I26" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="K26" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3931,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q26" t="n">
         <v>1.72</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hoffenheim II</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.58</v>
+        <v>2.02</v>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>2.18</v>
       </c>
       <c r="H27" t="n">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.66</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.52</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Stuttgart II</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hansa Rostock</t>
+          <t>Hoffenheim II</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="I28" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,61 +4303,61 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Stuttgart II</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Hansa Rostock</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.33</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>1.34</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>2.02</v>
       </c>
       <c r="I29" t="n">
-        <v>13.5</v>
+        <v>2.38</v>
       </c>
       <c r="J29" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="K29" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="R29" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,64 +4366,64 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Duisburg</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Erzgebirge</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="G30" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="H30" t="n">
-        <v>1.96</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA30" t="n">
         <v>1000</v>
       </c>
-      <c r="J30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="AB30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO30" t="n">
         <v>1000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4573,28 +4573,28 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Alemannia Aachen</t>
+          <t>Duisburg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Viktoria Koln</t>
+          <t>Erzgebirge</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.36</v>
+        <v>1.73</v>
       </c>
       <c r="G31" t="n">
-        <v>2.94</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
         <v>5.2</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Viktoria Koln</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="H32" t="n">
-        <v>2.3</v>
+        <v>2.78</v>
       </c>
       <c r="I32" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.2</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1860 Munich</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="G34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="I34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J34" t="n">
         <v>3.2</v>
       </c>
-      <c r="J34" t="n">
-        <v>2.64</v>
-      </c>
       <c r="K34" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.52</v>
+        <v>2.02</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>1860 Munich</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,37 +5248,37 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>LNZ-Lebedyn</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1.04</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="H36" t="n">
         <v>1.04</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K36" t="n">
         <v>1000</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
         <v>1.01</v>
@@ -5287,82 +5287,82 @@
         <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sassari Torres</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5416,16 +5416,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5518,12 +5518,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Sassari Torres</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LNZ-Lebedyn</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q41" t="n">
         <v>1.01</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,17 +6053,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,31 +6193,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="H44" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="G45" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.2</v>
+        <v>1.81</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6598,31 +6598,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.55</v>
+        <v>2.38</v>
       </c>
       <c r="G46" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="H46" t="n">
-        <v>2.26</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>2.42</v>
+        <v>3.7</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6733,31 +6733,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.44</v>
+        <v>3.6</v>
       </c>
       <c r="G47" t="n">
-        <v>2.68</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="I47" t="n">
-        <v>3.85</v>
+        <v>2.4</v>
       </c>
       <c r="J47" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6868,28 +6868,28 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="G48" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="H48" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>3.35</v>
@@ -6910,7 +6910,7 @@
         <v>1.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,28 +7003,28 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="G49" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="H49" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="I49" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
         <v>3.4</v>
@@ -7033,31 +7033,31 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R49" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7066,64 +7066,64 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,66 +7133,66 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="G50" t="n">
-        <v>1.79</v>
+        <v>2.08</v>
       </c>
       <c r="H50" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S50" t="n">
         <v>4.4</v>
       </c>
-      <c r="K50" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N50" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.44</v>
-      </c>
       <c r="T50" t="n">
-        <v>1.62</v>
+        <v>2.02</v>
       </c>
       <c r="U50" t="n">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -7201,58 +7201,58 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Y50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK50" t="n">
         <v>24</v>
       </c>
-      <c r="Z50" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD50" t="n">
+      <c r="AL50" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN50" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE50" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AO50" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
@@ -7273,61 +7273,61 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H51" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R51" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="S51" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="T51" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="U51" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,28 +7336,28 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y51" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z51" t="n">
         <v>42</v>
       </c>
       <c r="AA51" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB51" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF51" t="n">
         <v>13</v>
@@ -7369,25 +7369,25 @@
         <v>17.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ51" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL51" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM51" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN51" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AO51" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -7408,61 +7408,61 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>FC Heidenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="G52" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K52" t="n">
         <v>4.4</v>
       </c>
-      <c r="I52" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N52" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="P52" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.24</v>
+        <v>1.65</v>
       </c>
       <c r="R52" t="n">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="S52" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="U52" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -7471,58 +7471,58 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y52" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Z52" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AA52" t="n">
         <v>130</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AD52" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG52" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ52" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AK52" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AL52" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AM52" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN52" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AO52" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
@@ -7543,61 +7543,61 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G53" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>5.4</v>
+        <v>3.25</v>
       </c>
       <c r="O53" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P53" t="n">
-        <v>2.46</v>
+        <v>1.76</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="R53" t="n">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="S53" t="n">
-        <v>2.62</v>
+        <v>4.2</v>
       </c>
       <c r="T53" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -7606,64 +7606,64 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y53" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="Z53" t="n">
         <v>32</v>
       </c>
       <c r="AA53" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AB53" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD53" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AE53" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AF53" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG53" t="n">
         <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI53" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL53" t="n">
         <v>48</v>
       </c>
-      <c r="AJ53" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>30</v>
-      </c>
       <c r="AM53" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AN53" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="AO53" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,66 +7673,66 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.96</v>
+        <v>2.06</v>
       </c>
       <c r="G54" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="I54" t="n">
-        <v>2.74</v>
+        <v>3.9</v>
       </c>
       <c r="J54" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K54" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P54" t="n">
-        <v>1.92</v>
+        <v>2.48</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7741,58 +7741,58 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -7813,31 +7813,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="G55" t="n">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="H55" t="n">
-        <v>1.09</v>
+        <v>2.46</v>
       </c>
       <c r="I55" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="J55" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,31 +7948,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Morton</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Airdrieonians</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G56" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I56" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8083,49 +8083,49 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Morton</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Airdrieonians</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.9</v>
+        <v>1.97</v>
       </c>
       <c r="G57" t="n">
-        <v>6.4</v>
+        <v>2.32</v>
       </c>
       <c r="H57" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
         <v>1.71</v>
       </c>
-      <c r="I57" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.63</v>
-      </c>
       <c r="Q57" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,31 +8218,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Arges Pitesti</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.34</v>
+        <v>4.1</v>
       </c>
       <c r="G58" t="n">
-        <v>2.78</v>
+        <v>5.6</v>
       </c>
       <c r="H58" t="n">
-        <v>3.4</v>
+        <v>1.81</v>
       </c>
       <c r="I58" t="n">
-        <v>3.95</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="K58" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,31 +8353,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Arges Pitesti</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="G59" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="H59" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="K59" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,61 +8488,61 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.73</v>
+        <v>2.86</v>
       </c>
       <c r="G60" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
         <v>1.74</v>
       </c>
-      <c r="H60" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P60" t="n">
-        <v>2.66</v>
-      </c>
       <c r="Q60" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="R60" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -8551,58 +8551,58 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI60" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM60" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AN60" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -8623,12 +8623,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -8638,46 +8638,46 @@
         <v>1.74</v>
       </c>
       <c r="H61" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="I61" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K61" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P61" t="n">
-        <v>2.02</v>
+        <v>2.66</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="R61" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="S61" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="T61" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="U61" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -8686,64 +8686,64 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Y61" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Z61" t="n">
         <v>46</v>
       </c>
       <c r="AA61" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE61" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF61" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG61" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI61" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AJ61" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AK61" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL61" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AM61" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AN61" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AO61" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8758,62 +8758,62 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Raith</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ross Co</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="F62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U62" t="n">
         <v>2.04</v>
       </c>
-      <c r="G62" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0</v>
-      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
@@ -8821,64 +8821,64 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH62" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK62" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL62" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM62" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN62" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8888,36 +8888,36 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Andorra CF</t>
+          <t>Ross Co</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="G63" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="H63" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="J63" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="K63" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8932,10 +8932,10 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9028,61 +9028,61 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Andorra CF</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.56</v>
+        <v>1.66</v>
       </c>
       <c r="G64" t="n">
-        <v>2.62</v>
+        <v>1.71</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="J64" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K64" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="R64" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -9091,64 +9091,64 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC64" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH64" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ64" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL64" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM64" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN64" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO64" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -9163,61 +9163,61 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.22</v>
+        <v>2.56</v>
       </c>
       <c r="G65" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="H65" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="J65" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K65" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P65" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -9226,64 +9226,64 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE65" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG65" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH65" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM65" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN65" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO65" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -9293,36 +9293,36 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Karpaty</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="G66" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H66" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I66" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J66" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K66" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9433,61 +9433,61 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="G67" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="H67" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I67" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K67" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="O67" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P67" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="R67" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -9496,64 +9496,64 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF67" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG67" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK67" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL67" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM67" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN67" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO67" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9568,31 +9568,31 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Karpaty</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="G68" t="n">
-        <v>1.81</v>
+        <v>1000</v>
       </c>
       <c r="H68" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="I68" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J68" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="K68" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -9601,16 +9601,16 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9698,66 +9698,66 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="G69" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="H69" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K69" t="n">
         <v>4.2</v>
       </c>
-      <c r="I69" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P69" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -9766,64 +9766,64 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y69" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE69" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG69" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL69" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN69" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO69" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9833,36 +9833,36 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9973,12 +9973,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -10108,12 +10108,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -10228,7 +10228,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -10238,66 +10238,66 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="R73" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -10306,64 +10306,64 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD73" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH73" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI73" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ73" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL73" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN73" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO73" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -10378,61 +10378,61 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Yverdon Sport</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="H74" t="n">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="I74" t="n">
-        <v>4.2</v>
+        <v>2.18</v>
       </c>
       <c r="J74" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K74" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P74" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.57</v>
+        <v>2.4</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -10441,64 +10441,64 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD74" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI74" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK74" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL74" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM74" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN74" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO74" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10513,31 +10513,31 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Yverdon Sport</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>9.6</v>
+        <v>2.18</v>
       </c>
       <c r="G75" t="n">
-        <v>13.5</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
-        <v>1.32</v>
+        <v>2.98</v>
       </c>
       <c r="I75" t="n">
-        <v>1.38</v>
+        <v>3.85</v>
       </c>
       <c r="J75" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="K75" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10643,66 +10643,66 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.58</v>
+        <v>9.6</v>
       </c>
       <c r="G76" t="n">
-        <v>1.61</v>
+        <v>13.5</v>
       </c>
       <c r="H76" t="n">
-        <v>5.8</v>
+        <v>1.32</v>
       </c>
       <c r="I76" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="J76" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R76" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
@@ -10711,58 +10711,58 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD76" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF76" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH76" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI76" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ76" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AK76" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL76" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM76" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AN76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AO76" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -10801,13 +10801,13 @@
         <v>4.4</v>
       </c>
       <c r="I77" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J77" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K77" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -10903,7 +10903,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10918,61 +10918,61 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4.2</v>
+        <v>1.23</v>
       </c>
       <c r="G78" t="n">
-        <v>4.3</v>
+        <v>1.24</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="I78" t="n">
-        <v>2.02</v>
+        <v>15</v>
       </c>
       <c r="J78" t="n">
-        <v>3.65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N78" t="n">
-        <v>3.55</v>
+        <v>10</v>
       </c>
       <c r="O78" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="P78" t="n">
-        <v>1.88</v>
+        <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="R78" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="S78" t="n">
-        <v>3.9</v>
+        <v>1.76</v>
       </c>
       <c r="T78" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="U78" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -10981,64 +10981,64 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>520</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF78" t="n">
         <v>12</v>
       </c>
-      <c r="Y78" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>30</v>
-      </c>
       <c r="AG78" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH78" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AI78" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AJ78" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="AK78" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AL78" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AM78" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN78" t="n">
-        <v>70</v>
+        <v>2.78</v>
       </c>
       <c r="AO78" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11053,127 +11053,127 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="G79" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K79" t="n">
+        <v>5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB79" t="n">
         <v>13</v>
       </c>
-      <c r="I79" t="n">
-        <v>15</v>
-      </c>
-      <c r="J79" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K79" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N79" t="n">
-        <v>10</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P79" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R79" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="S79" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U79" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>520</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC79" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AE79" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AF79" t="n">
         <v>12</v>
       </c>
       <c r="AG79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH79" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AJ79" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL79" t="n">
         <v>29</v>
       </c>
       <c r="AM79" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN79" t="n">
-        <v>2.82</v>
+        <v>6</v>
       </c>
       <c r="AO79" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11183,132 +11183,132 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
         <v>12</v>
       </c>
-      <c r="G80" t="n">
-        <v>13</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J80" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K80" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N80" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U80" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="n">
-        <v>48</v>
-      </c>
       <c r="Y80" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD80" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA80" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB80" t="n">
+      <c r="AE80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK80" t="n">
         <v>60</v>
       </c>
-      <c r="AC80" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>440</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>180</v>
-      </c>
       <c r="AL80" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AM80" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="AN80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO80" t="n">
-        <v>3.45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -11318,66 +11318,66 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.84</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>1.94</v>
+        <v>13</v>
       </c>
       <c r="H81" t="n">
-        <v>4.4</v>
+        <v>1.26</v>
       </c>
       <c r="I81" t="n">
-        <v>5.2</v>
+        <v>1.28</v>
       </c>
       <c r="J81" t="n">
-        <v>3.55</v>
+        <v>7.2</v>
       </c>
       <c r="K81" t="n">
-        <v>3.95</v>
+        <v>7.8</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="P81" t="n">
-        <v>1.84</v>
+        <v>3.35</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.99</v>
+        <v>1.39</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -11386,64 +11386,64 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y81" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD81" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE81" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AG81" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AH81" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI81" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ81" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AK81" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL81" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM81" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO81" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -11458,31 +11458,31 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="G82" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="H82" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="I82" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J82" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K82" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11491,16 +11491,16 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P82" t="n">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11578,7 +11578,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -11588,36 +11588,36 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="G83" t="n">
-        <v>1.72</v>
+        <v>2.38</v>
       </c>
       <c r="H83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I83" t="n">
         <v>5.3</v>
       </c>
-      <c r="I83" t="n">
-        <v>7.2</v>
-      </c>
       <c r="J83" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="K83" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -11723,36 +11723,36 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="G84" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="H84" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I84" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="J84" t="n">
         <v>3.9</v>
       </c>
       <c r="K84" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>2.48</v>
+        <v>1.92</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11848,7 +11848,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11858,66 +11858,66 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Hannover</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="G85" t="n">
-        <v>1.39</v>
+        <v>1.86</v>
       </c>
       <c r="H85" t="n">
-        <v>9.4</v>
+        <v>4.9</v>
       </c>
       <c r="I85" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="K85" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R85" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
         <v>0</v>
@@ -11926,64 +11926,64 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AB85" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD85" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AF85" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG85" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH85" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI85" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ85" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK85" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL85" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM85" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN85" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AO85" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -11993,66 +11993,66 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.68</v>
+        <v>1.38</v>
       </c>
       <c r="G86" t="n">
-        <v>2.72</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="I86" t="n">
-        <v>3.4</v>
+        <v>10.5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.96</v>
+        <v>5.6</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>2.38</v>
+        <v>4.7</v>
       </c>
       <c r="O86" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="P86" t="n">
-        <v>1.45</v>
+        <v>2.26</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="R86" t="n">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="S86" t="n">
-        <v>7</v>
+        <v>2.92</v>
       </c>
       <c r="T86" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="U86" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -12061,64 +12061,64 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Y86" t="n">
-        <v>8.4</v>
+        <v>32</v>
       </c>
       <c r="Z86" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AA86" t="n">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="AB86" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AC86" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD86" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AE86" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AF86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK86" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG86" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>50</v>
-      </c>
       <c r="AL86" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AM86" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="AN86" t="n">
-        <v>60</v>
+        <v>5.7</v>
       </c>
       <c r="AO86" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,61 +12133,61 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="G87" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="J87" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K87" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P87" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12196,64 +12196,64 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD87" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH87" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI87" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL87" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM87" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN87" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO87" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,61 +12268,61 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.14</v>
+        <v>2.14</v>
       </c>
       <c r="G88" t="n">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
-        <v>30</v>
+        <v>3.7</v>
       </c>
       <c r="I88" t="n">
-        <v>34</v>
+        <v>4.3</v>
       </c>
       <c r="J88" t="n">
-        <v>9.800000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="K88" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>2.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
       <c r="R88" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12331,64 +12331,64 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y88" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="AA88" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC88" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AD88" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF88" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AG88" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH88" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AI88" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ88" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AL88" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM88" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AN88" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AO88" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,61 +12403,61 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4.4</v>
+        <v>1.14</v>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>1.15</v>
       </c>
       <c r="H89" t="n">
-        <v>1.86</v>
+        <v>30</v>
       </c>
       <c r="I89" t="n">
-        <v>1.97</v>
+        <v>34</v>
       </c>
       <c r="J89" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="K89" t="n">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P89" t="n">
-        <v>1.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -12466,193 +12466,328 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD89" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AN89" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AO89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>French Ligue 1</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>2025-12-13</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>17:05:00</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Paris FC</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="F90" t="n">
+      <c r="F91" t="n">
         <v>2.5</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G91" t="n">
         <v>2.62</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H91" t="n">
         <v>3.05</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I91" t="n">
         <v>3.25</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J91" t="n">
         <v>3.35</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K91" t="n">
         <v>3.5</v>
       </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" t="n">
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
         <v>1.08</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N91" t="n">
         <v>3.55</v>
       </c>
-      <c r="O90" t="n">
+      <c r="O91" t="n">
         <v>1.36</v>
       </c>
-      <c r="P90" t="n">
+      <c r="P91" t="n">
         <v>1.87</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q91" t="n">
         <v>2.08</v>
       </c>
-      <c r="R90" t="n">
+      <c r="R91" t="n">
         <v>1.33</v>
       </c>
-      <c r="S90" t="n">
+      <c r="S91" t="n">
         <v>3.8</v>
       </c>
-      <c r="T90" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U90" t="n">
+      <c r="T91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U91" t="n">
         <v>2.12</v>
       </c>
-      <c r="V90" t="n">
-        <v>0</v>
-      </c>
-      <c r="W90" t="n">
-        <v>0</v>
-      </c>
-      <c r="X90" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y90" t="n">
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y91" t="n">
         <v>12</v>
       </c>
-      <c r="Z90" t="n">
+      <c r="Z91" t="n">
         <v>23</v>
       </c>
-      <c r="AA90" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB90" t="n">
+      <c r="AA91" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB91" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC90" t="n">
+      <c r="AC91" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD90" t="n">
+      <c r="AD91" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE90" t="n">
+      <c r="AE91" t="n">
         <v>40</v>
       </c>
-      <c r="AF90" t="n">
+      <c r="AF91" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG90" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI90" t="n">
+      <c r="AG91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI91" t="n">
         <v>55</v>
       </c>
-      <c r="AJ90" t="n">
+      <c r="AJ91" t="n">
         <v>40</v>
       </c>
-      <c r="AK90" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM90" t="n">
+      <c r="AK91" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM91" t="n">
         <v>120</v>
       </c>
-      <c r="AN90" t="n">
+      <c r="AN91" t="n">
         <v>26</v>
       </c>
-      <c r="AO90" t="n">
-        <v>44</v>
+      <c r="AO91" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO91"/>
+  <dimension ref="A1:AO92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
         <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -694,19 +694,19 @@
         <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
@@ -715,40 +715,40 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="n">
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
         <v>16</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -757,19 +757,19 @@
         <v>75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
         <v>70</v>
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
         <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -844,70 +844,70 @@
         <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
         <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
       </c>
       <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AO3" t="n">
         <v>48</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
         <v>3.05</v>
@@ -955,7 +955,7 @@
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -976,10 +976,10 @@
         <v>1.64</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U4" t="n">
         <v>2.62</v>
@@ -994,22 +994,22 @@
         <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>36</v>
@@ -1018,7 +1018,7 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
         <v>18</v>
@@ -1030,19 +1030,19 @@
         <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>2.76</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.02</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1219,100 +1219,100 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1369,13 +1369,13 @@
         <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1489,100 +1489,100 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
         <v>1.24</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.01</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="G9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="AA9" t="n">
         <v>1000</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="AB9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1000</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="AK11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM11" t="n">
         <v>1000</v>
       </c>
-      <c r="J11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.32</v>
+        <v>1.77</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q14" t="n">
         <v>1.73</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.92</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H16" t="n">
         <v>2.02</v>
@@ -2581,28 +2581,28 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
         <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
         <v>1.94</v>
@@ -2611,10 +2611,10 @@
         <v>1.34</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
         <v>18.5</v>
@@ -2623,43 +2623,43 @@
         <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="n">
         <v>19.5</v>
       </c>
-      <c r="AF16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
         <v>11</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I18" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>2.64</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.26</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S19" t="n">
-        <v>1.39</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Uthai Thani</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
-        <v>2.26</v>
+        <v>2.76</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Uthai Thani</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="H21" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
         <v>3.65</v>
@@ -3628,31 +3628,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Karlsruhe</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>3.45</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>2.06</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>2.18</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="G26" t="n">
-        <v>2.98</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="K26" t="n">
-        <v>5.9</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3931,16 +3931,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,61 +4033,61 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="G27" t="n">
-        <v>2.18</v>
+        <v>1.33</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>5.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4096,58 +4096,58 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J28" t="n">
         <v>3.7</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4318,16 +4318,16 @@
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I29" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K29" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,61 +4438,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.33</v>
+        <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>1.34</v>
+        <v>2.72</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="R30" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,58 +4501,58 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4588,16 +4588,16 @@
         <v>1.91</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="G32" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="I32" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -4861,7 +4861,7 @@
         <v>2.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J33" t="n">
         <v>3.2</v>
@@ -4885,7 +4885,7 @@
         <v>1.76</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H34" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5125,16 +5125,16 @@
         <v>2.58</v>
       </c>
       <c r="G35" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I35" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>4.8</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LNZ-Lebedyn</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G36" t="n">
-        <v>970</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="I36" t="n">
-        <v>970</v>
+        <v>3.85</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5383,49 +5383,49 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Siracusa</t>
+          <t>Sassari Torres</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q37" t="n">
         <v>1.01</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5518,12 +5518,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sassari Torres</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>LNZ-Lebedyn</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P42" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,31 +6328,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="G44" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="I44" t="n">
-        <v>4.9</v>
+        <v>2.52</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>2.18</v>
       </c>
       <c r="H45" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.52</v>
+        <v>5.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K45" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G46" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I46" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G47" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J47" t="n">
         <v>3.15</v>
@@ -6775,7 +6775,7 @@
         <v>1.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G48" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K48" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G49" t="n">
         <v>2.42</v>
@@ -7021,13 +7021,13 @@
         <v>3.65</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>1.59</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I50" t="n">
         <v>4.7</v>
@@ -7189,7 +7189,7 @@
         <v>4.4</v>
       </c>
       <c r="T50" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U50" t="n">
         <v>1.92</v>
@@ -7207,13 +7207,13 @@
         <v>13.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA50" t="n">
         <v>140</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC50" t="n">
         <v>7.4</v>
@@ -7222,10 +7222,10 @@
         <v>19</v>
       </c>
       <c r="AE50" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF50" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG50" t="n">
         <v>11</v>
@@ -7234,22 +7234,22 @@
         <v>21</v>
       </c>
       <c r="AI50" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="n">
         <v>25</v>
       </c>
       <c r="AK50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL50" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM50" t="n">
         <v>170</v>
       </c>
       <c r="AN50" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO50" t="n">
         <v>110</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G51" t="n">
         <v>1.79</v>
@@ -7294,7 +7294,7 @@
         <v>4.9</v>
       </c>
       <c r="J51" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K51" t="n">
         <v>4.5</v>
@@ -7312,22 +7312,22 @@
         <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R51" t="n">
         <v>1.67</v>
       </c>
       <c r="S51" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T51" t="n">
         <v>1.6</v>
       </c>
       <c r="U51" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y51" t="n">
         <v>25</v>
@@ -7345,34 +7345,34 @@
         <v>42</v>
       </c>
       <c r="AA51" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB51" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE51" t="n">
         <v>50</v>
       </c>
       <c r="AF51" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI51" t="n">
         <v>48</v>
       </c>
       <c r="AJ51" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK51" t="n">
         <v>16</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G52" t="n">
         <v>1.8</v>
@@ -7450,7 +7450,7 @@
         <v>2.46</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R52" t="n">
         <v>1.58</v>
@@ -7459,10 +7459,10 @@
         <v>2.6</v>
       </c>
       <c r="T52" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U52" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>24</v>
       </c>
       <c r="Y52" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z52" t="n">
         <v>42</v>
@@ -7483,13 +7483,13 @@
         <v>130</v>
       </c>
       <c r="AB52" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
@@ -7498,31 +7498,31 @@
         <v>13</v>
       </c>
       <c r="AG52" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI52" t="n">
         <v>55</v>
       </c>
       <c r="AJ52" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL52" t="n">
         <v>29</v>
       </c>
       <c r="AM52" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO52" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53">
@@ -7582,10 +7582,10 @@
         <v>1.41</v>
       </c>
       <c r="P53" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R53" t="n">
         <v>1.29</v>
@@ -7594,10 +7594,10 @@
         <v>4.2</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U53" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -7618,16 +7618,16 @@
         <v>130</v>
       </c>
       <c r="AB53" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AF53" t="n">
         <v>11.5</v>
@@ -7636,13 +7636,13 @@
         <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI53" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK53" t="n">
         <v>25</v>
@@ -7651,10 +7651,10 @@
         <v>48</v>
       </c>
       <c r="AM53" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN53" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO53" t="n">
         <v>110</v>
@@ -7720,7 +7720,7 @@
         <v>2.48</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R54" t="n">
         <v>1.59</v>
@@ -7729,10 +7729,10 @@
         <v>2.56</v>
       </c>
       <c r="T54" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U54" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -7744,7 +7744,7 @@
         <v>24</v>
       </c>
       <c r="Y54" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z54" t="n">
         <v>32</v>
@@ -7753,40 +7753,40 @@
         <v>70</v>
       </c>
       <c r="AB54" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC54" t="n">
         <v>9.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE54" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF54" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG54" t="n">
         <v>11.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ54" t="n">
         <v>26</v>
       </c>
       <c r="AK54" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL54" t="n">
         <v>29</v>
       </c>
       <c r="AM54" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN54" t="n">
         <v>10.5</v>
@@ -7828,16 +7828,16 @@
         <v>3.2</v>
       </c>
       <c r="H55" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I55" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J55" t="n">
         <v>3.35</v>
       </c>
       <c r="K55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>1.95</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7963,13 +7963,13 @@
         <v>2</v>
       </c>
       <c r="H56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I56" t="n">
         <v>4.2</v>
       </c>
-      <c r="I56" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K56" t="n">
         <v>3.95</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G57" t="n">
         <v>2.32</v>
       </c>
       <c r="H57" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J57" t="n">
         <v>3.2</v>
       </c>
       <c r="K57" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>1.71</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="G58" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="H58" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J58" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K58" t="n">
         <v>3.9</v>
@@ -8260,7 +8260,7 @@
         <v>1.72</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>2.34</v>
       </c>
       <c r="G59" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="H59" t="n">
         <v>3.4</v>
@@ -8374,7 +8374,7 @@
         <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K59" t="n">
         <v>3.3</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="G60" t="n">
         <v>4.7</v>
@@ -8506,10 +8506,10 @@
         <v>2.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J60" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K60" t="n">
         <v>4.2</v>
@@ -8527,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>1.73</v>
       </c>
       <c r="G61" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H61" t="n">
         <v>4.9</v>
@@ -8656,7 +8656,7 @@
         <v>1.03</v>
       </c>
       <c r="N61" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O61" t="n">
         <v>1.19</v>
@@ -8686,13 +8686,13 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y61" t="n">
         <v>25</v>
       </c>
-      <c r="Y61" t="n">
-        <v>24</v>
-      </c>
       <c r="Z61" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA61" t="n">
         <v>130</v>
@@ -8719,7 +8719,7 @@
         <v>16</v>
       </c>
       <c r="AI61" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ61" t="n">
         <v>19</v>
@@ -8737,7 +8737,7 @@
         <v>7.2</v>
       </c>
       <c r="AO61" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62">
@@ -8770,10 +8770,10 @@
         <v>1.73</v>
       </c>
       <c r="G62" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I62" t="n">
         <v>5.7</v>
@@ -8803,13 +8803,13 @@
         <v>1.92</v>
       </c>
       <c r="R62" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S62" t="n">
         <v>3.35</v>
       </c>
       <c r="T62" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U62" t="n">
         <v>2.04</v>
@@ -8827,10 +8827,10 @@
         <v>19.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA62" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB62" t="n">
         <v>8.800000000000001</v>
@@ -8854,19 +8854,19 @@
         <v>21</v>
       </c>
       <c r="AI62" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK62" t="n">
         <v>18</v>
       </c>
       <c r="AL62" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM62" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AN62" t="n">
         <v>10.5</v>
@@ -8905,10 +8905,10 @@
         <v>2.04</v>
       </c>
       <c r="G63" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I63" t="n">
         <v>4.4</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q63" t="n">
         <v>2.04</v>
@@ -9046,10 +9046,10 @@
         <v>5.5</v>
       </c>
       <c r="I64" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K64" t="n">
         <v>4.3</v>
@@ -9070,7 +9070,7 @@
         <v>1.96</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G65" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I65" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.35</v>
       </c>
       <c r="J65" t="n">
         <v>3.15</v>
       </c>
       <c r="K65" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -9196,16 +9196,16 @@
         <v>1.11</v>
       </c>
       <c r="N65" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O65" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P65" t="n">
         <v>1.64</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R65" t="n">
         <v>1.23</v>
@@ -9238,7 +9238,7 @@
         <v>70</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC65" t="n">
         <v>7</v>
@@ -9247,31 +9247,31 @@
         <v>15</v>
       </c>
       <c r="AE65" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF65" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG65" t="n">
         <v>13</v>
       </c>
       <c r="AH65" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI65" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ65" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK65" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL65" t="n">
         <v>60</v>
       </c>
       <c r="AM65" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN65" t="n">
         <v>36</v>
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G66" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H66" t="n">
         <v>3.65</v>
       </c>
       <c r="I66" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J66" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K66" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9340,7 +9340,7 @@
         <v>1.66</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9433,31 +9433,31 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Polissya Zhytomyr</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Karpaty</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.56</v>
+        <v>2.1</v>
       </c>
       <c r="G67" t="n">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I67" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="J67" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="K67" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
@@ -9466,16 +9466,16 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9568,61 +9568,61 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Polissya Zhytomyr</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Karpaty</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="G68" t="n">
-        <v>1000</v>
+        <v>1.91</v>
       </c>
       <c r="H68" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I68" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J68" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="K68" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P68" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9631,64 +9631,64 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD68" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE68" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK68" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL68" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM68" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN68" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO68" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9703,61 +9703,61 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="G69" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="H69" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="I69" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K69" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="O69" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P69" t="n">
-        <v>2.22</v>
+        <v>1.99</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R69" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -9766,58 +9766,58 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ69" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK69" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL69" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN69" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO69" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -9847,16 +9847,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G70" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H70" t="n">
         <v>4.2</v>
       </c>
       <c r="I70" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J70" t="n">
         <v>3.45</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -10393,10 +10393,10 @@
         <v>4.2</v>
       </c>
       <c r="H74" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I74" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J74" t="n">
         <v>3.35</v>
@@ -10429,10 +10429,10 @@
         <v>4.7</v>
       </c>
       <c r="T74" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U74" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -10444,16 +10444,16 @@
         <v>10.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z74" t="n">
         <v>12.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB74" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC74" t="n">
         <v>7.6</v>
@@ -10468,31 +10468,31 @@
         <v>30</v>
       </c>
       <c r="AG74" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH74" t="n">
         <v>23</v>
       </c>
       <c r="AI74" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ74" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK74" t="n">
         <v>65</v>
       </c>
       <c r="AL74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="n">
         <v>180</v>
       </c>
       <c r="AN74" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO74" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -10522,16 +10522,16 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="H75" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J75" t="n">
         <v>3.25</v>
@@ -10555,7 +10555,7 @@
         <v>2.2</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10657,13 +10657,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="G76" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H76" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I76" t="n">
         <v>1.4</v>
@@ -10672,7 +10672,7 @@
         <v>5.6</v>
       </c>
       <c r="K76" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10687,10 +10687,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10783,61 +10783,61 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="G77" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="I77" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J77" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="K77" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P77" t="n">
-        <v>2.02</v>
+        <v>2.66</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -10846,64 +10846,64 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z77" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD77" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE77" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG77" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH77" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AO77" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10918,61 +10918,61 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.23</v>
+        <v>1.86</v>
       </c>
       <c r="G78" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="H78" t="n">
-        <v>13.5</v>
+        <v>4.3</v>
       </c>
       <c r="I78" t="n">
-        <v>15</v>
+        <v>4.9</v>
       </c>
       <c r="J78" t="n">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="K78" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="R78" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -10981,64 +10981,64 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Z78" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AC78" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AF78" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG78" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH78" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ78" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AK78" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL78" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM78" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN78" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AO78" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -11053,61 +11053,61 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.58</v>
+        <v>4.2</v>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H79" t="n">
-        <v>5.8</v>
+        <v>2.02</v>
       </c>
       <c r="I79" t="n">
-        <v>6.2</v>
+        <v>2.04</v>
       </c>
       <c r="J79" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="K79" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N79" t="n">
-        <v>5.9</v>
+        <v>3.55</v>
       </c>
       <c r="O79" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="P79" t="n">
-        <v>2.68</v>
+        <v>1.87</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="R79" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="S79" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="T79" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="U79" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
@@ -11116,64 +11116,64 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Y79" t="n">
-        <v>32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z79" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="AA79" t="n">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="AB79" t="n">
         <v>13</v>
       </c>
       <c r="AC79" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD79" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AE79" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN79" t="n">
         <v>70</v>
       </c>
-      <c r="AF79" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ79" t="n">
+      <c r="AO79" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -11188,61 +11188,61 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4.2</v>
+        <v>1.22</v>
       </c>
       <c r="G80" t="n">
-        <v>4.3</v>
+        <v>1.23</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="I80" t="n">
-        <v>2.02</v>
+        <v>15</v>
       </c>
       <c r="J80" t="n">
-        <v>3.65</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>3.7</v>
+        <v>9</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N80" t="n">
+        <v>10</v>
+      </c>
+      <c r="O80" t="n">
         <v>1.09</v>
       </c>
-      <c r="N80" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1.37</v>
-      </c>
       <c r="P80" t="n">
-        <v>1.88</v>
+        <v>4</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="R80" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="S80" t="n">
-        <v>3.9</v>
+        <v>1.75</v>
       </c>
       <c r="T80" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="U80" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -11251,58 +11251,58 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF80" t="n">
         <v>12</v>
       </c>
-      <c r="Y80" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>32</v>
-      </c>
       <c r="AG80" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH80" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI80" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ80" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="AK80" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AL80" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AM80" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN80" t="n">
-        <v>70</v>
+        <v>2.76</v>
       </c>
       <c r="AO80" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81">
@@ -11335,13 +11335,13 @@
         <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="I81" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J81" t="n">
         <v>7.2</v>
@@ -11356,10 +11356,10 @@
         <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P81" t="n">
         <v>3.35</v>
@@ -11371,13 +11371,13 @@
         <v>1.93</v>
       </c>
       <c r="S81" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T81" t="n">
         <v>1.83</v>
       </c>
       <c r="U81" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -11386,13 +11386,13 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y81" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA81" t="n">
         <v>11</v>
@@ -11401,7 +11401,7 @@
         <v>60</v>
       </c>
       <c r="AC81" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AD81" t="n">
         <v>11.5</v>
@@ -11410,28 +11410,28 @@
         <v>13.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AG81" t="n">
         <v>46</v>
       </c>
       <c r="AH81" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI81" t="n">
         <v>32</v>
       </c>
       <c r="AJ81" t="n">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="AK81" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL81" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM81" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN81" t="n">
         <v>1000</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G82" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I82" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>1.84</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="G83" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H83" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I83" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="J83" t="n">
         <v>3.15</v>
       </c>
       <c r="K83" t="n">
-        <v>5.4</v>
+        <v>3.65</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>1.65</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="G84" t="n">
         <v>1.72</v>
       </c>
       <c r="H84" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I84" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J84" t="n">
         <v>3.9</v>
       </c>
       <c r="K84" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="G85" t="n">
         <v>1.86</v>
@@ -11881,13 +11881,13 @@
         <v>4.9</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J85" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K85" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11902,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12034,7 +12034,7 @@
         <v>4.7</v>
       </c>
       <c r="O86" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P86" t="n">
         <v>2.26</v>
@@ -12061,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y86" t="n">
         <v>32</v>
@@ -12070,7 +12070,7 @@
         <v>100</v>
       </c>
       <c r="AA86" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AB86" t="n">
         <v>8.6</v>
@@ -12106,19 +12106,19 @@
         <v>42</v>
       </c>
       <c r="AM86" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN86" t="n">
         <v>5.7</v>
       </c>
       <c r="AO86" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,61 +12133,61 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.68</v>
+        <v>1.51</v>
       </c>
       <c r="G87" t="n">
-        <v>2.72</v>
+        <v>1.62</v>
       </c>
       <c r="H87" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>3.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J87" t="n">
-        <v>2.98</v>
+        <v>4.2</v>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -12196,64 +12196,64 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA87" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD87" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF87" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AG87" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH87" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI87" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ87" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AL87" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AM87" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="AN87" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AO87" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -12268,61 +12268,61 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.14</v>
+        <v>2.7</v>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>2.76</v>
       </c>
       <c r="H88" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I88" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="J88" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="P88" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
@@ -12331,64 +12331,64 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI88" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL88" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM88" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN88" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO88" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,61 +12403,61 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.14</v>
+        <v>2.18</v>
       </c>
       <c r="G89" t="n">
-        <v>1.15</v>
+        <v>2.34</v>
       </c>
       <c r="H89" t="n">
-        <v>30</v>
+        <v>3.65</v>
       </c>
       <c r="I89" t="n">
-        <v>34</v>
+        <v>4.3</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>3.15</v>
       </c>
       <c r="K89" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="R89" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -12466,64 +12466,64 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="AA89" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB89" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AD89" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AG89" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH89" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AI89" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ89" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AK89" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AL89" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM89" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AN89" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AO89" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -12538,61 +12538,61 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.4</v>
+        <v>1.14</v>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>1.15</v>
       </c>
       <c r="H90" t="n">
-        <v>1.86</v>
+        <v>30</v>
       </c>
       <c r="I90" t="n">
-        <v>1.97</v>
+        <v>34</v>
       </c>
       <c r="J90" t="n">
-        <v>3.55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P90" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -12601,193 +12601,328 @@
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y90" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AE90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF90" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AG90" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AK90" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL90" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM90" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AN90" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AO90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>French Ligue 1</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>2025-12-13</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>17:05:00</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Paris FC</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F92" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G92" t="n">
         <v>2.62</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H92" t="n">
         <v>3.05</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I92" t="n">
         <v>3.25</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J92" t="n">
         <v>3.35</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K92" t="n">
         <v>3.5</v>
       </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
         <v>1.08</v>
       </c>
-      <c r="N91" t="n">
+      <c r="N92" t="n">
         <v>3.55</v>
       </c>
-      <c r="O91" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P91" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q91" t="n">
+      <c r="O92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q92" t="n">
         <v>2.08</v>
       </c>
-      <c r="R91" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S91" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U91" t="n">
+      <c r="R92" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U92" t="n">
         <v>2.12</v>
       </c>
-      <c r="V91" t="n">
-        <v>0</v>
-      </c>
-      <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="n">
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y91" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z91" t="n">
+      <c r="Y92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z92" t="n">
         <v>23</v>
       </c>
-      <c r="AA91" t="n">
+      <c r="AA92" t="n">
         <v>65</v>
       </c>
-      <c r="AB91" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI91" t="n">
+      <c r="AB92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI92" t="n">
         <v>55</v>
       </c>
-      <c r="AJ91" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK91" t="n">
+      <c r="AJ92" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK92" t="n">
         <v>36</v>
       </c>
-      <c r="AL91" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM91" t="n">
+      <c r="AL92" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM92" t="n">
         <v>120</v>
       </c>
-      <c r="AN91" t="n">
+      <c r="AN92" t="n">
         <v>26</v>
       </c>
-      <c r="AO91" t="n">
-        <v>38</v>
+      <c r="AO92" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
@@ -697,7 +697,7 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -715,10 +715,10 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>3.85</v>
@@ -820,7 +820,7 @@
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -856,7 +856,7 @@
         <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
@@ -871,7 +871,7 @@
         <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>15.5</v>
@@ -967,7 +967,7 @@
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q4" t="n">
         <v>1.59</v>
@@ -982,7 +982,7 @@
         <v>1.54</v>
       </c>
       <c r="U4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V4" t="n">
         <v>1.45</v>
@@ -991,7 +991,7 @@
         <v>1.76</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y4" t="n">
         <v>19.5</v>
@@ -1003,7 +1003,7 @@
         <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>9.800000000000001</v>
@@ -1114,10 +1114,10 @@
         <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.01</v>
@@ -1501,13 +1501,13 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="O8" t="n">
         <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
         <v>1.15</v>
@@ -1519,10 +1519,10 @@
         <v>1.18</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
@@ -1615,7 +1615,7 @@
         <v>1.29</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
         <v>1.09</v>
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -1663,7 +1663,7 @@
         <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -1882,40 +1882,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="O11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
         <v>1.15</v>
@@ -1924,16 +1924,16 @@
         <v>1.37</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.82</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
         <v>970</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G13" t="n">
         <v>7.4</v>
@@ -2161,7 +2161,7 @@
         <v>1.65</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2200,7 +2200,7 @@
         <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W13" t="n">
         <v>1.16</v>
@@ -2449,7 +2449,7 @@
         <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
         <v>2.1</v>
@@ -2458,13 +2458,13 @@
         <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
         <v>2.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
         <v>2.26</v>
@@ -2476,7 +2476,7 @@
         <v>1.92</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
         <v>19.5</v>
@@ -2521,13 +2521,13 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
         <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2695,13 +2695,13 @@
         <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>2.02</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2722,7 +2722,7 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
         <v>1.6</v>
@@ -2731,16 +2731,16 @@
         <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
         <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="W17" t="n">
         <v>1.34</v>
@@ -2749,7 +2749,7 @@
         <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
         <v>18.5</v>
@@ -2770,13 +2770,13 @@
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>34</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO17" t="n">
         <v>11.5</v>
@@ -2869,7 +2869,7 @@
         <v>3.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
         <v>1.9</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.42</v>
@@ -2995,25 +2995,25 @@
         <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
         <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
@@ -3025,10 +3025,10 @@
         <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
         <v>9.4</v>
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>22</v>
@@ -3109,13 +3109,13 @@
         <v>5.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
         <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
         <v>2.76</v>
@@ -3247,7 +3247,7 @@
         <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.28</v>
@@ -3268,7 +3268,7 @@
         <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>2.78</v>
@@ -3304,7 +3304,7 @@
         <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE21" t="n">
         <v>36</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="Q22" t="n">
         <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
         <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="W22" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN22" t="n">
         <v>970</v>
       </c>
-      <c r="Y22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G23" t="n">
         <v>3.75</v>
@@ -3514,7 +3514,7 @@
         <v>2.18</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -3535,10 +3535,10 @@
         <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S23" t="n">
         <v>2.7</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
@@ -3658,16 +3658,16 @@
         <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q24" t="n">
         <v>1.65</v>
@@ -3679,70 +3679,70 @@
         <v>2.58</v>
       </c>
       <c r="T24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U24" t="n">
         <v>2.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -3814,7 +3814,7 @@
         <v>2.46</v>
       </c>
       <c r="T25" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="U25" t="n">
         <v>2.56</v>
@@ -3952,7 +3952,7 @@
         <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
         <v>1.19</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="H27" t="n">
         <v>2.98</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>4.6</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
         <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
         <v>1.31</v>
       </c>
       <c r="S27" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4189,7 +4189,7 @@
         <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="K28" t="n">
         <v>3.8</v>
@@ -4594,7 +4594,7 @@
         <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
         <v>3.65</v>
@@ -4738,7 +4738,7 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>2.16</v>
@@ -4855,7 +4855,7 @@
         <v>2.16</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H33" t="n">
         <v>3.2</v>
@@ -4903,7 +4903,7 @@
         <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="H34" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I34" t="n">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -5011,7 +5011,7 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
         <v>1.2</v>
@@ -5020,13 +5020,13 @@
         <v>2.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="R34" t="n">
         <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
         <v>1.47</v>
@@ -5035,10 +5035,10 @@
         <v>2.24</v>
       </c>
       <c r="V34" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5065,10 +5065,10 @@
         <v>34</v>
       </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH34" t="n">
         <v>22</v>
@@ -5077,13 +5077,13 @@
         <v>46</v>
       </c>
       <c r="AJ34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
         <v>40</v>
       </c>
       <c r="AL34" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM34" t="n">
         <v>90</v>
@@ -5128,7 +5128,7 @@
         <v>1.35</v>
       </c>
       <c r="H35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I35" t="n">
         <v>13</v>
@@ -5167,7 +5167,7 @@
         <v>2.32</v>
       </c>
       <c r="U35" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V35" t="n">
         <v>1.08</v>
@@ -5188,7 +5188,7 @@
         <v>570</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
         <v>12.5</v>
@@ -5218,7 +5218,7 @@
         <v>15</v>
       </c>
       <c r="AL35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM35" t="n">
         <v>220</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="G36" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="H36" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="I36" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="J36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
         <v>4.8</v>
@@ -5281,13 +5281,13 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O36" t="n">
         <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q36" t="n">
         <v>1.54</v>
@@ -5299,16 +5299,16 @@
         <v>2.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
         <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="W36" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5323,7 +5323,7 @@
         <v>55</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
         <v>13.5</v>
@@ -5335,7 +5335,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
         <v>970</v>
@@ -5347,13 +5347,13 @@
         <v>46</v>
       </c>
       <c r="AJ36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK36" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
@@ -5401,7 +5401,7 @@
         <v>4.4</v>
       </c>
       <c r="I37" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J37" t="n">
         <v>3.9</v>
@@ -5431,7 +5431,7 @@
         <v>1.45</v>
       </c>
       <c r="S37" t="n">
-        <v>2.52</v>
+        <v>2.76</v>
       </c>
       <c r="T37" t="n">
         <v>1.59</v>
@@ -5440,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W37" t="n">
         <v>2.1</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="G38" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="H38" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="I38" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
         <v>4.4</v>
@@ -5557,7 +5557,7 @@
         <v>1.28</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q38" t="n">
         <v>1.82</v>
@@ -5569,70 +5569,70 @@
         <v>3.05</v>
       </c>
       <c r="T38" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U38" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="V38" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="W38" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="X38" t="n">
         <v>19.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC38" t="n">
         <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH38" t="n">
         <v>20</v>
       </c>
       <c r="AI38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL38" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM38" t="n">
         <v>100</v>
       </c>
       <c r="AN38" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO38" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="I39" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="J39" t="n">
         <v>3.8</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,16 +5686,16 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R39" t="n">
         <v>1.47</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5821,7 +5821,7 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -5842,7 +5842,7 @@
         <v>1.69</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V40" t="n">
         <v>1.68</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="G41" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H41" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J41" t="n">
         <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5965,7 +5965,7 @@
         <v>1.77</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R41" t="n">
         <v>1.29</v>
@@ -5974,16 +5974,16 @@
         <v>3.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U41" t="n">
         <v>2.02</v>
       </c>
       <c r="V41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W41" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X41" t="n">
         <v>970</v>
@@ -5995,7 +5995,7 @@
         <v>970</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB41" t="n">
         <v>970</v>
@@ -6019,7 +6019,7 @@
         <v>970</v>
       </c>
       <c r="AI41" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ41" t="n">
         <v>60</v>
@@ -6037,7 +6037,7 @@
         <v>42</v>
       </c>
       <c r="AO41" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G42" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H42" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I42" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L42" t="n">
         <v>1.53</v>
@@ -6097,49 +6097,49 @@
         <v>1.5</v>
       </c>
       <c r="P42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q42" t="n">
         <v>2.46</v>
       </c>
       <c r="R42" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
       </c>
       <c r="T42" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U42" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V42" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W42" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X42" t="n">
         <v>11.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE42" t="n">
         <v>1000</v>
@@ -6148,7 +6148,7 @@
         <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
         <v>36</v>
@@ -6157,7 +6157,7 @@
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK42" t="n">
         <v>29</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6214,7 +6214,7 @@
         <v>2.82</v>
       </c>
       <c r="J43" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K43" t="n">
         <v>3.4</v>
@@ -6361,13 +6361,13 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q44" t="n">
         <v>2.24</v>
@@ -6910,25 +6910,25 @@
         <v>2.02</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
         <v>1.39</v>
       </c>
       <c r="S48" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="T48" t="n">
         <v>1.79</v>
       </c>
       <c r="U48" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="V48" t="n">
         <v>2.2</v>
       </c>
       <c r="W48" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X48" t="n">
         <v>20</v>
@@ -7018,7 +7018,7 @@
         <v>3.9</v>
       </c>
       <c r="H49" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I49" t="n">
         <v>2.42</v>
@@ -7027,7 +7027,7 @@
         <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7054,10 +7054,10 @@
         <v>4.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="U49" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V49" t="n">
         <v>1.7</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="G50" t="n">
         <v>2.72</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="I50" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K50" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.38</v>
@@ -7189,13 +7189,13 @@
         <v>3.7</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V50" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W50" t="n">
         <v>1.58</v>
@@ -7327,7 +7327,7 @@
         <v>1.94</v>
       </c>
       <c r="U51" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V51" t="n">
         <v>1.27</v>
@@ -7381,7 +7381,7 @@
         <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN51" t="n">
         <v>26</v>
@@ -7417,16 +7417,16 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
         <v>3.3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J52" t="n">
         <v>3.5</v>
@@ -7561,13 +7561,13 @@
         <v>3.65</v>
       </c>
       <c r="I53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
         <v>3.05</v>
       </c>
       <c r="K53" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,31 +7576,31 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="O53" t="n">
         <v>1.02</v>
       </c>
       <c r="P53" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q53" t="n">
         <v>2.42</v>
       </c>
       <c r="R53" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S53" t="n">
         <v>4.1</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V53" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W53" t="n">
         <v>1.7</v>
@@ -7702,37 +7702,37 @@
         <v>3.2</v>
       </c>
       <c r="K54" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.46</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O54" t="n">
         <v>1.39</v>
       </c>
       <c r="P54" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R54" t="n">
         <v>1.27</v>
       </c>
       <c r="S54" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U54" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V54" t="n">
         <v>1.36</v>
@@ -7741,7 +7741,7 @@
         <v>1.68</v>
       </c>
       <c r="X54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y54" t="n">
         <v>12.5</v>
@@ -7750,10 +7750,10 @@
         <v>25</v>
       </c>
       <c r="AA54" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB54" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC54" t="n">
         <v>8</v>
@@ -7765,7 +7765,7 @@
         <v>48</v>
       </c>
       <c r="AF54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG54" t="n">
         <v>12</v>
@@ -7774,7 +7774,7 @@
         <v>20</v>
       </c>
       <c r="AI54" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ54" t="n">
         <v>34</v>
@@ -7792,7 +7792,7 @@
         <v>26</v>
       </c>
       <c r="AO54" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I55" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4.6</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7849,40 +7849,40 @@
         <v>3.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R55" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S55" t="n">
         <v>4.4</v>
       </c>
       <c r="T55" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U55" t="n">
         <v>1.92</v>
       </c>
       <c r="V55" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W55" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X55" t="n">
         <v>10.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z55" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA55" t="n">
         <v>110</v>
@@ -7915,7 +7915,7 @@
         <v>24</v>
       </c>
       <c r="AK55" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL55" t="n">
         <v>48</v>
@@ -7924,7 +7924,7 @@
         <v>140</v>
       </c>
       <c r="AN55" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AO55" t="n">
         <v>85</v>
@@ -8002,7 +8002,7 @@
         <v>1.98</v>
       </c>
       <c r="U56" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="V56" t="n">
         <v>1.32</v>
@@ -8095,7 +8095,7 @@
         <v>1.74</v>
       </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H57" t="n">
         <v>4.4</v>
@@ -8104,7 +8104,7 @@
         <v>5.2</v>
       </c>
       <c r="J57" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K57" t="n">
         <v>4.5</v>
@@ -8131,7 +8131,7 @@
         <v>1.38</v>
       </c>
       <c r="S57" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="T57" t="n">
         <v>1.68</v>
@@ -8239,7 +8239,7 @@
         <v>5.3</v>
       </c>
       <c r="J58" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K58" t="n">
         <v>4.6</v>
@@ -8257,10 +8257,10 @@
         <v>1.23</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R58" t="n">
         <v>1.47</v>
@@ -8362,58 +8362,58 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="G59" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="H59" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J59" t="n">
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N59" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O59" t="n">
         <v>1.48</v>
       </c>
       <c r="P59" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R59" t="n">
         <v>1.21</v>
       </c>
       <c r="S59" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T59" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U59" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="V59" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X59" t="n">
         <v>10.5</v>
@@ -8428,7 +8428,7 @@
         <v>85</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC59" t="n">
         <v>8.6</v>
@@ -8440,10 +8440,10 @@
         <v>60</v>
       </c>
       <c r="AF59" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH59" t="n">
         <v>25</v>
@@ -8452,10 +8452,10 @@
         <v>85</v>
       </c>
       <c r="AJ59" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK59" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL59" t="n">
         <v>70</v>
@@ -8464,7 +8464,7 @@
         <v>180</v>
       </c>
       <c r="AN59" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO59" t="n">
         <v>75</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="G60" t="n">
         <v>4.7</v>
@@ -8530,7 +8530,7 @@
         <v>2.12</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R60" t="n">
         <v>1.44</v>
@@ -8548,7 +8548,7 @@
         <v>1.84</v>
       </c>
       <c r="W60" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X60" t="n">
         <v>23</v>
@@ -8641,13 +8641,13 @@
         <v>4.6</v>
       </c>
       <c r="I61" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.75</v>
       </c>
       <c r="K61" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8668,7 +8668,7 @@
         <v>1.78</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S61" t="n">
         <v>2.96</v>
@@ -8680,7 +8680,7 @@
         <v>2.06</v>
       </c>
       <c r="V61" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W61" t="n">
         <v>2.14</v>
@@ -8797,10 +8797,10 @@
         <v>1.21</v>
       </c>
       <c r="P62" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R62" t="n">
         <v>1.58</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G64" t="n">
         <v>1.77</v>
       </c>
-      <c r="G64" t="n">
-        <v>1.78</v>
-      </c>
       <c r="H64" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
         <v>4.3</v>
@@ -9130,7 +9130,7 @@
         <v>18.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL64" t="n">
         <v>28</v>
@@ -9208,7 +9208,7 @@
         <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S65" t="n">
         <v>2.4</v>
@@ -9337,10 +9337,10 @@
         <v>1.42</v>
       </c>
       <c r="P66" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R66" t="n">
         <v>1.28</v>
@@ -9349,7 +9349,7 @@
         <v>4.3</v>
       </c>
       <c r="T66" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>1.92</v>
@@ -9580,10 +9580,10 @@
         <v>2.96</v>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H68" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I68" t="n">
         <v>2.66</v>
@@ -9619,7 +9619,7 @@
         <v>3.3</v>
       </c>
       <c r="T68" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="U68" t="n">
         <v>2.18</v>
@@ -9754,7 +9754,7 @@
         <v>3.4</v>
       </c>
       <c r="T69" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="U69" t="n">
         <v>2.06</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="G71" t="n">
         <v>4.7</v>
       </c>
       <c r="H71" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="I71" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="J71" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K71" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10012,10 +10012,10 @@
         <v>1.19</v>
       </c>
       <c r="P71" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R71" t="n">
         <v>1.09</v>
@@ -10027,10 +10027,10 @@
         <v>1.4</v>
       </c>
       <c r="U71" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W71" t="n">
         <v>1.27</v>
@@ -10396,7 +10396,7 @@
         <v>1.71</v>
       </c>
       <c r="I74" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="J74" t="n">
         <v>3.55</v>
@@ -10435,7 +10435,7 @@
         <v>1.81</v>
       </c>
       <c r="V74" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="W74" t="n">
         <v>1.17</v>
@@ -10525,7 +10525,7 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H75" t="n">
         <v>2.32</v>
@@ -10543,7 +10543,7 @@
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
         <v>3.75</v>
@@ -10561,19 +10561,19 @@
         <v>1.37</v>
       </c>
       <c r="S75" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="T75" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V75" t="n">
         <v>1.7</v>
       </c>
       <c r="W75" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I76" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K76" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10690,7 +10690,7 @@
         <v>1.86</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R76" t="n">
         <v>1.25</v>
@@ -10702,19 +10702,19 @@
         <v>1.57</v>
       </c>
       <c r="U76" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V76" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W76" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
       </c>
       <c r="Y76" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z76" t="n">
         <v>1000</v>
@@ -10729,16 +10729,16 @@
         <v>970</v>
       </c>
       <c r="AD76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE76" t="n">
         <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG76" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH76" t="n">
         <v>1000</v>
@@ -10750,7 +10750,7 @@
         <v>1000</v>
       </c>
       <c r="AK76" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL76" t="n">
         <v>1000</v>
@@ -10849,10 +10849,10 @@
         <v>29</v>
       </c>
       <c r="Y77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z77" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA77" t="n">
         <v>1000</v>
@@ -10867,7 +10867,7 @@
         <v>970</v>
       </c>
       <c r="AE77" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF77" t="n">
         <v>970</v>
@@ -10879,7 +10879,7 @@
         <v>25</v>
       </c>
       <c r="AI77" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ77" t="n">
         <v>970</v>
@@ -10930,16 +10930,16 @@
         <v>3.05</v>
       </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H78" t="n">
         <v>2.12</v>
       </c>
       <c r="I78" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="J78" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K78" t="n">
         <v>4.2</v>
@@ -10951,7 +10951,7 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O78" t="n">
         <v>1.01</v>
@@ -10960,7 +10960,7 @@
         <v>1.75</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R78" t="n">
         <v>1.25</v>
@@ -10975,10 +10975,10 @@
         <v>1.01</v>
       </c>
       <c r="V78" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W78" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -11062,22 +11062,22 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G79" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>3.9</v>
       </c>
       <c r="I79" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J79" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K79" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L79" t="n">
         <v>1.01</v>
@@ -11086,22 +11086,22 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>2.66</v>
+        <v>1.68</v>
       </c>
       <c r="O79" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P79" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R79" t="n">
         <v>1.24</v>
       </c>
       <c r="S79" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T79" t="n">
         <v>1.01</v>
@@ -11110,10 +11110,10 @@
         <v>1.01</v>
       </c>
       <c r="V79" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W79" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X79" t="n">
         <v>1000</v>
@@ -11356,13 +11356,13 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="O81" t="n">
         <v>1.01</v>
       </c>
       <c r="P81" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Q81" t="n">
         <v>1.01</v>
@@ -11371,7 +11371,7 @@
         <v>1.18</v>
       </c>
       <c r="S81" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T81" t="n">
         <v>1.01</v>
@@ -11467,13 +11467,13 @@
         </is>
       </c>
       <c r="F82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G82" t="n">
         <v>1.74</v>
       </c>
-      <c r="G82" t="n">
-        <v>1.75</v>
-      </c>
       <c r="H82" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I82" t="n">
         <v>5.7</v>
@@ -11488,7 +11488,7 @@
         <v>1.38</v>
       </c>
       <c r="M82" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N82" t="n">
         <v>4.1</v>
@@ -11500,7 +11500,7 @@
         <v>2.06</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R82" t="n">
         <v>1.41</v>
@@ -11518,7 +11518,7 @@
         <v>1.21</v>
       </c>
       <c r="W82" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X82" t="n">
         <v>15</v>
@@ -11536,7 +11536,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC82" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD82" t="n">
         <v>21</v>
@@ -11545,10 +11545,10 @@
         <v>75</v>
       </c>
       <c r="AF82" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG82" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH82" t="n">
         <v>20</v>
@@ -11605,7 +11605,7 @@
         <v>1.73</v>
       </c>
       <c r="G83" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H83" t="n">
         <v>5</v>
@@ -11626,7 +11626,7 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O83" t="n">
         <v>1.19</v>
@@ -11872,13 +11872,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G85" t="n">
         <v>1.86</v>
       </c>
       <c r="H85" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I85" t="n">
         <v>7</v>
@@ -11887,7 +11887,7 @@
         <v>3.35</v>
       </c>
       <c r="K85" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11905,7 +11905,7 @@
         <v>1.69</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R85" t="n">
         <v>1.25</v>
@@ -11929,7 +11929,7 @@
         <v>970</v>
       </c>
       <c r="Y85" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z85" t="n">
         <v>60</v>
@@ -11962,7 +11962,7 @@
         <v>1000</v>
       </c>
       <c r="AJ85" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AK85" t="n">
         <v>23</v>
@@ -11974,7 +11974,7 @@
         <v>1000</v>
       </c>
       <c r="AN85" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AO85" t="n">
         <v>1000</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G86" t="n">
         <v>2.62</v>
@@ -12016,13 +12016,13 @@
         <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J86" t="n">
         <v>2.96</v>
       </c>
       <c r="K86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12055,7 +12055,7 @@
         <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W86" t="n">
         <v>1.61</v>
@@ -12151,10 +12151,10 @@
         <v>2.12</v>
       </c>
       <c r="I87" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J87" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K87" t="n">
         <v>4.4</v>
@@ -12190,7 +12190,7 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W87" t="n">
         <v>1.3</v>
@@ -12277,46 +12277,46 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G88" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H88" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K88" t="n">
         <v>3.9</v>
       </c>
-      <c r="I88" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L88" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O88" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P88" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R88" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S88" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T88" t="n">
         <v>1.81</v>
@@ -12325,10 +12325,10 @@
         <v>1.96</v>
       </c>
       <c r="V88" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W88" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X88" t="n">
         <v>13.5</v>
@@ -12340,19 +12340,19 @@
         <v>29</v>
       </c>
       <c r="AA88" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB88" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC88" t="n">
         <v>8</v>
       </c>
       <c r="AD88" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE88" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF88" t="n">
         <v>13</v>
@@ -12373,7 +12373,7 @@
         <v>25</v>
       </c>
       <c r="AL88" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM88" t="n">
         <v>150</v>
@@ -12415,7 +12415,7 @@
         <v>4.6</v>
       </c>
       <c r="G89" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="H89" t="n">
         <v>1.82</v>
@@ -12436,7 +12436,7 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O89" t="n">
         <v>1.07</v>
@@ -12463,7 +12463,7 @@
         <v>2</v>
       </c>
       <c r="W89" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G90" t="n">
         <v>2.62</v>
       </c>
       <c r="H90" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I90" t="n">
         <v>3.35</v>
       </c>
       <c r="J90" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K90" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L90" t="n">
         <v>1.54</v>
@@ -12571,13 +12571,13 @@
         <v>1.11</v>
       </c>
       <c r="N90" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O90" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P90" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q90" t="n">
         <v>2.48</v>
@@ -12820,7 +12820,7 @@
         <v>1.66</v>
       </c>
       <c r="G92" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="H92" t="n">
         <v>5.4</v>
@@ -12868,7 +12868,7 @@
         <v>1.19</v>
       </c>
       <c r="W92" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="X92" t="n">
         <v>16</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G93" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H93" t="n">
         <v>3.15</v>
       </c>
       <c r="I93" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J93" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K93" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L93" t="n">
         <v>1.46</v>
@@ -13000,64 +13000,64 @@
         <v>1.84</v>
       </c>
       <c r="V93" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W93" t="n">
         <v>1.64</v>
       </c>
       <c r="X93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y93" t="n">
         <v>11.5</v>
       </c>
       <c r="Z93" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA93" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB93" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC93" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD93" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE93" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF93" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG93" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ93" t="n">
         <v>36</v>
       </c>
       <c r="AK93" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL93" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM93" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN93" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO93" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
@@ -13108,13 +13108,13 @@
         <v>1.01</v>
       </c>
       <c r="M94" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N94" t="n">
         <v>2.22</v>
       </c>
       <c r="O94" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P94" t="n">
         <v>2.22</v>
@@ -13222,16 +13222,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G95" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H95" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="I95" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J95" t="n">
         <v>4</v>
@@ -13240,40 +13240,40 @@
         <v>4.6</v>
       </c>
       <c r="L95" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M95" t="n">
         <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O95" t="n">
         <v>1.16</v>
       </c>
       <c r="P95" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q95" t="n">
         <v>1.5</v>
       </c>
       <c r="R95" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S95" t="n">
         <v>2.16</v>
       </c>
       <c r="T95" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="U95" t="n">
         <v>2.68</v>
       </c>
       <c r="V95" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W95" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X95" t="n">
         <v>32</v>
@@ -13315,7 +13315,7 @@
         <v>70</v>
       </c>
       <c r="AK95" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL95" t="n">
         <v>38</v>
@@ -13357,19 +13357,19 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G96" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="I96" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="J96" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K96" t="n">
         <v>3.25</v>
@@ -13381,76 +13381,76 @@
         <v>1.12</v>
       </c>
       <c r="N96" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O96" t="n">
         <v>1.55</v>
       </c>
       <c r="P96" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q96" t="n">
         <v>2.62</v>
       </c>
       <c r="R96" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S96" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T96" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U96" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V96" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="W96" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X96" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y96" t="n">
         <v>7.4</v>
       </c>
       <c r="Z96" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA96" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB96" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC96" t="n">
         <v>7.6</v>
       </c>
       <c r="AD96" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE96" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF96" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG96" t="n">
         <v>970</v>
       </c>
       <c r="AH96" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI96" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ96" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK96" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL96" t="n">
         <v>120</v>
@@ -13459,10 +13459,10 @@
         <v>240</v>
       </c>
       <c r="AN96" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO96" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
@@ -13522,13 +13522,13 @@
         <v>1.46</v>
       </c>
       <c r="P97" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q97" t="n">
         <v>2.26</v>
       </c>
       <c r="R97" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S97" t="n">
         <v>4.2</v>
@@ -13768,7 +13768,7 @@
         <v>2.1</v>
       </c>
       <c r="H99" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
         <v>4.6</v>
@@ -13900,13 +13900,13 @@
         <v>1.89</v>
       </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H100" t="n">
         <v>4.3</v>
       </c>
       <c r="I100" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J100" t="n">
         <v>3.95</v>
@@ -13921,7 +13921,7 @@
         <v>1.05</v>
       </c>
       <c r="N100" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O100" t="n">
         <v>1.25</v>
@@ -13948,61 +13948,61 @@
         <v>1.28</v>
       </c>
       <c r="W100" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X100" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y100" t="n">
         <v>18.5</v>
       </c>
       <c r="Z100" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA100" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB100" t="n">
         <v>11</v>
       </c>
       <c r="AC100" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD100" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE100" t="n">
         <v>50</v>
       </c>
       <c r="AF100" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG100" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH100" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI100" t="n">
         <v>55</v>
       </c>
       <c r="AJ100" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK100" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL100" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM100" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN100" t="n">
         <v>10.5</v>
       </c>
       <c r="AO100" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101">
@@ -14062,10 +14062,10 @@
         <v>1.28</v>
       </c>
       <c r="P101" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14461,7 +14461,7 @@
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O104" t="n">
         <v>1.21</v>
@@ -14470,10 +14470,10 @@
         <v>2.28</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="R104" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S104" t="n">
         <v>2.28</v>
@@ -14842,31 +14842,31 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="G107" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H107" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I107" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J107" t="n">
         <v>2.84</v>
       </c>
       <c r="K107" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L107" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M107" t="n">
         <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O107" t="n">
         <v>1.01</v>
@@ -14875,13 +14875,13 @@
         <v>1.51</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R107" t="n">
         <v>1.18</v>
       </c>
       <c r="S107" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T107" t="n">
         <v>1.01</v>
@@ -14890,10 +14890,10 @@
         <v>1.01</v>
       </c>
       <c r="V107" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W107" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -14977,22 +14977,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H108" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I108" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J108" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K108" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15001,22 +15001,22 @@
         <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O108" t="n">
         <v>1.02</v>
       </c>
       <c r="P108" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R108" t="n">
         <v>1.18</v>
       </c>
       <c r="S108" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T108" t="n">
         <v>1.01</v>
@@ -15025,10 +15025,10 @@
         <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W108" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X108" t="n">
         <v>1000</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J109" t="n">
         <v>2.72</v>
       </c>
       <c r="K109" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
@@ -15136,13 +15136,13 @@
         <v>1.01</v>
       </c>
       <c r="N109" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O109" t="n">
         <v>1.02</v>
       </c>
       <c r="P109" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q109" t="n">
         <v>2.08</v>
@@ -15151,7 +15151,7 @@
         <v>1.18</v>
       </c>
       <c r="S109" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T109" t="n">
         <v>1.01</v>
@@ -15160,10 +15160,10 @@
         <v>1.01</v>
       </c>
       <c r="V109" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W109" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X109" t="n">
         <v>1000</v>
@@ -15247,19 +15247,19 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="G110" t="n">
         <v>11.5</v>
       </c>
       <c r="H110" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="I110" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J110" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K110" t="n">
         <v>6.4</v>
@@ -15277,7 +15277,7 @@
         <v>1.19</v>
       </c>
       <c r="P110" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q110" t="n">
         <v>1.56</v>
@@ -15295,7 +15295,7 @@
         <v>1.93</v>
       </c>
       <c r="V110" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W110" t="n">
         <v>1.09</v>
@@ -15331,13 +15331,13 @@
         <v>38</v>
       </c>
       <c r="AH110" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI110" t="n">
         <v>36</v>
       </c>
       <c r="AJ110" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AK110" t="n">
         <v>160</v>
@@ -15346,7 +15346,7 @@
         <v>130</v>
       </c>
       <c r="AM110" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN110" t="n">
         <v>180</v>
@@ -15394,7 +15394,7 @@
         <v>3.9</v>
       </c>
       <c r="J111" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K111" t="n">
         <v>4.7</v>
@@ -15406,7 +15406,7 @@
         <v>1.04</v>
       </c>
       <c r="N111" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="O111" t="n">
         <v>1.23</v>
@@ -15526,7 +15526,7 @@
         <v>5.3</v>
       </c>
       <c r="I112" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J112" t="n">
         <v>4.7</v>
@@ -15571,7 +15571,7 @@
         <v>2.52</v>
       </c>
       <c r="X112" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y112" t="n">
         <v>36</v>
@@ -15799,7 +15799,7 @@
         <v>4.6</v>
       </c>
       <c r="J114" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K114" t="n">
         <v>4.8</v>
@@ -15931,7 +15931,7 @@
         <v>2.18</v>
       </c>
       <c r="I115" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J115" t="n">
         <v>3.4</v>
@@ -15943,22 +15943,22 @@
         <v>1.51</v>
       </c>
       <c r="M115" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N115" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O115" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P115" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R115" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S115" t="n">
         <v>4.7</v>
@@ -15967,10 +15967,10 @@
         <v>2.06</v>
       </c>
       <c r="U115" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V115" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W115" t="n">
         <v>1.33</v>
@@ -15991,7 +15991,7 @@
         <v>12</v>
       </c>
       <c r="AC115" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD115" t="n">
         <v>11</v>
@@ -16057,22 +16057,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="G116" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H116" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="I116" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J116" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K116" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="L116" t="n">
         <v>1.01</v>
@@ -16081,16 +16081,16 @@
         <v>1.01</v>
       </c>
       <c r="N116" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="O116" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P116" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="R116" t="n">
         <v>1.26</v>
@@ -16105,10 +16105,10 @@
         <v>1.01</v>
       </c>
       <c r="V116" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="W116" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X116" t="n">
         <v>1000</v>
@@ -16198,13 +16198,13 @@
         <v>2.42</v>
       </c>
       <c r="H117" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="I117" t="n">
         <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K117" t="n">
         <v>4.6</v>
@@ -16357,10 +16357,10 @@
         <v>1.22</v>
       </c>
       <c r="P118" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R118" t="n">
         <v>1.49</v>
@@ -16486,13 +16486,13 @@
         <v>1.01</v>
       </c>
       <c r="N119" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="O119" t="n">
         <v>1.01</v>
       </c>
       <c r="P119" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q119" t="n">
         <v>1.02</v>
@@ -16621,16 +16621,16 @@
         <v>1.09</v>
       </c>
       <c r="N120" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O120" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P120" t="n">
         <v>1.87</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R120" t="n">
         <v>1.32</v>
@@ -16768,7 +16768,7 @@
         <v>1.56</v>
       </c>
       <c r="R121" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S121" t="n">
         <v>2.4</v>
@@ -16777,7 +16777,7 @@
         <v>1.68</v>
       </c>
       <c r="U121" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V121" t="n">
         <v>1.2</v>
@@ -16870,10 +16870,10 @@
         <v>1.4</v>
       </c>
       <c r="G122" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H122" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I122" t="n">
         <v>9.4</v>
@@ -17008,10 +17008,10 @@
         <v>1.25</v>
       </c>
       <c r="H123" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I123" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="J123" t="n">
         <v>8</v>
@@ -17041,7 +17041,7 @@
         <v>2.38</v>
       </c>
       <c r="S123" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="T123" t="n">
         <v>1.71</v>
@@ -17053,13 +17053,13 @@
         <v>1.07</v>
       </c>
       <c r="W123" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X123" t="n">
         <v>65</v>
       </c>
       <c r="Y123" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z123" t="n">
         <v>180</v>
@@ -17074,7 +17074,7 @@
         <v>22</v>
       </c>
       <c r="AD123" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE123" t="n">
         <v>180</v>
@@ -17086,10 +17086,10 @@
         <v>13</v>
       </c>
       <c r="AH123" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI123" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ123" t="n">
         <v>12.5</v>
@@ -17293,7 +17293,7 @@
         <v>1.01</v>
       </c>
       <c r="M125" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N125" t="n">
         <v>5.8</v>
@@ -17314,7 +17314,7 @@
         <v>2.14</v>
       </c>
       <c r="T125" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="U125" t="n">
         <v>1.68</v>
@@ -17407,79 +17407,79 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H126" t="n">
         <v>7.2</v>
       </c>
       <c r="I126" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J126" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K126" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L126" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M126" t="n">
         <v>1.03</v>
       </c>
       <c r="N126" t="n">
-        <v>2.54</v>
+        <v>1.53</v>
       </c>
       <c r="O126" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P126" t="n">
-        <v>2.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R126" t="n">
         <v>1.53</v>
       </c>
       <c r="S126" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="T126" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U126" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V126" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W126" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="X126" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y126" t="n">
         <v>46</v>
       </c>
       <c r="Z126" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA126" t="n">
         <v>1000</v>
       </c>
       <c r="AB126" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC126" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD126" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE126" t="n">
         <v>1000</v>
@@ -17494,7 +17494,7 @@
         <v>32</v>
       </c>
       <c r="AI126" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ126" t="n">
         <v>19</v>
@@ -17545,16 +17545,16 @@
         <v>2.78</v>
       </c>
       <c r="G127" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>2.64</v>
       </c>
       <c r="I127" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J127" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K127" t="n">
         <v>3.5</v>
@@ -17584,10 +17584,10 @@
         <v>3.25</v>
       </c>
       <c r="T127" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U127" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V127" t="n">
         <v>1.53</v>
@@ -17686,7 +17686,7 @@
         <v>1.26</v>
       </c>
       <c r="I128" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J128" t="n">
         <v>7.4</v>
@@ -17716,7 +17716,7 @@
         <v>1.94</v>
       </c>
       <c r="S128" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T128" t="n">
         <v>1.82</v>
@@ -17725,7 +17725,7 @@
         <v>2.1</v>
       </c>
       <c r="V128" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="W128" t="n">
         <v>1.08</v>
@@ -17779,7 +17779,7 @@
         <v>120</v>
       </c>
       <c r="AN128" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO128" t="n">
         <v>3.4</v>
@@ -17854,10 +17854,10 @@
         <v>3.8</v>
       </c>
       <c r="T129" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U129" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V129" t="n">
         <v>1.3</v>
@@ -17947,22 +17947,22 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G130" t="n">
         <v>2.92</v>
       </c>
       <c r="H130" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I130" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J130" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K130" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L130" t="n">
         <v>1.25</v>
@@ -17983,16 +17983,16 @@
         <v>1.59</v>
       </c>
       <c r="R130" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S130" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="T130" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="U130" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="V130" t="n">
         <v>1.55</v>
@@ -18091,7 +18091,7 @@
         <v>3.85</v>
       </c>
       <c r="I131" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J131" t="n">
         <v>3.15</v>
@@ -18217,22 +18217,22 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G132" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>4.8</v>
       </c>
       <c r="I132" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J132" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K132" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L132" t="n">
         <v>1.01</v>
@@ -18247,28 +18247,28 @@
         <v>1.34</v>
       </c>
       <c r="P132" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S132" t="n">
         <v>3.15</v>
       </c>
       <c r="T132" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U132" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V132" t="n">
         <v>1.22</v>
       </c>
       <c r="W132" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X132" t="n">
         <v>1000</v>
@@ -18283,7 +18283,7 @@
         <v>1000</v>
       </c>
       <c r="AB132" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC132" t="n">
         <v>12.5</v>
@@ -18295,7 +18295,7 @@
         <v>100</v>
       </c>
       <c r="AF132" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG132" t="n">
         <v>13</v>
@@ -18307,7 +18307,7 @@
         <v>100</v>
       </c>
       <c r="AJ132" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK132" t="n">
         <v>30</v>
@@ -18361,13 +18361,13 @@
         <v>20</v>
       </c>
       <c r="I133" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J133" t="n">
         <v>13.5</v>
       </c>
       <c r="K133" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="L133" t="n">
         <v>1.12</v>
@@ -18376,28 +18376,28 @@
         <v>1.01</v>
       </c>
       <c r="N133" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="O133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P133" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Q133" t="n">
         <v>1.2</v>
       </c>
       <c r="R133" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="S133" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="T133" t="n">
         <v>1.83</v>
       </c>
       <c r="U133" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V133" t="n">
         <v>1.04</v>
@@ -18406,34 +18406,34 @@
         <v>8.6</v>
       </c>
       <c r="X133" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Y133" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="Z133" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AA133" t="n">
         <v>1000</v>
       </c>
       <c r="AB133" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC133" t="n">
         <v>38</v>
       </c>
       <c r="AD133" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AE133" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AF133" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG133" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AH133" t="n">
         <v>48</v>
@@ -18442,19 +18442,19 @@
         <v>200</v>
       </c>
       <c r="AJ133" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK133" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL133" t="n">
         <v>32</v>
       </c>
       <c r="AM133" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN133" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="AO133" t="n">
         <v>250</v>
@@ -18517,7 +18517,7 @@
         <v>1.33</v>
       </c>
       <c r="P134" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q134" t="n">
         <v>1.88</v>
@@ -18529,10 +18529,10 @@
         <v>3.25</v>
       </c>
       <c r="T134" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U134" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V134" t="n">
         <v>1.2</v>
@@ -18550,10 +18550,10 @@
         <v>48</v>
       </c>
       <c r="AA134" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB134" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC134" t="n">
         <v>9.6</v>
@@ -18592,7 +18592,7 @@
         <v>11.5</v>
       </c>
       <c r="AO134" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135">
@@ -18622,19 +18622,19 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G135" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H135" t="n">
         <v>4.9</v>
       </c>
       <c r="I135" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J135" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K135" t="n">
         <v>4.3</v>
@@ -18646,22 +18646,22 @@
         <v>1.03</v>
       </c>
       <c r="N135" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O135" t="n">
         <v>1.17</v>
       </c>
       <c r="P135" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q135" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="R135" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="S135" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="T135" t="n">
         <v>1.01</v>
@@ -18670,10 +18670,10 @@
         <v>1.01</v>
       </c>
       <c r="V135" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W135" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X135" t="n">
         <v>34</v>
@@ -18682,7 +18682,7 @@
         <v>38</v>
       </c>
       <c r="Z135" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA135" t="n">
         <v>1000</v>
@@ -18697,7 +18697,7 @@
         <v>30</v>
       </c>
       <c r="AE135" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF135" t="n">
         <v>20</v>
@@ -18709,13 +18709,13 @@
         <v>22</v>
       </c>
       <c r="AI135" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ135" t="n">
         <v>29</v>
       </c>
       <c r="AK135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL135" t="n">
         <v>38</v>
@@ -18898,7 +18898,7 @@
         <v>1.38</v>
       </c>
       <c r="H137" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I137" t="n">
         <v>11</v>
@@ -18907,10 +18907,10 @@
         <v>5.6</v>
       </c>
       <c r="K137" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L137" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M137" t="n">
         <v>1.05</v>
@@ -18925,7 +18925,7 @@
         <v>2.26</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R137" t="n">
         <v>1.48</v>
@@ -18943,7 +18943,7 @@
         <v>1.1</v>
       </c>
       <c r="W137" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X137" t="n">
         <v>19</v>
@@ -18958,7 +18958,7 @@
         <v>430</v>
       </c>
       <c r="AB137" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC137" t="n">
         <v>12</v>
@@ -18982,7 +18982,7 @@
         <v>150</v>
       </c>
       <c r="AJ137" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK137" t="n">
         <v>14.5</v>
@@ -19027,22 +19027,22 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G138" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="H138" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="I138" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J138" t="n">
         <v>3.6</v>
       </c>
       <c r="K138" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L138" t="n">
         <v>1.33</v>
@@ -19063,22 +19063,22 @@
         <v>1.71</v>
       </c>
       <c r="R138" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S138" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T138" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U138" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V138" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W138" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="X138" t="n">
         <v>19.5</v>
@@ -19096,7 +19096,7 @@
         <v>13.5</v>
       </c>
       <c r="AC138" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD138" t="n">
         <v>14.5</v>
@@ -19126,13 +19126,13 @@
         <v>36</v>
       </c>
       <c r="AM138" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN138" t="n">
         <v>17.5</v>
       </c>
       <c r="AO138" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
@@ -19168,7 +19168,7 @@
         <v>1.15</v>
       </c>
       <c r="H139" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I139" t="n">
         <v>34</v>
@@ -19192,28 +19192,28 @@
         <v>1.18</v>
       </c>
       <c r="P139" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R139" t="n">
         <v>1.67</v>
       </c>
       <c r="S139" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T139" t="n">
         <v>2.98</v>
       </c>
       <c r="U139" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="V139" t="n">
         <v>1.03</v>
       </c>
       <c r="W139" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X139" t="n">
         <v>30</v>
@@ -19222,7 +19222,7 @@
         <v>80</v>
       </c>
       <c r="Z139" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AA139" t="n">
         <v>1000</v>
@@ -19258,7 +19258,7 @@
         <v>16.5</v>
       </c>
       <c r="AL139" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM139" t="n">
         <v>440</v>
@@ -19306,7 +19306,7 @@
         <v>1.86</v>
       </c>
       <c r="I140" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="J140" t="n">
         <v>3.6</v>
@@ -19345,7 +19345,7 @@
         <v>1.01</v>
       </c>
       <c r="V140" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="W140" t="n">
         <v>1.25</v>
@@ -19360,7 +19360,7 @@
         <v>17.5</v>
       </c>
       <c r="AA140" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB140" t="n">
         <v>24</v>
@@ -19432,16 +19432,16 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G141" t="n">
         <v>2.74</v>
       </c>
       <c r="H141" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I141" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J141" t="n">
         <v>2.96</v>
@@ -19459,7 +19459,7 @@
         <v>2.28</v>
       </c>
       <c r="O141" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="P141" t="n">
         <v>1.42</v>
@@ -19474,13 +19474,13 @@
         <v>7.4</v>
       </c>
       <c r="T141" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U141" t="n">
         <v>1.64</v>
       </c>
       <c r="V141" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W141" t="n">
         <v>1.57</v>
@@ -19495,7 +19495,7 @@
         <v>20</v>
       </c>
       <c r="AA141" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB141" t="n">
         <v>7</v>
@@ -19504,7 +19504,7 @@
         <v>7</v>
       </c>
       <c r="AD141" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE141" t="n">
         <v>65</v>
@@ -19534,7 +19534,7 @@
         <v>320</v>
       </c>
       <c r="AN141" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO141" t="n">
         <v>100</v>
@@ -19600,7 +19600,7 @@
         <v>1.95</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="R142" t="n">
         <v>0</v>
@@ -19732,10 +19732,10 @@
         <v>1.45</v>
       </c>
       <c r="P143" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R143" t="n">
         <v>1.23</v>
@@ -19837,10 +19837,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G144" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>3.05</v>
@@ -19849,10 +19849,10 @@
         <v>3.2</v>
       </c>
       <c r="J144" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K144" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L144" t="n">
         <v>1.44</v>
@@ -19906,7 +19906,7 @@
         <v>10.5</v>
       </c>
       <c r="AC144" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD144" t="n">
         <v>14.5</v>
@@ -19939,7 +19939,7 @@
         <v>120</v>
       </c>
       <c r="AN144" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO144" t="n">
         <v>38</v>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G146" t="n">
         <v>2.16</v>
@@ -20119,7 +20119,7 @@
         <v>5.2</v>
       </c>
       <c r="J146" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K146" t="n">
         <v>4.3</v>
@@ -20140,7 +20140,7 @@
         <v>1.84</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
@@ -20248,7 +20248,7 @@
         <v>1.09</v>
       </c>
       <c r="H147" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I147" t="n">
         <v>55</v>
@@ -20257,7 +20257,7 @@
         <v>16</v>
       </c>
       <c r="K147" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L147" t="n">
         <v>1.2</v>
@@ -20281,13 +20281,13 @@
         <v>2.02</v>
       </c>
       <c r="S147" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="T147" t="n">
         <v>2.32</v>
       </c>
       <c r="U147" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="V147" t="n">
         <v>1.02</v>
@@ -20302,7 +20302,7 @@
         <v>140</v>
       </c>
       <c r="Z147" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AA147" t="n">
         <v>1000</v>
@@ -20314,7 +20314,7 @@
         <v>40</v>
       </c>
       <c r="AD147" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AE147" t="n">
         <v>1000</v>
@@ -20326,10 +20326,10 @@
         <v>18</v>
       </c>
       <c r="AH147" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI147" t="n">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="AJ147" t="n">
         <v>7.8</v>
@@ -20341,7 +20341,7 @@
         <v>60</v>
       </c>
       <c r="AM147" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="AN147" t="n">
         <v>2.48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -715,10 +715,10 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -820,7 +820,7 @@
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -970,7 +970,7 @@
         <v>2.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>1.63</v>
@@ -1222,7 +1222,7 @@
         <v>2.76</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
         <v>17</v>
@@ -1627,7 +1627,7 @@
         <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1759,7 +1759,7 @@
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -2302,7 +2302,7 @@
         <v>2.94</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
@@ -2572,7 +2572,7 @@
         <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>2.66</v>
       </c>
       <c r="H18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2875,7 +2875,7 @@
         <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
         <v>1.6</v>
@@ -2965,13 +2965,13 @@
         <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -3004,16 +3004,16 @@
         <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
         <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
         <v>22</v>
@@ -3100,7 +3100,7 @@
         <v>1.76</v>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>4.4</v>
@@ -3148,7 +3148,7 @@
         <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
@@ -3241,13 +3241,13 @@
         <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.28</v>
@@ -3268,7 +3268,7 @@
         <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
         <v>2.78</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
         <v>3.65</v>
@@ -3397,28 +3397,28 @@
         <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="Q22" t="n">
         <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="X22" t="n">
         <v>14.5</v>
@@ -3427,25 +3427,25 @@
         <v>14.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>42</v>
       </c>
       <c r="AF22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3454,25 +3454,25 @@
         <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="n">
         <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -3532,16 +3532,16 @@
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
         <v>1.51</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
         <v>1.62</v>
@@ -3556,10 +3556,10 @@
         <v>1.37</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
         <v>18</v>
@@ -3568,31 +3568,31 @@
         <v>30</v>
       </c>
       <c r="AB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
         <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="n">
         <v>46</v>
@@ -3640,19 +3640,19 @@
         <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.31</v>
@@ -3685,10 +3685,10 @@
         <v>2.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X24" t="n">
         <v>25</v>
@@ -3775,7 +3775,7 @@
         <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
         <v>3.05</v>
@@ -3796,7 +3796,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -3808,7 +3808,7 @@
         <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S25" t="n">
         <v>2.46</v>
@@ -3823,7 +3823,7 @@
         <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
         <v>25</v>
@@ -3910,7 +3910,7 @@
         <v>1.7</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
@@ -3937,7 +3937,7 @@
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q26" t="n">
         <v>1.94</v>
@@ -3946,7 +3946,7 @@
         <v>1.32</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
         <v>1.87</v>
@@ -4045,19 +4045,19 @@
         <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="H27" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.29</v>
@@ -4078,7 +4078,7 @@
         <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
         <v>2.74</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.15</v>
+        <v>1.09</v>
       </c>
       <c r="G28" t="n">
         <v>4.2</v>
@@ -4189,10 +4189,10 @@
         <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L28" t="n">
         <v>1.46</v>
@@ -4225,7 +4225,7 @@
         <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
         <v>1.34</v>
@@ -4336,19 +4336,19 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
         <v>1.84</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
         <v>3.1</v>
@@ -4357,10 +4357,10 @@
         <v>1.74</v>
       </c>
       <c r="U29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W29" t="n">
         <v>1.26</v>
@@ -4471,16 +4471,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,13 +4585,13 @@
         <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J31" t="n">
         <v>3.3</v>
@@ -4624,16 +4624,16 @@
         <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
         <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4663,7 +4663,7 @@
         <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
         <v>21</v>
@@ -4741,16 +4741,16 @@
         <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O32" t="n">
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R32" t="n">
         <v>1.46</v>
@@ -4855,16 +4855,16 @@
         <v>2.16</v>
       </c>
       <c r="G33" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H33" t="n">
         <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>4.4</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="O33" t="n">
         <v>1.31</v>
       </c>
       <c r="P33" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R33" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4900,10 +4900,10 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4990,10 +4990,10 @@
         <v>2.6</v>
       </c>
       <c r="G34" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="H34" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I34" t="n">
         <v>2.9</v>
@@ -5017,28 +5017,28 @@
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S34" t="n">
         <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V34" t="n">
         <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5131,10 +5131,10 @@
         <v>11.5</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J35" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K35" t="n">
         <v>5.9</v>
@@ -5266,13 +5266,13 @@
         <v>2.68</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J36" t="n">
         <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5359,10 +5359,10 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -5401,19 +5401,19 @@
         <v>4.4</v>
       </c>
       <c r="I37" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J37" t="n">
         <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
         <v>4.3</v>
@@ -5422,22 +5422,22 @@
         <v>1.24</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T37" t="n">
         <v>1.7</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.59</v>
-      </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V37" t="n">
         <v>1.23</v>
@@ -5491,10 +5491,10 @@
         <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO37" t="n">
         <v>65</v>
@@ -5530,7 +5530,7 @@
         <v>2.32</v>
       </c>
       <c r="G38" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>2.94</v>
@@ -5545,7 +5545,7 @@
         <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5560,22 +5560,22 @@
         <v>1.99</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R38" t="n">
         <v>1.38</v>
       </c>
       <c r="S38" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T38" t="n">
         <v>1.68</v>
       </c>
       <c r="U38" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W38" t="n">
         <v>1.62</v>
@@ -5665,19 +5665,19 @@
         <v>3.05</v>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I39" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="J39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K39" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5698,10 +5698,10 @@
         <v>1.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S39" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G40" t="n">
         <v>3.9</v>
@@ -5821,22 +5821,22 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q40" t="n">
         <v>2.06</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
         <v>1.69</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H41" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I41" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J41" t="n">
         <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5971,7 +5971,7 @@
         <v>1.29</v>
       </c>
       <c r="S41" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T41" t="n">
         <v>1.8</v>
@@ -5980,10 +5980,10 @@
         <v>2.02</v>
       </c>
       <c r="V41" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W41" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X41" t="n">
         <v>970</v>
@@ -6085,7 +6085,7 @@
         <v>4.3</v>
       </c>
       <c r="L42" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M42" t="n">
         <v>1.11</v>
@@ -6112,10 +6112,10 @@
         <v>2.26</v>
       </c>
       <c r="U42" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="V42" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W42" t="n">
         <v>2.14</v>
@@ -6217,7 +6217,7 @@
         <v>2.92</v>
       </c>
       <c r="K43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L43" t="n">
         <v>1.37</v>
@@ -6895,7 +6895,7 @@
         <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
         <v>1.05</v>
@@ -6910,19 +6910,19 @@
         <v>2.02</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R48" t="n">
         <v>1.39</v>
       </c>
       <c r="S48" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="T48" t="n">
         <v>1.79</v>
       </c>
       <c r="U48" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="V48" t="n">
         <v>2.2</v>
@@ -7171,19 +7171,19 @@
         <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O50" t="n">
         <v>1.07</v>
       </c>
       <c r="P50" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R50" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S50" t="n">
         <v>3.7</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G51" t="n">
         <v>2.14</v>
@@ -7312,7 +7312,7 @@
         <v>1.42</v>
       </c>
       <c r="P51" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q51" t="n">
         <v>2.24</v>
@@ -7327,7 +7327,7 @@
         <v>1.94</v>
       </c>
       <c r="U51" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V51" t="n">
         <v>1.27</v>
@@ -7561,7 +7561,7 @@
         <v>3.65</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J53" t="n">
         <v>3.05</v>
@@ -7600,7 +7600,7 @@
         <v>1.73</v>
       </c>
       <c r="V53" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W53" t="n">
         <v>1.7</v>
@@ -7690,7 +7690,7 @@
         <v>2.3</v>
       </c>
       <c r="G54" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H54" t="n">
         <v>3.4</v>
@@ -7717,7 +7717,7 @@
         <v>1.39</v>
       </c>
       <c r="P54" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q54" t="n">
         <v>2.18</v>
@@ -7738,7 +7738,7 @@
         <v>1.36</v>
       </c>
       <c r="W54" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X54" t="n">
         <v>12</v>
@@ -7846,28 +7846,28 @@
         <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O55" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P55" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R55" t="n">
         <v>1.27</v>
       </c>
       <c r="S55" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T55" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U55" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V55" t="n">
         <v>1.28</v>
@@ -7888,7 +7888,7 @@
         <v>110</v>
       </c>
       <c r="AB55" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC55" t="n">
         <v>7.4</v>
@@ -7903,7 +7903,7 @@
         <v>11</v>
       </c>
       <c r="AG55" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
         <v>21</v>
@@ -7915,7 +7915,7 @@
         <v>24</v>
       </c>
       <c r="AK55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL55" t="n">
         <v>48</v>
@@ -7957,109 +7957,109 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="G56" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="H56" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I56" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="O56" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P56" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="R56" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S56" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T56" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U56" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="V56" t="n">
         <v>1.32</v>
       </c>
       <c r="W56" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="X56" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Y56" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z56" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA56" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB56" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF56" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="n">
         <v>38</v>
       </c>
       <c r="AK56" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL56" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM56" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN56" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AO56" t="n">
         <v>100</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G57" t="n">
         <v>1.89</v>
@@ -8107,7 +8107,7 @@
         <v>3.85</v>
       </c>
       <c r="K57" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,13 +8116,13 @@
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O57" t="n">
         <v>1.28</v>
       </c>
       <c r="P57" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
         <v>1.73</v>
@@ -8143,10 +8143,10 @@
         <v>1.23</v>
       </c>
       <c r="W57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y57" t="n">
         <v>21</v>
@@ -8179,7 +8179,7 @@
         <v>24</v>
       </c>
       <c r="AI57" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="n">
         <v>24</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G58" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H58" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I58" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J58" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
         <v>4.6</v>
@@ -8248,49 +8248,49 @@
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O58" t="n">
         <v>1.23</v>
       </c>
       <c r="P58" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="R58" t="n">
         <v>1.47</v>
       </c>
       <c r="S58" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="T58" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W58" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X58" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y58" t="n">
         <v>24</v>
       </c>
-      <c r="Y58" t="n">
-        <v>25</v>
-      </c>
       <c r="Z58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA58" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB58" t="n">
         <v>13</v>
@@ -8299,10 +8299,10 @@
         <v>12</v>
       </c>
       <c r="AD58" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE58" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF58" t="n">
         <v>970</v>
@@ -8314,16 +8314,16 @@
         <v>22</v>
       </c>
       <c r="AI58" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK58" t="n">
         <v>22</v>
       </c>
       <c r="AL58" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM58" t="n">
         <v>100</v>
@@ -8332,7 +8332,7 @@
         <v>11.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -8365,7 +8365,7 @@
         <v>2.34</v>
       </c>
       <c r="G59" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H59" t="n">
         <v>3.5</v>
@@ -8407,7 +8407,7 @@
         <v>2.02</v>
       </c>
       <c r="U59" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="V59" t="n">
         <v>1.35</v>
@@ -8500,7 +8500,7 @@
         <v>3.35</v>
       </c>
       <c r="G60" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H60" t="n">
         <v>1.95</v>
@@ -8518,7 +8518,7 @@
         <v>1.01</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N60" t="n">
         <v>3.8</v>
@@ -8548,7 +8548,7 @@
         <v>1.84</v>
       </c>
       <c r="W60" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="X60" t="n">
         <v>23</v>
@@ -8668,7 +8668,7 @@
         <v>1.78</v>
       </c>
       <c r="R61" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S61" t="n">
         <v>2.96</v>
@@ -8680,7 +8680,7 @@
         <v>2.06</v>
       </c>
       <c r="V61" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W61" t="n">
         <v>2.14</v>
@@ -8707,7 +8707,7 @@
         <v>24</v>
       </c>
       <c r="AE61" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF61" t="n">
         <v>14</v>
@@ -8719,7 +8719,7 @@
         <v>23</v>
       </c>
       <c r="AI61" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="n">
         <v>23</v>
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G62" t="n">
         <v>2.06</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2.08</v>
       </c>
       <c r="H62" t="n">
         <v>3.8</v>
       </c>
       <c r="I62" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J62" t="n">
         <v>3.9</v>
@@ -8809,16 +8809,16 @@
         <v>2.62</v>
       </c>
       <c r="T62" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U62" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V62" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W62" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X62" t="n">
         <v>23</v>
@@ -8857,10 +8857,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK62" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL62" t="n">
         <v>29</v>
@@ -8869,7 +8869,7 @@
         <v>65</v>
       </c>
       <c r="AN62" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO62" t="n">
         <v>29</v>
@@ -8938,7 +8938,7 @@
         <v>1.79</v>
       </c>
       <c r="R63" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S63" t="n">
         <v>3</v>
@@ -9067,7 +9067,7 @@
         <v>1.21</v>
       </c>
       <c r="P64" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q64" t="n">
         <v>1.64</v>
@@ -9208,7 +9208,7 @@
         <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S65" t="n">
         <v>2.4</v>
@@ -9577,19 +9577,19 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H68" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="I68" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J68" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="n">
         <v>3.65</v>
@@ -9601,22 +9601,22 @@
         <v>1.06</v>
       </c>
       <c r="N68" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O68" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P68" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R68" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S68" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T68" t="n">
         <v>1.72</v>
@@ -9625,10 +9625,10 @@
         <v>2.18</v>
       </c>
       <c r="V68" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W68" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X68" t="n">
         <v>18</v>
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="G71" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K71" t="n">
         <v>4.7</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4.6</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10006,31 +10006,31 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="O71" t="n">
         <v>1.19</v>
       </c>
       <c r="P71" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R71" t="n">
         <v>1.09</v>
       </c>
       <c r="S71" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="T71" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U71" t="n">
         <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W71" t="n">
         <v>1.27</v>
@@ -10120,7 +10120,7 @@
         <v>1.81</v>
       </c>
       <c r="G72" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>3.85</v>
@@ -10129,7 +10129,7 @@
         <v>5.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K72" t="n">
         <v>4.9</v>
@@ -10168,7 +10168,7 @@
         <v>1.26</v>
       </c>
       <c r="W72" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
         <v>970</v>
@@ -10396,37 +10396,37 @@
         <v>1.71</v>
       </c>
       <c r="I74" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J74" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K74" t="n">
         <v>4.8</v>
       </c>
       <c r="L74" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O74" t="n">
         <v>1.28</v>
       </c>
       <c r="P74" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="R74" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S74" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T74" t="n">
         <v>1.72</v>
@@ -10435,7 +10435,7 @@
         <v>1.81</v>
       </c>
       <c r="V74" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W74" t="n">
         <v>1.17</v>
@@ -10462,7 +10462,7 @@
         <v>970</v>
       </c>
       <c r="AE74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF74" t="n">
         <v>55</v>
@@ -10480,10 +10480,10 @@
         <v>1000</v>
       </c>
       <c r="AK74" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL74" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM74" t="n">
         <v>1000</v>
@@ -10543,31 +10543,31 @@
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O75" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P75" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="R75" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S75" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T75" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="U75" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="V75" t="n">
         <v>1.7</v>
@@ -10588,7 +10588,7 @@
         <v>46</v>
       </c>
       <c r="AB75" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC75" t="n">
         <v>11.5</v>
@@ -10624,10 +10624,10 @@
         <v>1000</v>
       </c>
       <c r="AN75" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO75" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76">
@@ -10657,13 +10657,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H76" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
         <v>5</v>
@@ -10672,7 +10672,7 @@
         <v>3.4</v>
       </c>
       <c r="K76" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10681,19 +10681,19 @@
         <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="O76" t="n">
         <v>1.31</v>
       </c>
       <c r="P76" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="R76" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S76" t="n">
         <v>2.72</v>
@@ -10702,13 +10702,13 @@
         <v>1.57</v>
       </c>
       <c r="U76" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V76" t="n">
         <v>1.25</v>
       </c>
       <c r="W76" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X76" t="n">
         <v>1000</v>
@@ -10729,7 +10729,7 @@
         <v>970</v>
       </c>
       <c r="AD76" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE76" t="n">
         <v>1000</v>
@@ -10966,7 +10966,7 @@
         <v>1.25</v>
       </c>
       <c r="S78" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T78" t="n">
         <v>1.01</v>
@@ -11086,7 +11086,7 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O79" t="n">
         <v>1.4</v>
@@ -11095,7 +11095,7 @@
         <v>1.68</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R79" t="n">
         <v>1.24</v>
@@ -11221,13 +11221,13 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O80" t="n">
         <v>1.01</v>
       </c>
       <c r="P80" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q80" t="n">
         <v>1.02</v>
@@ -11356,13 +11356,13 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O81" t="n">
         <v>1.01</v>
       </c>
       <c r="P81" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q81" t="n">
         <v>1.01</v>
@@ -11473,7 +11473,7 @@
         <v>1.74</v>
       </c>
       <c r="H82" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I82" t="n">
         <v>5.7</v>
@@ -11560,7 +11560,7 @@
         <v>16.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL82" t="n">
         <v>34</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G83" t="n">
         <v>1.75</v>
@@ -11626,7 +11626,7 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O83" t="n">
         <v>1.19</v>
@@ -11674,7 +11674,7 @@
         <v>10.5</v>
       </c>
       <c r="AD83" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE83" t="n">
         <v>50</v>
@@ -11770,7 +11770,7 @@
         <v>2.1</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R84" t="n">
         <v>1.4</v>
@@ -11902,19 +11902,19 @@
         <v>1.37</v>
       </c>
       <c r="P85" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q85" t="n">
         <v>2.08</v>
       </c>
       <c r="R85" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S85" t="n">
         <v>3.55</v>
       </c>
       <c r="T85" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U85" t="n">
         <v>1.77</v>
@@ -12034,7 +12034,7 @@
         <v>1.51</v>
       </c>
       <c r="O86" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P86" t="n">
         <v>1.5</v>
@@ -12109,7 +12109,7 @@
         <v>1000</v>
       </c>
       <c r="AN86" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO86" t="n">
         <v>1000</v>
@@ -12142,19 +12142,19 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="G87" t="n">
         <v>4.3</v>
       </c>
       <c r="H87" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I87" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J87" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K87" t="n">
         <v>4.4</v>
@@ -12175,7 +12175,7 @@
         <v>1.85</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R87" t="n">
         <v>1.27</v>
@@ -12190,7 +12190,7 @@
         <v>1.01</v>
       </c>
       <c r="V87" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="W87" t="n">
         <v>1.3</v>
@@ -12343,7 +12343,7 @@
         <v>90</v>
       </c>
       <c r="AB88" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC88" t="n">
         <v>8</v>
@@ -12373,7 +12373,7 @@
         <v>25</v>
       </c>
       <c r="AL88" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM88" t="n">
         <v>150</v>
@@ -12436,7 +12436,7 @@
         <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="O89" t="n">
         <v>1.07</v>
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G90" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H90" t="n">
         <v>3.25</v>
@@ -12571,10 +12571,10 @@
         <v>1.11</v>
       </c>
       <c r="N90" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O90" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P90" t="n">
         <v>1.65</v>
@@ -12598,7 +12598,7 @@
         <v>1.42</v>
       </c>
       <c r="W90" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X90" t="n">
         <v>9.6</v>
@@ -12874,7 +12874,7 @@
         <v>16</v>
       </c>
       <c r="Y92" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z92" t="n">
         <v>46</v>
@@ -12889,7 +12889,7 @@
         <v>9.4</v>
       </c>
       <c r="AD92" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE92" t="n">
         <v>100</v>
@@ -12952,13 +12952,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G93" t="n">
         <v>2.54</v>
       </c>
       <c r="H93" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I93" t="n">
         <v>3.45</v>
@@ -12967,10 +12967,10 @@
         <v>3.4</v>
       </c>
       <c r="K93" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L93" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M93" t="n">
         <v>1.08</v>
@@ -12979,13 +12979,13 @@
         <v>3.25</v>
       </c>
       <c r="O93" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P93" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R93" t="n">
         <v>1.29</v>
@@ -12994,19 +12994,19 @@
         <v>3.9</v>
       </c>
       <c r="T93" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U93" t="n">
         <v>1.84</v>
       </c>
       <c r="V93" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W93" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X93" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y93" t="n">
         <v>11.5</v>
@@ -13054,7 +13054,7 @@
         <v>110</v>
       </c>
       <c r="AN93" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO93" t="n">
         <v>42</v>
@@ -13228,7 +13228,7 @@
         <v>4.2</v>
       </c>
       <c r="H95" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I95" t="n">
         <v>2.04</v>
@@ -13264,7 +13264,7 @@
         <v>2.16</v>
       </c>
       <c r="T95" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="U95" t="n">
         <v>2.68</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G96" t="n">
         <v>4.3</v>
@@ -13366,13 +13366,13 @@
         <v>2.24</v>
       </c>
       <c r="I96" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J96" t="n">
         <v>2.98</v>
       </c>
       <c r="K96" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L96" t="n">
         <v>1.59</v>
@@ -13387,7 +13387,7 @@
         <v>1.55</v>
       </c>
       <c r="P96" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q96" t="n">
         <v>2.62</v>
@@ -13405,7 +13405,7 @@
         <v>1.75</v>
       </c>
       <c r="V96" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="W96" t="n">
         <v>1.3</v>
@@ -13627,22 +13627,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
         <v>2.22</v>
       </c>
       <c r="H98" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K98" t="n">
         <v>4.6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K98" t="n">
-        <v>4.7</v>
       </c>
       <c r="L98" t="n">
         <v>1.01</v>
@@ -13660,7 +13660,7 @@
         <v>2.02</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R98" t="n">
         <v>1.33</v>
@@ -13675,7 +13675,7 @@
         <v>1.01</v>
       </c>
       <c r="V98" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W98" t="n">
         <v>1.81</v>
@@ -14062,7 +14062,7 @@
         <v>1.28</v>
       </c>
       <c r="P101" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q101" t="n">
         <v>1.72</v>
@@ -14458,7 +14458,7 @@
         <v>1.01</v>
       </c>
       <c r="M104" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N104" t="n">
         <v>4.2</v>
@@ -15148,7 +15148,7 @@
         <v>2.08</v>
       </c>
       <c r="R109" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S109" t="n">
         <v>2.1</v>
@@ -15277,10 +15277,10 @@
         <v>1.19</v>
       </c>
       <c r="P110" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R110" t="n">
         <v>1.63</v>
@@ -15391,37 +15391,37 @@
         <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J111" t="n">
         <v>3.4</v>
       </c>
       <c r="K111" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L111" t="n">
         <v>1.01</v>
       </c>
       <c r="M111" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N111" t="n">
-        <v>3.9</v>
+        <v>2.06</v>
       </c>
       <c r="O111" t="n">
         <v>1.23</v>
       </c>
       <c r="P111" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R111" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="S111" t="n">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="T111" t="n">
         <v>1.6</v>
@@ -15517,22 +15517,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G112" t="n">
         <v>1.65</v>
       </c>
       <c r="H112" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I112" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J112" t="n">
         <v>4.7</v>
       </c>
       <c r="K112" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15541,28 +15541,28 @@
         <v>1.03</v>
       </c>
       <c r="N112" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="O112" t="n">
         <v>1.15</v>
       </c>
       <c r="P112" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="R112" t="n">
         <v>1.65</v>
       </c>
       <c r="S112" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T112" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="U112" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V112" t="n">
         <v>1.19</v>
@@ -15574,40 +15574,40 @@
         <v>34</v>
       </c>
       <c r="Y112" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z112" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA112" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB112" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD112" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE112" t="n">
         <v>75</v>
       </c>
       <c r="AF112" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG112" t="n">
         <v>13</v>
       </c>
       <c r="AH112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI112" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ112" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK112" t="n">
         <v>18.5</v>
@@ -15616,13 +15616,13 @@
         <v>32</v>
       </c>
       <c r="AM112" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN112" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO112" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113">
@@ -15661,13 +15661,13 @@
         <v>4.7</v>
       </c>
       <c r="I113" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J113" t="n">
         <v>3.9</v>
       </c>
       <c r="K113" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L113" t="n">
         <v>1.01</v>
@@ -15757,7 +15757,7 @@
         <v>12.5</v>
       </c>
       <c r="AO113" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114">
@@ -15823,10 +15823,10 @@
         <v>1.74</v>
       </c>
       <c r="R114" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="S114" t="n">
-        <v>2.86</v>
+        <v>2.46</v>
       </c>
       <c r="T114" t="n">
         <v>1.01</v>
@@ -15940,10 +15940,10 @@
         <v>3.45</v>
       </c>
       <c r="L115" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M115" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N115" t="n">
         <v>3</v>
@@ -16078,13 +16078,13 @@
         <v>1.01</v>
       </c>
       <c r="M116" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N116" t="n">
         <v>1.72</v>
       </c>
       <c r="O116" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P116" t="n">
         <v>1.72</v>
@@ -16198,7 +16198,7 @@
         <v>2.42</v>
       </c>
       <c r="H117" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I117" t="n">
         <v>4</v>
@@ -16207,7 +16207,7 @@
         <v>3.15</v>
       </c>
       <c r="K117" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L117" t="n">
         <v>1.01</v>
@@ -16216,13 +16216,13 @@
         <v>1.01</v>
       </c>
       <c r="N117" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O117" t="n">
         <v>1.28</v>
       </c>
       <c r="P117" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q117" t="n">
         <v>1.72</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G118" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H118" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J118" t="n">
         <v>5.3</v>
       </c>
       <c r="K118" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L118" t="n">
         <v>1.01</v>
@@ -16351,22 +16351,22 @@
         <v>1.04</v>
       </c>
       <c r="N118" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O118" t="n">
         <v>1.22</v>
       </c>
       <c r="P118" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q118" t="n">
         <v>1.59</v>
       </c>
       <c r="R118" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S118" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T118" t="n">
         <v>1.89</v>
@@ -16378,16 +16378,16 @@
         <v>1.07</v>
       </c>
       <c r="W118" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="X118" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y118" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z118" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA118" t="n">
         <v>1000</v>
@@ -16396,16 +16396,16 @@
         <v>11</v>
       </c>
       <c r="AC118" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE118" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF118" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG118" t="n">
         <v>13</v>
@@ -16414,10 +16414,10 @@
         <v>36</v>
       </c>
       <c r="AI118" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ118" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK118" t="n">
         <v>18</v>
@@ -16429,10 +16429,10 @@
         <v>200</v>
       </c>
       <c r="AN118" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO118" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119">
@@ -16486,13 +16486,13 @@
         <v>1.01</v>
       </c>
       <c r="N119" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="O119" t="n">
         <v>1.01</v>
       </c>
       <c r="P119" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q119" t="n">
         <v>1.02</v>
@@ -16600,7 +16600,7 @@
         <v>4.1</v>
       </c>
       <c r="G120" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H120" t="n">
         <v>2.06</v>
@@ -16696,7 +16696,7 @@
         <v>65</v>
       </c>
       <c r="AM120" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN120" t="n">
         <v>65</v>
@@ -16759,10 +16759,10 @@
         <v>5.9</v>
       </c>
       <c r="O121" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P121" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q121" t="n">
         <v>1.56</v>
@@ -16798,7 +16798,7 @@
         <v>160</v>
       </c>
       <c r="AB121" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC121" t="n">
         <v>11</v>
@@ -17005,19 +17005,19 @@
         <v>1.23</v>
       </c>
       <c r="G123" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H123" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I123" t="n">
         <v>15</v>
       </c>
       <c r="J123" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L123" t="n">
         <v>1.17</v>
@@ -17041,7 +17041,7 @@
         <v>2.38</v>
       </c>
       <c r="S123" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="T123" t="n">
         <v>1.71</v>
@@ -17431,7 +17431,7 @@
         <v>1.03</v>
       </c>
       <c r="N126" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="O126" t="n">
         <v>1.19</v>
@@ -17446,7 +17446,7 @@
         <v>1.53</v>
       </c>
       <c r="S126" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T126" t="n">
         <v>1.67</v>
@@ -17458,7 +17458,7 @@
         <v>1.14</v>
       </c>
       <c r="W126" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="X126" t="n">
         <v>32</v>
@@ -17542,16 +17542,16 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="H127" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="I127" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J127" t="n">
         <v>3.4</v>
@@ -17560,7 +17560,7 @@
         <v>3.5</v>
       </c>
       <c r="L127" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M127" t="n">
         <v>1.07</v>
@@ -17572,10 +17572,10 @@
         <v>1.36</v>
       </c>
       <c r="P127" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R127" t="n">
         <v>1.25</v>
@@ -17587,22 +17587,22 @@
         <v>1.69</v>
       </c>
       <c r="U127" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V127" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W127" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X127" t="n">
         <v>1000</v>
       </c>
       <c r="Y127" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z127" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA127" t="n">
         <v>65</v>
@@ -17614,7 +17614,7 @@
         <v>11</v>
       </c>
       <c r="AD127" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE127" t="n">
         <v>48</v>
@@ -17629,25 +17629,25 @@
         <v>26</v>
       </c>
       <c r="AI127" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ127" t="n">
         <v>65</v>
       </c>
       <c r="AK127" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL127" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM127" t="n">
         <v>1000</v>
       </c>
       <c r="AN127" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO127" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="128">
@@ -17725,7 +17725,7 @@
         <v>2.1</v>
       </c>
       <c r="V128" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="W128" t="n">
         <v>1.08</v>
@@ -17752,7 +17752,7 @@
         <v>11</v>
       </c>
       <c r="AE128" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF128" t="n">
         <v>150</v>
@@ -17764,7 +17764,7 @@
         <v>29</v>
       </c>
       <c r="AI128" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ128" t="n">
         <v>460</v>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G129" t="n">
         <v>2.24</v>
@@ -17824,7 +17824,7 @@
         <v>4.3</v>
       </c>
       <c r="J129" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K129" t="n">
         <v>3.75</v>
@@ -17983,16 +17983,16 @@
         <v>1.59</v>
       </c>
       <c r="R130" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S130" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T130" t="n">
         <v>1.54</v>
       </c>
-      <c r="S130" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T130" t="n">
-        <v>1.46</v>
-      </c>
       <c r="U130" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="V130" t="n">
         <v>1.55</v>
@@ -18319,7 +18319,7 @@
         <v>1000</v>
       </c>
       <c r="AN132" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO132" t="n">
         <v>1000</v>
@@ -18358,16 +18358,16 @@
         <v>1.13</v>
       </c>
       <c r="H133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I133" t="n">
         <v>27</v>
       </c>
       <c r="J133" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="K133" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="L133" t="n">
         <v>1.12</v>
@@ -18376,7 +18376,7 @@
         <v>1.01</v>
       </c>
       <c r="N133" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="O133" t="n">
         <v>1.06</v>
@@ -18388,16 +18388,16 @@
         <v>1.2</v>
       </c>
       <c r="R133" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="S133" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="T133" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="U133" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V133" t="n">
         <v>1.04</v>
@@ -18409,7 +18409,7 @@
         <v>130</v>
       </c>
       <c r="Y133" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Z133" t="n">
         <v>310</v>
@@ -18424,7 +18424,7 @@
         <v>38</v>
       </c>
       <c r="AD133" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AE133" t="n">
         <v>330</v>
@@ -18436,7 +18436,7 @@
         <v>16</v>
       </c>
       <c r="AH133" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI133" t="n">
         <v>200</v>
@@ -18517,10 +18517,10 @@
         <v>1.33</v>
       </c>
       <c r="P134" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R134" t="n">
         <v>1.36</v>
@@ -18529,7 +18529,7 @@
         <v>3.25</v>
       </c>
       <c r="T134" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U134" t="n">
         <v>1.98</v>
@@ -18793,7 +18793,7 @@
         <v>1.57</v>
       </c>
       <c r="R136" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S136" t="n">
         <v>2.14</v>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G137" t="n">
         <v>1.38</v>
@@ -18943,7 +18943,7 @@
         <v>1.1</v>
       </c>
       <c r="W137" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X137" t="n">
         <v>19</v>
@@ -18952,7 +18952,7 @@
         <v>32</v>
       </c>
       <c r="Z137" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA137" t="n">
         <v>430</v>
@@ -18982,7 +18982,7 @@
         <v>150</v>
       </c>
       <c r="AJ137" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK137" t="n">
         <v>14.5</v>
@@ -18994,7 +18994,7 @@
         <v>200</v>
       </c>
       <c r="AN137" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO137" t="n">
         <v>250</v>
@@ -19030,13 +19030,13 @@
         <v>2.46</v>
       </c>
       <c r="G138" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="H138" t="n">
         <v>2.78</v>
       </c>
       <c r="I138" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J138" t="n">
         <v>3.6</v>
@@ -19060,7 +19060,7 @@
         <v>2.16</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R138" t="n">
         <v>1.46</v>
@@ -19078,19 +19078,19 @@
         <v>1.5</v>
       </c>
       <c r="W138" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X138" t="n">
         <v>19.5</v>
       </c>
       <c r="Y138" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z138" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA138" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB138" t="n">
         <v>13.5</v>
@@ -19099,10 +19099,10 @@
         <v>9</v>
       </c>
       <c r="AD138" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE138" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF138" t="n">
         <v>18.5</v>
@@ -19114,7 +19114,7 @@
         <v>16.5</v>
       </c>
       <c r="AI138" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ138" t="n">
         <v>36</v>
@@ -19132,7 +19132,7 @@
         <v>17.5</v>
       </c>
       <c r="AO138" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139">
@@ -19168,7 +19168,7 @@
         <v>1.15</v>
       </c>
       <c r="H139" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I139" t="n">
         <v>34</v>
@@ -19204,7 +19204,7 @@
         <v>2.46</v>
       </c>
       <c r="T139" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="U139" t="n">
         <v>1.47</v>
@@ -19231,7 +19231,7 @@
         <v>9.4</v>
       </c>
       <c r="AC139" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD139" t="n">
         <v>130</v>
@@ -19240,7 +19240,7 @@
         <v>1000</v>
       </c>
       <c r="AF139" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG139" t="n">
         <v>14.5</v>
@@ -19252,13 +19252,13 @@
         <v>1000</v>
       </c>
       <c r="AJ139" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AK139" t="n">
         <v>16.5</v>
       </c>
       <c r="AL139" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM139" t="n">
         <v>440</v>
@@ -19309,7 +19309,7 @@
         <v>1.92</v>
       </c>
       <c r="J140" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K140" t="n">
         <v>3.95</v>
@@ -19321,22 +19321,22 @@
         <v>1.06</v>
       </c>
       <c r="N140" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="O140" t="n">
         <v>1.29</v>
       </c>
       <c r="P140" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R140" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S140" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T140" t="n">
         <v>1.01</v>
@@ -19381,7 +19381,7 @@
         <v>28</v>
       </c>
       <c r="AH140" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI140" t="n">
         <v>50</v>
@@ -19399,10 +19399,10 @@
         <v>1000</v>
       </c>
       <c r="AN140" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO140" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="141">
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G141" t="n">
         <v>2.74</v>
@@ -19459,7 +19459,7 @@
         <v>2.28</v>
       </c>
       <c r="O141" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="P141" t="n">
         <v>1.42</v>
@@ -19570,7 +19570,7 @@
         <v>1.51</v>
       </c>
       <c r="G142" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="H142" t="n">
         <v>7</v>
@@ -19600,7 +19600,7 @@
         <v>1.95</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R142" t="n">
         <v>0</v>
@@ -19741,7 +19741,7 @@
         <v>1.23</v>
       </c>
       <c r="S143" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T143" t="n">
         <v>1.83</v>
@@ -19867,7 +19867,7 @@
         <v>1.35</v>
       </c>
       <c r="P144" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q144" t="n">
         <v>2.08</v>
@@ -20107,22 +20107,22 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G146" t="n">
         <v>2.16</v>
       </c>
       <c r="H146" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I146" t="n">
         <v>5.2</v>
       </c>
       <c r="J146" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K146" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -20278,16 +20278,16 @@
         <v>1.32</v>
       </c>
       <c r="R147" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S147" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="T147" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="U147" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V147" t="n">
         <v>1.02</v>
@@ -20341,7 +20341,7 @@
         <v>60</v>
       </c>
       <c r="AM147" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="AN147" t="n">
         <v>2.48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO147"/>
+  <dimension ref="A1:AO150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
         <v>2.3</v>
@@ -808,10 +808,10 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
@@ -847,7 +847,7 @@
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
         <v>1.35</v>
@@ -856,7 +856,7 @@
         <v>1.9</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>14</v>
@@ -868,7 +868,7 @@
         <v>80</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
         <v>8.199999999999999</v>
@@ -889,7 +889,7 @@
         <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -904,7 +904,7 @@
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>48</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -964,7 +964,7 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
         <v>2.54</v>
@@ -988,13 +988,13 @@
         <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X4" t="n">
         <v>25</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
         <v>26</v>
@@ -1918,7 +1918,7 @@
         <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S11" t="n">
         <v>1.37</v>
@@ -2170,16 +2170,16 @@
         <v>4.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.67</v>
@@ -2431,7 +2431,7 @@
         <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
         <v>3.8</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -2455,13 +2455,13 @@
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
         <v>1.65</v>
@@ -2470,7 +2470,7 @@
         <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
         <v>1.92</v>
@@ -2488,7 +2488,7 @@
         <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -2500,7 +2500,7 @@
         <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
         <v>13.5</v>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
@@ -2722,82 +2722,82 @@
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.52</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.5</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U17" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V17" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
         <v>46</v>
       </c>
-      <c r="AL17" t="n">
-        <v>48</v>
-      </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="G18" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2854,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
         <v>1.79</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2875,10 +2875,10 @@
         <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W18" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2965,19 +2965,19 @@
         <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.42</v>
@@ -2998,7 +2998,7 @@
         <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S19" t="n">
         <v>3.6</v>
@@ -3022,10 +3022,10 @@
         <v>15.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -3034,7 +3034,7 @@
         <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
         <v>55</v>
@@ -3049,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
         <v>38</v>
@@ -3067,7 +3067,7 @@
         <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
         <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
         <v>3.75</v>
@@ -3250,7 +3250,7 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3265,7 +3265,7 @@
         <v>2.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
         <v>1.45</v>
@@ -3292,7 +3292,7 @@
         <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
         <v>55</v>
@@ -3370,7 +3370,7 @@
         <v>2.2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
         <v>3.4</v>
@@ -3394,13 +3394,13 @@
         <v>3.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R22" t="n">
         <v>1.37</v>
@@ -3409,7 +3409,7 @@
         <v>3.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U22" t="n">
         <v>2.16</v>
@@ -3418,7 +3418,7 @@
         <v>1.36</v>
       </c>
       <c r="W22" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
         <v>14.5</v>
@@ -3436,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
@@ -3466,7 +3466,7 @@
         <v>38</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN22" t="n">
         <v>18</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
         <v>3.75</v>
       </c>
       <c r="H23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
         <v>2.18</v>
@@ -3532,10 +3532,10 @@
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
         <v>1.51</v>
@@ -3559,7 +3559,7 @@
         <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z23" t="n">
         <v>18</v>
@@ -3568,25 +3568,25 @@
         <v>30</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
         <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
         <v>36</v>
@@ -3595,7 +3595,7 @@
         <v>75</v>
       </c>
       <c r="AK23" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="n">
         <v>50</v>
@@ -3604,7 +3604,7 @@
         <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
         <v>13.5</v>
@@ -3637,52 +3637,52 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
         <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
         <v>3.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
         <v>1.39</v>
@@ -3691,25 +3691,25 @@
         <v>1.75</v>
       </c>
       <c r="X24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
         <v>36</v>
@@ -3718,13 +3718,13 @@
         <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
         <v>29</v>
@@ -3733,16 +3733,16 @@
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
         <v>2.42</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
         <v>3.25</v>
@@ -3814,7 +3814,7 @@
         <v>2.46</v>
       </c>
       <c r="T25" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="U25" t="n">
         <v>2.56</v>
@@ -3928,19 +3928,19 @@
         <v>1.31</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>3.45</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
         <v>1.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="R26" t="n">
         <v>1.32</v>
@@ -3952,7 +3952,7 @@
         <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
         <v>1.19</v>
@@ -4045,16 +4045,16 @@
         <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
         <v>4.6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -4066,16 +4066,16 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="O27" t="n">
         <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="R27" t="n">
         <v>1.33</v>
@@ -4093,7 +4093,7 @@
         <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4198,13 +4198,13 @@
         <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="O28" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="P28" t="n">
         <v>1.25</v>
@@ -4216,13 +4216,13 @@
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
         <v>1.58</v>
@@ -4321,10 +4321,10 @@
         <v>1.87</v>
       </c>
       <c r="I29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
         <v>4.2</v>
@@ -4363,7 +4363,7 @@
         <v>1.96</v>
       </c>
       <c r="W29" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
         <v>19.5</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
         <v>2.72</v>
@@ -4471,16 +4471,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
@@ -4594,10 +4594,10 @@
         <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.46</v>
@@ -4630,10 +4630,10 @@
         <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X31" t="n">
         <v>12</v>
@@ -4723,16 +4723,16 @@
         <v>1.63</v>
       </c>
       <c r="H32" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
         <v>4.3</v>
       </c>
-      <c r="I32" t="n">
-        <v>15</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.2</v>
-      </c>
       <c r="K32" t="n">
-        <v>6.6</v>
+        <v>950</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L33" t="n">
         <v>1.35</v>
@@ -4876,16 +4876,16 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O33" t="n">
         <v>1.31</v>
       </c>
       <c r="P33" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="R33" t="n">
         <v>1.28</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G34" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="H34" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I34" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
@@ -5014,31 +5014,31 @@
         <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T34" t="n">
         <v>1.48</v>
       </c>
       <c r="U34" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="V34" t="n">
         <v>1.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5077,16 +5077,16 @@
         <v>46</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="n">
         <v>48</v>
       </c>
       <c r="AM34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
@@ -5128,16 +5128,16 @@
         <v>1.35</v>
       </c>
       <c r="H35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="I35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J35" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K35" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.35</v>
@@ -5173,7 +5173,7 @@
         <v>1.08</v>
       </c>
       <c r="W35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X35" t="n">
         <v>18.5</v>
@@ -5260,16 +5260,16 @@
         <v>2.38</v>
       </c>
       <c r="G36" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="H36" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I36" t="n">
         <v>3.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
@@ -5293,13 +5293,13 @@
         <v>1.54</v>
       </c>
       <c r="R36" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S36" t="n">
         <v>2.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U36" t="n">
         <v>1.01</v>
@@ -5308,7 +5308,7 @@
         <v>1.48</v>
       </c>
       <c r="W36" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5395,7 +5395,7 @@
         <v>1.74</v>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H37" t="n">
         <v>4.4</v>
@@ -5416,7 +5416,7 @@
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.24</v>
@@ -5434,16 +5434,16 @@
         <v>2.74</v>
       </c>
       <c r="T37" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U37" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V37" t="n">
         <v>1.23</v>
       </c>
       <c r="W37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X37" t="n">
         <v>24</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H38" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I38" t="n">
         <v>3.35</v>
@@ -5542,7 +5542,7 @@
         <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L38" t="n">
         <v>1.28</v>
@@ -5560,7 +5560,7 @@
         <v>1.99</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R38" t="n">
         <v>1.38</v>
@@ -5578,10 +5578,10 @@
         <v>1.43</v>
       </c>
       <c r="W38" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
         <v>16.5</v>
@@ -5593,7 +5593,7 @@
         <v>65</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC38" t="n">
         <v>10</v>
@@ -5605,7 +5605,7 @@
         <v>42</v>
       </c>
       <c r="AF38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG38" t="n">
         <v>14</v>
@@ -5629,7 +5629,7 @@
         <v>100</v>
       </c>
       <c r="AN38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO38" t="n">
         <v>36</v>
@@ -5665,10 +5665,10 @@
         <v>3.05</v>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I39" t="n">
         <v>2.36</v>
@@ -5677,7 +5677,7 @@
         <v>3.85</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5800,10 +5800,10 @@
         <v>3.25</v>
       </c>
       <c r="G40" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I40" t="n">
         <v>2.54</v>
@@ -5821,13 +5821,13 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q40" t="n">
         <v>2.06</v>
@@ -5836,10 +5836,10 @@
         <v>1.26</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U40" t="n">
         <v>1.84</v>
@@ -5851,16 +5851,16 @@
         <v>1.38</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
         <v>13</v>
       </c>
       <c r="Z40" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB40" t="n">
         <v>16.5</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G41" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H41" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I41" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J41" t="n">
         <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5965,7 +5965,7 @@
         <v>1.77</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R41" t="n">
         <v>1.29</v>
@@ -5974,10 +5974,10 @@
         <v>3.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U41" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V41" t="n">
         <v>1.56</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G42" t="n">
         <v>1.87</v>
@@ -6076,22 +6076,22 @@
         <v>5.6</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J42" t="n">
         <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
         <v>1.46</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O42" t="n">
         <v>1.5</v>
@@ -6112,7 +6112,7 @@
         <v>2.26</v>
       </c>
       <c r="U42" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="V42" t="n">
         <v>1.17</v>
@@ -6133,7 +6133,7 @@
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC42" t="n">
         <v>10.5</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="G43" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2.82</v>
+        <v>4.6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="K43" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R43" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>2.24</v>
       </c>
       <c r="T43" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="W43" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>AZ Picerno ASD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.16</v>
+        <v>4.9</v>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>1.68</v>
       </c>
       <c r="I44" t="n">
-        <v>4.6</v>
+        <v>1.82</v>
       </c>
       <c r="J44" t="n">
-        <v>2.66</v>
+        <v>3.85</v>
       </c>
       <c r="K44" t="n">
         <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>1.45</v>
+        <v>3.9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P44" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S44" t="n">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.27</v>
+        <v>2.2</v>
       </c>
       <c r="W44" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="45">
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AZ Picerno ASD</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>3.05</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="H48" t="n">
-        <v>1.68</v>
+        <v>2.52</v>
       </c>
       <c r="I48" t="n">
-        <v>1.82</v>
+        <v>2.82</v>
       </c>
       <c r="J48" t="n">
-        <v>3.85</v>
+        <v>2.92</v>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O48" t="n">
         <v>1.36</v>
       </c>
-      <c r="M48" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.28</v>
-      </c>
       <c r="P48" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.7</v>
+        <v>2.12</v>
       </c>
       <c r="R48" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="S48" t="n">
-        <v>2.78</v>
+        <v>3.75</v>
       </c>
       <c r="T48" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="U48" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V48" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="W48" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="X48" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH48" t="n">
         <v>20</v>
       </c>
-      <c r="Y48" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF48" t="n">
+      <c r="AI48" t="n">
         <v>55</v>
       </c>
-      <c r="AG48" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI48" t="n">
+      <c r="AJ48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK48" t="n">
         <v>42</v>
       </c>
-      <c r="AJ48" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>85</v>
-      </c>
       <c r="AL48" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM48" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN48" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AO48" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G49" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H49" t="n">
         <v>2.28</v>
@@ -7147,25 +7147,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G50" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="H50" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
         <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K50" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L50" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M50" t="n">
         <v>1.06</v>
@@ -7180,25 +7180,25 @@
         <v>1.57</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R50" t="n">
         <v>1.21</v>
       </c>
       <c r="S50" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U50" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V50" t="n">
         <v>1.31</v>
       </c>
       <c r="W50" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7297,37 +7297,37 @@
         <v>3.25</v>
       </c>
       <c r="K51" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O51" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P51" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S51" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="T51" t="n">
         <v>1.94</v>
       </c>
       <c r="U51" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V51" t="n">
         <v>1.27</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H52" t="n">
         <v>2.4</v>
@@ -7432,7 +7432,7 @@
         <v>3.5</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L52" t="n">
         <v>1.38</v>
@@ -7447,19 +7447,19 @@
         <v>1.28</v>
       </c>
       <c r="P52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R52" t="n">
         <v>1.41</v>
       </c>
       <c r="S52" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="U52" t="n">
         <v>2.26</v>
@@ -7468,7 +7468,7 @@
         <v>1.66</v>
       </c>
       <c r="W52" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X52" t="n">
         <v>20</v>
@@ -7591,7 +7591,7 @@
         <v>1.19</v>
       </c>
       <c r="S53" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T53" t="n">
         <v>1.86</v>
@@ -7693,49 +7693,49 @@
         <v>2.44</v>
       </c>
       <c r="H54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K54" t="n">
         <v>3.4</v>
       </c>
-      <c r="I54" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L54" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M54" t="n">
         <v>1.09</v>
       </c>
       <c r="N54" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O54" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R54" t="n">
         <v>1.27</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U54" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V54" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W54" t="n">
         <v>1.69</v>
@@ -7756,7 +7756,7 @@
         <v>9</v>
       </c>
       <c r="AC54" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD54" t="n">
         <v>15.5</v>
@@ -7825,7 +7825,7 @@
         <v>2.06</v>
       </c>
       <c r="G55" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>4.4</v>
@@ -7855,7 +7855,7 @@
         <v>1.7</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R55" t="n">
         <v>1.27</v>
@@ -7873,7 +7873,7 @@
         <v>1.28</v>
       </c>
       <c r="W55" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X55" t="n">
         <v>10.5</v>
@@ -7888,7 +7888,7 @@
         <v>110</v>
       </c>
       <c r="AB55" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC55" t="n">
         <v>7.4</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G56" t="n">
         <v>2.48</v>
@@ -7969,7 +7969,7 @@
         <v>4.1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K56" t="n">
         <v>3.4</v>
@@ -7978,16 +7978,16 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
         <v>2.62</v>
       </c>
       <c r="O56" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P56" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q56" t="n">
         <v>2.48</v>
@@ -7999,13 +7999,13 @@
         <v>5</v>
       </c>
       <c r="T56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U56" t="n">
         <v>1.78</v>
       </c>
       <c r="V56" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W56" t="n">
         <v>1.68</v>
@@ -8107,7 +8107,7 @@
         <v>3.85</v>
       </c>
       <c r="K57" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8125,7 +8125,7 @@
         <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R57" t="n">
         <v>1.38</v>
@@ -8140,7 +8140,7 @@
         <v>1.88</v>
       </c>
       <c r="V57" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W57" t="n">
         <v>2.1</v>
@@ -8188,7 +8188,7 @@
         <v>23</v>
       </c>
       <c r="AL57" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM57" t="n">
         <v>130</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G58" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="H58" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K58" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8251,7 +8251,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="O58" t="n">
         <v>1.23</v>
@@ -8263,34 +8263,34 @@
         <v>1.68</v>
       </c>
       <c r="R58" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="S58" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="T58" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="U58" t="n">
         <v>2.04</v>
       </c>
       <c r="V58" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W58" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="X58" t="n">
         <v>25</v>
       </c>
       <c r="Y58" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z58" t="n">
         <v>44</v>
       </c>
       <c r="AA58" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB58" t="n">
         <v>13</v>
@@ -8323,13 +8323,13 @@
         <v>22</v>
       </c>
       <c r="AL58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM58" t="n">
         <v>100</v>
       </c>
       <c r="AN58" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO58" t="n">
         <v>60</v>
@@ -8362,58 +8362,58 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G59" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K59" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N59" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O59" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P59" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q59" t="n">
         <v>2.46</v>
       </c>
       <c r="R59" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S59" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T59" t="n">
         <v>2.02</v>
       </c>
       <c r="U59" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="V59" t="n">
         <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X59" t="n">
         <v>10.5</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G60" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>1.95</v>
       </c>
       <c r="I60" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="J60" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K60" t="n">
         <v>4.9</v>
@@ -8521,46 +8521,46 @@
         <v>1.05</v>
       </c>
       <c r="N60" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O60" t="n">
         <v>1.24</v>
       </c>
       <c r="P60" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="R60" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S60" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="T60" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U60" t="n">
         <v>2.06</v>
       </c>
       <c r="V60" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W60" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="X60" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y60" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Z60" t="n">
         <v>970</v>
       </c>
       <c r="AA60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB60" t="n">
         <v>21</v>
@@ -8575,7 +8575,7 @@
         <v>25</v>
       </c>
       <c r="AF60" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG60" t="n">
         <v>970</v>
@@ -8635,7 +8635,7 @@
         <v>1.72</v>
       </c>
       <c r="G61" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H61" t="n">
         <v>4.6</v>
@@ -8644,10 +8644,10 @@
         <v>5.7</v>
       </c>
       <c r="J61" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K61" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8665,34 +8665,34 @@
         <v>2.04</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S61" t="n">
         <v>2.96</v>
       </c>
       <c r="T61" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U61" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V61" t="n">
         <v>1.21</v>
       </c>
       <c r="W61" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="n">
         <v>23</v>
       </c>
       <c r="Z61" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA61" t="n">
         <v>140</v>
@@ -8701,19 +8701,19 @@
         <v>11.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE61" t="n">
         <v>80</v>
       </c>
       <c r="AF61" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
         <v>23</v>
@@ -8737,7 +8737,7 @@
         <v>12.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
@@ -8767,25 +8767,25 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G62" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H62" t="n">
         <v>3.8</v>
       </c>
       <c r="I62" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J62" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K62" t="n">
         <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M62" t="n">
         <v>1.04</v>
@@ -8803,10 +8803,10 @@
         <v>1.69</v>
       </c>
       <c r="R62" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S62" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T62" t="n">
         <v>1.61</v>
@@ -8815,43 +8815,43 @@
         <v>2.54</v>
       </c>
       <c r="V62" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W62" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X62" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y62" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA62" t="n">
         <v>70</v>
       </c>
       <c r="AB62" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC62" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD62" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF62" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH62" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI62" t="n">
         <v>42</v>
@@ -8860,19 +8860,19 @@
         <v>25</v>
       </c>
       <c r="AK62" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL62" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM62" t="n">
         <v>65</v>
       </c>
       <c r="AN62" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G63" t="n">
         <v>1.52</v>
       </c>
       <c r="H63" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K63" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8926,34 +8926,34 @@
         <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O63" t="n">
         <v>1.27</v>
       </c>
       <c r="P63" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q63" t="n">
         <v>1.79</v>
       </c>
       <c r="R63" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S63" t="n">
         <v>3</v>
       </c>
       <c r="T63" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V63" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W63" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="X63" t="n">
         <v>21</v>
@@ -8992,7 +8992,7 @@
         <v>150</v>
       </c>
       <c r="AJ63" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AK63" t="n">
         <v>19.5</v>
@@ -9001,13 +9001,13 @@
         <v>48</v>
       </c>
       <c r="AM63" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN63" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO63" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64">
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G64" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I64" t="n">
         <v>4.9</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
       </c>
       <c r="J64" t="n">
         <v>4.3</v>
@@ -9082,13 +9082,13 @@
         <v>1.67</v>
       </c>
       <c r="U64" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V64" t="n">
         <v>1.25</v>
       </c>
       <c r="W64" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X64" t="n">
         <v>23</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G65" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="H65" t="n">
         <v>4.7</v>
       </c>
       <c r="I65" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J65" t="n">
         <v>4.4</v>
@@ -9211,7 +9211,7 @@
         <v>1.69</v>
       </c>
       <c r="S65" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T65" t="n">
         <v>1.6</v>
@@ -9223,7 +9223,7 @@
         <v>1.26</v>
       </c>
       <c r="W65" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="X65" t="n">
         <v>27</v>
@@ -9232,7 +9232,7 @@
         <v>25</v>
       </c>
       <c r="Z65" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA65" t="n">
         <v>95</v>
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G66" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H66" t="n">
         <v>4.4</v>
@@ -9319,10 +9319,10 @@
         <v>4.5</v>
       </c>
       <c r="J66" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K66" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3.65</v>
       </c>
       <c r="L66" t="n">
         <v>1.46</v>
@@ -9346,7 +9346,7 @@
         <v>1.28</v>
       </c>
       <c r="S66" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T66" t="n">
         <v>2</v>
@@ -9358,7 +9358,7 @@
         <v>1.28</v>
       </c>
       <c r="W66" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X66" t="n">
         <v>11.5</v>
@@ -9448,7 +9448,7 @@
         <v>2.78</v>
       </c>
       <c r="H67" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I67" t="n">
         <v>2.96</v>
@@ -9457,10 +9457,10 @@
         <v>3.45</v>
       </c>
       <c r="K67" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L67" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M67" t="n">
         <v>1.06</v>
@@ -9586,19 +9586,19 @@
         <v>2.42</v>
       </c>
       <c r="I68" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J68" t="n">
         <v>3.4</v>
       </c>
       <c r="K68" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L68" t="n">
         <v>1.4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
         <v>3.8</v>
@@ -9625,7 +9625,7 @@
         <v>2.18</v>
       </c>
       <c r="V68" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W68" t="n">
         <v>1.44</v>
@@ -9640,7 +9640,7 @@
         <v>17.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB68" t="n">
         <v>13</v>
@@ -9715,7 +9715,7 @@
         <v>1.97</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H69" t="n">
         <v>4.2</v>
@@ -9886,7 +9886,7 @@
         <v>1.36</v>
       </c>
       <c r="S70" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T70" t="n">
         <v>1.01</v>
@@ -9997,7 +9997,7 @@
         <v>3.95</v>
       </c>
       <c r="K71" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L71" t="n">
         <v>1.01</v>
@@ -10015,13 +10015,13 @@
         <v>2.46</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R71" t="n">
         <v>1.09</v>
       </c>
       <c r="S71" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="T71" t="n">
         <v>1.41</v>
@@ -10033,7 +10033,7 @@
         <v>2.02</v>
       </c>
       <c r="W71" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X71" t="n">
         <v>1000</v>
@@ -10120,16 +10120,16 @@
         <v>1.81</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H72" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I72" t="n">
         <v>5.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K72" t="n">
         <v>4.9</v>
@@ -10144,7 +10144,7 @@
         <v>3.35</v>
       </c>
       <c r="O72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P72" t="n">
         <v>1.94</v>
@@ -10153,7 +10153,7 @@
         <v>1.83</v>
       </c>
       <c r="R72" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="S72" t="n">
         <v>2.86</v>
@@ -10162,13 +10162,13 @@
         <v>1.66</v>
       </c>
       <c r="U72" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V72" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X72" t="n">
         <v>970</v>
@@ -10435,7 +10435,7 @@
         <v>1.81</v>
       </c>
       <c r="V74" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W74" t="n">
         <v>1.17</v>
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>2.32</v>
@@ -10537,7 +10537,7 @@
         <v>3.35</v>
       </c>
       <c r="K75" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -10561,25 +10561,25 @@
         <v>1.38</v>
       </c>
       <c r="S75" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T75" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="U75" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
         <v>1.7</v>
       </c>
       <c r="W75" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X75" t="n">
         <v>1000</v>
       </c>
       <c r="Y75" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z75" t="n">
         <v>23</v>
@@ -10666,7 +10666,7 @@
         <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J76" t="n">
         <v>3.4</v>
@@ -10705,7 +10705,7 @@
         <v>1.75</v>
       </c>
       <c r="V76" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W76" t="n">
         <v>1.84</v>
@@ -10795,19 +10795,19 @@
         <v>1.73</v>
       </c>
       <c r="G77" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I77" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
         <v>4.5</v>
       </c>
       <c r="K77" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
         <v>1.01</v>
@@ -10840,7 +10840,7 @@
         <v>2.18</v>
       </c>
       <c r="V77" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W77" t="n">
         <v>2.22</v>
@@ -10918,55 +10918,55 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Arbroath</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="H78" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="I78" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="J78" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K78" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L78" t="n">
         <v>1.01</v>
       </c>
       <c r="M78" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="O78" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P78" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="R78" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S78" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T78" t="n">
         <v>1.01</v>
@@ -10975,10 +10975,10 @@
         <v>1.01</v>
       </c>
       <c r="V78" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="W78" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="X78" t="n">
         <v>1000</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G79" t="n">
         <v>2.3</v>
@@ -11086,16 +11086,16 @@
         <v>1.01</v>
       </c>
       <c r="N79" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="O79" t="n">
         <v>1.4</v>
       </c>
       <c r="P79" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R79" t="n">
         <v>1.24</v>
@@ -11626,7 +11626,7 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O83" t="n">
         <v>1.19</v>
@@ -11644,7 +11644,7 @@
         <v>2.46</v>
       </c>
       <c r="T83" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U83" t="n">
         <v>2.54</v>
@@ -11752,7 +11752,7 @@
         <v>4.7</v>
       </c>
       <c r="K84" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L84" t="n">
         <v>1.34</v>
@@ -11773,16 +11773,16 @@
         <v>1.8</v>
       </c>
       <c r="R84" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S84" t="n">
         <v>3</v>
       </c>
       <c r="T84" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="U84" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="V84" t="n">
         <v>1.1</v>
@@ -11803,7 +11803,7 @@
         <v>400</v>
       </c>
       <c r="AB84" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC84" t="n">
         <v>12</v>
@@ -11815,7 +11815,7 @@
         <v>190</v>
       </c>
       <c r="AF84" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG84" t="n">
         <v>12.5</v>
@@ -11875,19 +11875,19 @@
         <v>1.66</v>
       </c>
       <c r="G85" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="H85" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J85" t="n">
         <v>3.35</v>
       </c>
       <c r="K85" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,13 +11896,13 @@
         <v>1.08</v>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O85" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P85" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q85" t="n">
         <v>2.08</v>
@@ -11914,13 +11914,13 @@
         <v>3.55</v>
       </c>
       <c r="T85" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U85" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V85" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W85" t="n">
         <v>2.16</v>
@@ -12013,7 +12013,7 @@
         <v>2.62</v>
       </c>
       <c r="H86" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I86" t="n">
         <v>3.8</v>
@@ -12037,10 +12037,10 @@
         <v>1.02</v>
       </c>
       <c r="P86" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R86" t="n">
         <v>1.18</v>
@@ -12049,7 +12049,7 @@
         <v>4.8</v>
       </c>
       <c r="T86" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U86" t="n">
         <v>1.01</v>
@@ -12058,7 +12058,7 @@
         <v>1.37</v>
       </c>
       <c r="W86" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X86" t="n">
         <v>12</v>
@@ -12076,19 +12076,19 @@
         <v>10.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD86" t="n">
         <v>24</v>
       </c>
       <c r="AE86" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF86" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG86" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH86" t="n">
         <v>34</v>
@@ -12100,7 +12100,7 @@
         <v>55</v>
       </c>
       <c r="AK86" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL86" t="n">
         <v>95</v>
@@ -12118,7 +12118,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -12133,31 +12133,31 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Arbroath</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Hapoel Tel Aviv</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H87" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I87" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="J87" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K87" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L87" t="n">
         <v>1.01</v>
@@ -12166,34 +12166,34 @@
         <v>1.01</v>
       </c>
       <c r="N87" t="n">
-        <v>1.85</v>
+        <v>2.72</v>
       </c>
       <c r="O87" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P87" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R87" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S87" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="T87" t="n">
         <v>1.01</v>
       </c>
       <c r="U87" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V87" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="W87" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X87" t="n">
         <v>1000</v>
@@ -12301,19 +12301,19 @@
         <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O88" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P88" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R88" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S88" t="n">
         <v>3.5</v>
@@ -12322,7 +12322,7 @@
         <v>1.81</v>
       </c>
       <c r="U88" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V88" t="n">
         <v>1.32</v>
@@ -12331,7 +12331,7 @@
         <v>1.86</v>
       </c>
       <c r="X88" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y88" t="n">
         <v>17.5</v>
@@ -12361,16 +12361,16 @@
         <v>11</v>
       </c>
       <c r="AH88" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI88" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ88" t="n">
         <v>27</v>
       </c>
       <c r="AK88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL88" t="n">
         <v>42</v>
@@ -12382,13 +12382,13 @@
         <v>24</v>
       </c>
       <c r="AO88" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -12403,55 +12403,55 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Hapoel Tel Aviv</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="G89" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="H89" t="n">
-        <v>1.82</v>
+        <v>2.12</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="J89" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K89" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
       </c>
       <c r="M89" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N89" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O89" t="n">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="P89" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="R89" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S89" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T89" t="n">
         <v>1.01</v>
@@ -12460,10 +12460,10 @@
         <v>1.01</v>
       </c>
       <c r="V89" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="W89" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="X89" t="n">
         <v>1000</v>
@@ -12577,7 +12577,7 @@
         <v>1.49</v>
       </c>
       <c r="P90" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q90" t="n">
         <v>2.48</v>
@@ -12634,7 +12634,7 @@
         <v>22</v>
       </c>
       <c r="AI90" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ90" t="n">
         <v>38</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G91" t="n">
         <v>2.36</v>
@@ -12694,7 +12694,7 @@
         <v>4.1</v>
       </c>
       <c r="J91" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K91" t="n">
         <v>3.5</v>
@@ -12703,7 +12703,7 @@
         <v>1.5</v>
       </c>
       <c r="M91" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N91" t="n">
         <v>2.96</v>
@@ -12712,7 +12712,7 @@
         <v>1.45</v>
       </c>
       <c r="P91" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q91" t="n">
         <v>2.28</v>
@@ -12730,7 +12730,7 @@
         <v>1.89</v>
       </c>
       <c r="V91" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W91" t="n">
         <v>1.73</v>
@@ -12739,43 +12739,43 @@
         <v>11</v>
       </c>
       <c r="Y91" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AA91" t="n">
         <v>110</v>
       </c>
       <c r="AB91" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC91" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD91" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE91" t="n">
         <v>60</v>
       </c>
       <c r="AF91" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG91" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH91" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI91" t="n">
         <v>75</v>
       </c>
       <c r="AJ91" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK91" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL91" t="n">
         <v>55</v>
@@ -12784,7 +12784,7 @@
         <v>170</v>
       </c>
       <c r="AN91" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AO91" t="n">
         <v>75</v>
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G92" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H92" t="n">
         <v>5.4</v>
       </c>
       <c r="I92" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J92" t="n">
         <v>4</v>
@@ -12850,7 +12850,7 @@
         <v>1.98</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R92" t="n">
         <v>1.37</v>
@@ -12865,10 +12865,10 @@
         <v>1.8</v>
       </c>
       <c r="V92" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W92" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X92" t="n">
         <v>16</v>
@@ -12955,10 +12955,10 @@
         <v>2.38</v>
       </c>
       <c r="G93" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H93" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I93" t="n">
         <v>3.45</v>
@@ -12985,25 +12985,25 @@
         <v>1.77</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R93" t="n">
         <v>1.29</v>
       </c>
       <c r="S93" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T93" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="U93" t="n">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="V93" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W93" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X93" t="n">
         <v>13.5</v>
@@ -13099,7 +13099,7 @@
         <v>6.2</v>
       </c>
       <c r="J94" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K94" t="n">
         <v>5.7</v>
@@ -13225,7 +13225,7 @@
         <v>3.65</v>
       </c>
       <c r="G95" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>1.91</v>
@@ -13273,7 +13273,7 @@
         <v>1.96</v>
       </c>
       <c r="W95" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X95" t="n">
         <v>32</v>
@@ -13360,16 +13360,16 @@
         <v>3.9</v>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H96" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I96" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J96" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>3.2</v>
@@ -13384,22 +13384,22 @@
         <v>2.56</v>
       </c>
       <c r="O96" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P96" t="n">
         <v>1.52</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R96" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S96" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T96" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U96" t="n">
         <v>1.75</v>
@@ -13408,7 +13408,7 @@
         <v>1.74</v>
       </c>
       <c r="W96" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X96" t="n">
         <v>8.800000000000001</v>
@@ -13453,7 +13453,7 @@
         <v>70</v>
       </c>
       <c r="AL96" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM96" t="n">
         <v>240</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G97" t="n">
         <v>2.3</v>
@@ -13516,13 +13516,13 @@
         <v>1.1</v>
       </c>
       <c r="N97" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O97" t="n">
         <v>1.46</v>
       </c>
       <c r="P97" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q97" t="n">
         <v>2.26</v>
@@ -13630,7 +13630,7 @@
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>3.55</v>
@@ -13657,16 +13657,16 @@
         <v>1.26</v>
       </c>
       <c r="P98" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q98" t="n">
         <v>1.78</v>
       </c>
       <c r="R98" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S98" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T98" t="n">
         <v>1.01</v>
@@ -13678,7 +13678,7 @@
         <v>1.31</v>
       </c>
       <c r="W98" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13777,7 +13777,7 @@
         <v>3.45</v>
       </c>
       <c r="K99" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
         <v>1.37</v>
@@ -13792,16 +13792,16 @@
         <v>1.28</v>
       </c>
       <c r="P99" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R99" t="n">
         <v>1.38</v>
       </c>
       <c r="S99" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T99" t="n">
         <v>1.73</v>
@@ -13930,7 +13930,7 @@
         <v>2.22</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R100" t="n">
         <v>1.48</v>
@@ -13939,7 +13939,7 @@
         <v>2.92</v>
       </c>
       <c r="T100" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U100" t="n">
         <v>2.28</v>
@@ -13969,7 +13969,7 @@
         <v>9</v>
       </c>
       <c r="AD100" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE100" t="n">
         <v>50</v>
@@ -13990,13 +13990,13 @@
         <v>21</v>
       </c>
       <c r="AK100" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL100" t="n">
         <v>30</v>
       </c>
       <c r="AM100" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN100" t="n">
         <v>10.5</v>
@@ -14032,16 +14032,16 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G101" t="n">
         <v>1.79</v>
       </c>
       <c r="H101" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I101" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J101" t="n">
         <v>3.6</v>
@@ -14056,13 +14056,13 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="O101" t="n">
         <v>1.28</v>
       </c>
       <c r="P101" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q101" t="n">
         <v>1.72</v>
@@ -14179,7 +14179,7 @@
         <v>2.18</v>
       </c>
       <c r="J102" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K102" t="n">
         <v>3.7</v>
@@ -14203,16 +14203,16 @@
         <v>2.1</v>
       </c>
       <c r="R102" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S102" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T102" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U102" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V102" t="n">
         <v>1.84</v>
@@ -14227,7 +14227,7 @@
         <v>12.5</v>
       </c>
       <c r="Z102" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA102" t="n">
         <v>38</v>
@@ -14236,7 +14236,7 @@
         <v>20</v>
       </c>
       <c r="AC102" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD102" t="n">
         <v>15.5</v>
@@ -14248,7 +14248,7 @@
         <v>46</v>
       </c>
       <c r="AG102" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH102" t="n">
         <v>29</v>
@@ -14263,7 +14263,7 @@
         <v>85</v>
       </c>
       <c r="AL102" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM102" t="n">
         <v>1000</v>
@@ -14329,10 +14329,10 @@
         <v>2.98</v>
       </c>
       <c r="O103" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P103" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q103" t="n">
         <v>2.26</v>
@@ -14398,7 +14398,7 @@
         <v>32</v>
       </c>
       <c r="AL103" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM103" t="n">
         <v>160</v>
@@ -14443,7 +14443,7 @@
         <v>1.31</v>
       </c>
       <c r="H104" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I104" t="n">
         <v>1000</v>
@@ -14452,7 +14452,7 @@
         <v>5.7</v>
       </c>
       <c r="K104" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>
@@ -14461,7 +14461,7 @@
         <v>1.03</v>
       </c>
       <c r="N104" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O104" t="n">
         <v>1.21</v>
@@ -14470,7 +14470,7 @@
         <v>2.28</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R104" t="n">
         <v>1.44</v>
@@ -14488,7 +14488,7 @@
         <v>1.04</v>
       </c>
       <c r="W104" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X104" t="n">
         <v>1000</v>
@@ -14578,7 +14578,7 @@
         <v>2.84</v>
       </c>
       <c r="H105" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I105" t="n">
         <v>3.1</v>
@@ -14608,7 +14608,7 @@
         <v>2.02</v>
       </c>
       <c r="R105" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S105" t="n">
         <v>3.6</v>
@@ -14641,7 +14641,7 @@
         <v>15</v>
       </c>
       <c r="AC105" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD105" t="n">
         <v>19</v>
@@ -14656,7 +14656,7 @@
         <v>18</v>
       </c>
       <c r="AH105" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI105" t="n">
         <v>65</v>
@@ -14740,13 +14740,13 @@
         <v>1.85</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R106" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S106" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T106" t="n">
         <v>1.74</v>
@@ -14833,31 +14833,31 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.86</v>
+        <v>2.74</v>
       </c>
       <c r="G107" t="n">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="I107" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="J107" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="K107" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
         <v>1.01</v>
@@ -14866,22 +14866,22 @@
         <v>1.01</v>
       </c>
       <c r="N107" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O107" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P107" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R107" t="n">
         <v>1.18</v>
       </c>
       <c r="S107" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="T107" t="n">
         <v>1.01</v>
@@ -14890,10 +14890,10 @@
         <v>1.01</v>
       </c>
       <c r="V107" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="W107" t="n">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="X107" t="n">
         <v>1000</v>
@@ -14968,31 +14968,31 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Forli</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I108" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="J108" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="K108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15001,22 +15001,22 @@
         <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O108" t="n">
         <v>1.02</v>
       </c>
       <c r="P108" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R108" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S108" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="T108" t="n">
         <v>1.01</v>
@@ -15025,10 +15025,10 @@
         <v>1.01</v>
       </c>
       <c r="V108" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="W108" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="X108" t="n">
         <v>1000</v>
@@ -15103,31 +15103,31 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Forli</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="H109" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="I109" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="J109" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L109" t="n">
         <v>1.01</v>
@@ -15136,22 +15136,22 @@
         <v>1.01</v>
       </c>
       <c r="N109" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="O109" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P109" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R109" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S109" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="T109" t="n">
         <v>1.01</v>
@@ -15160,10 +15160,10 @@
         <v>1.01</v>
       </c>
       <c r="V109" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="W109" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="X109" t="n">
         <v>1000</v>
@@ -15391,7 +15391,7 @@
         <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J111" t="n">
         <v>3.4</v>
@@ -15406,7 +15406,7 @@
         <v>1.02</v>
       </c>
       <c r="N111" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="O111" t="n">
         <v>1.23</v>
@@ -15415,13 +15415,13 @@
         <v>2.06</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="R111" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S111" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T111" t="n">
         <v>1.6</v>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G112" t="n">
         <v>1.65</v>
@@ -15553,7 +15553,7 @@
         <v>1.52</v>
       </c>
       <c r="R112" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="S112" t="n">
         <v>2.14</v>
@@ -15706,7 +15706,7 @@
         <v>2.14</v>
       </c>
       <c r="X113" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y113" t="n">
         <v>23</v>
@@ -15730,13 +15730,13 @@
         <v>65</v>
       </c>
       <c r="AF113" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG113" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH113" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI113" t="n">
         <v>65</v>
@@ -15754,7 +15754,7 @@
         <v>120</v>
       </c>
       <c r="AN113" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO113" t="n">
         <v>65</v>
@@ -15763,7 +15763,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Slovakian Super League</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -15778,55 +15778,55 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Tatran Presov</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Zemplin</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="G114" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="H114" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="I114" t="n">
+        <v>4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K114" t="n">
         <v>4.6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>4.8</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
       </c>
       <c r="M114" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>3.95</v>
+        <v>2</v>
       </c>
       <c r="O114" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P114" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R114" t="n">
         <v>1.36</v>
       </c>
       <c r="S114" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="T114" t="n">
         <v>1.01</v>
@@ -15835,10 +15835,10 @@
         <v>1.01</v>
       </c>
       <c r="V114" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="X114" t="n">
         <v>1000</v>
@@ -15964,7 +15964,7 @@
         <v>4.7</v>
       </c>
       <c r="T115" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U115" t="n">
         <v>1.88</v>
@@ -16033,7 +16033,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -16048,31 +16048,31 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Omonia FC Aradippou</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>FK Jablonec</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4.3</v>
+        <v>1.33</v>
       </c>
       <c r="G116" t="n">
-        <v>7.6</v>
+        <v>1.41</v>
       </c>
       <c r="H116" t="n">
-        <v>1.59</v>
+        <v>8.4</v>
       </c>
       <c r="I116" t="n">
-        <v>1.85</v>
+        <v>14</v>
       </c>
       <c r="J116" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="K116" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="L116" t="n">
         <v>1.01</v>
@@ -16081,94 +16081,94 @@
         <v>1.04</v>
       </c>
       <c r="N116" t="n">
-        <v>1.72</v>
+        <v>4.5</v>
       </c>
       <c r="O116" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="P116" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="R116" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="S116" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="T116" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U116" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="V116" t="n">
-        <v>2.16</v>
+        <v>1.07</v>
       </c>
       <c r="W116" t="n">
-        <v>1.15</v>
+        <v>3.45</v>
       </c>
       <c r="X116" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y116" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z116" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA116" t="n">
         <v>1000</v>
       </c>
       <c r="AB116" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC116" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE116" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF116" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG116" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH116" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI116" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ116" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK116" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL116" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM116" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN116" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO116" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Slovakian Super League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -16183,55 +16183,55 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tatran Presov</t>
+          <t>Omonia FC Aradippou</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Zemplin</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.16</v>
+        <v>4.3</v>
       </c>
       <c r="G117" t="n">
-        <v>2.42</v>
+        <v>7.6</v>
       </c>
       <c r="H117" t="n">
-        <v>3.2</v>
+        <v>1.59</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="J117" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K117" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="L117" t="n">
         <v>1.01</v>
       </c>
       <c r="M117" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N117" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="O117" t="n">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="P117" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="R117" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="S117" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="T117" t="n">
         <v>1.01</v>
@@ -16240,10 +16240,10 @@
         <v>1.01</v>
       </c>
       <c r="V117" t="n">
-        <v>1.33</v>
+        <v>2.16</v>
       </c>
       <c r="W117" t="n">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="X117" t="n">
         <v>1000</v>
@@ -16303,7 +16303,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -16318,121 +16318,121 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FK Jablonec</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="G118" t="n">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
-        <v>8.6</v>
+        <v>3.85</v>
       </c>
       <c r="I118" t="n">
-        <v>14</v>
+        <v>4.6</v>
       </c>
       <c r="J118" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="K118" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="L118" t="n">
         <v>1.01</v>
       </c>
       <c r="M118" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N118" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="O118" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P118" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="R118" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="S118" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="T118" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U118" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="W118" t="n">
-        <v>3.45</v>
+        <v>1.9</v>
       </c>
       <c r="X118" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y118" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Z118" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA118" t="n">
         <v>1000</v>
       </c>
       <c r="AB118" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC118" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD118" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE118" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF118" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG118" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH118" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI118" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ118" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK118" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL118" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM118" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN118" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO118" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119">
@@ -16486,13 +16486,13 @@
         <v>1.01</v>
       </c>
       <c r="N119" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="O119" t="n">
         <v>1.01</v>
       </c>
       <c r="P119" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q119" t="n">
         <v>1.02</v>
@@ -16732,25 +16732,25 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H121" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I121" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J121" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K121" t="n">
         <v>4.9</v>
       </c>
-      <c r="K121" t="n">
-        <v>5</v>
-      </c>
       <c r="L121" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M121" t="n">
         <v>1.03</v>
@@ -16762,16 +16762,16 @@
         <v>1.19</v>
       </c>
       <c r="P121" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q121" t="n">
         <v>1.56</v>
       </c>
       <c r="R121" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S121" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T121" t="n">
         <v>1.68</v>
@@ -16780,10 +16780,10 @@
         <v>2.4</v>
       </c>
       <c r="V121" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W121" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X121" t="n">
         <v>26</v>
@@ -16804,7 +16804,7 @@
         <v>11</v>
       </c>
       <c r="AD121" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE121" t="n">
         <v>65</v>
@@ -16978,7 +16978,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -16993,127 +16993,127 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Partizan Belgrade</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>FK Napredak</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="G123" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H123" t="n">
         <v>13.5</v>
       </c>
       <c r="I123" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J123" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="K123" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="L123" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="M123" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N123" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P123" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S123" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X123" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ123" t="n">
         <v>11</v>
       </c>
-      <c r="O123" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P123" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R123" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S123" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="T123" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U123" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V123" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W123" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X123" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>490</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD123" t="n">
+      <c r="AK123" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL123" t="n">
         <v>55</v>
       </c>
-      <c r="AE123" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>27</v>
-      </c>
       <c r="AM123" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN123" t="n">
-        <v>2.72</v>
+        <v>4.2</v>
       </c>
       <c r="AO123" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -17128,127 +17128,127 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.86</v>
+        <v>1.23</v>
       </c>
       <c r="G124" t="n">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="H124" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>15</v>
+      </c>
+      <c r="J124" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K124" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N124" t="n">
+        <v>11</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P124" t="n">
         <v>4.3</v>
       </c>
-      <c r="I124" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K124" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L124" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M124" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N124" t="n">
-        <v>4</v>
-      </c>
-      <c r="O124" t="n">
+      <c r="Q124" t="n">
         <v>1.28</v>
       </c>
-      <c r="P124" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R124" t="n">
-        <v>1.41</v>
+        <v>2.38</v>
       </c>
       <c r="S124" t="n">
-        <v>3</v>
+        <v>1.69</v>
       </c>
       <c r="T124" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="U124" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="V124" t="n">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="W124" t="n">
-        <v>2.12</v>
+        <v>5.1</v>
       </c>
       <c r="X124" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
       <c r="Y124" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="Z124" t="n">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="AA124" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="AB124" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AC124" t="n">
-        <v>9.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="AD124" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AE124" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AF124" t="n">
         <v>12.5</v>
       </c>
       <c r="AG124" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH124" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AI124" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AJ124" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AK124" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AL124" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AM124" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN124" t="n">
-        <v>12</v>
+        <v>2.72</v>
       </c>
       <c r="AO124" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -17263,121 +17263,121 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Partizan Belgrade</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FK Napredak</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.2</v>
+        <v>1.86</v>
       </c>
       <c r="G125" t="n">
-        <v>1.27</v>
+        <v>1.88</v>
       </c>
       <c r="H125" t="n">
-        <v>13.5</v>
+        <v>4.3</v>
       </c>
       <c r="I125" t="n">
-        <v>24</v>
+        <v>4.9</v>
       </c>
       <c r="J125" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="K125" t="n">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="L125" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M125" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="O125" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="P125" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="R125" t="n">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="S125" t="n">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="T125" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="U125" t="n">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="V125" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="W125" t="n">
-        <v>4.2</v>
+        <v>2.12</v>
       </c>
       <c r="X125" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="Y125" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA125" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB125" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC125" t="n">
-        <v>21</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD125" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AE125" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF125" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG125" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH125" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AI125" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ125" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AK125" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AL125" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM125" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN125" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="AO125" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
@@ -17410,13 +17410,13 @@
         <v>1.45</v>
       </c>
       <c r="G126" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>7.2</v>
       </c>
       <c r="I126" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J126" t="n">
         <v>4.9</v>
@@ -17455,10 +17455,10 @@
         <v>1.91</v>
       </c>
       <c r="V126" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W126" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="X126" t="n">
         <v>32</v>
@@ -17518,7 +17518,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -17533,127 +17533,127 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Paris St-G</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.7</v>
+        <v>12.5</v>
       </c>
       <c r="G127" t="n">
-        <v>2.94</v>
+        <v>13.5</v>
       </c>
       <c r="H127" t="n">
-        <v>2.72</v>
+        <v>1.26</v>
       </c>
       <c r="I127" t="n">
-        <v>2.94</v>
+        <v>1.28</v>
       </c>
       <c r="J127" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N127" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P127" t="n">
         <v>3.4</v>
       </c>
-      <c r="K127" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L127" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M127" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P127" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Q127" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="R127" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="S127" t="n">
-        <v>3.25</v>
+        <v>1.96</v>
       </c>
       <c r="T127" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="U127" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="V127" t="n">
-        <v>1.51</v>
+        <v>4.6</v>
       </c>
       <c r="W127" t="n">
-        <v>1.51</v>
+        <v>1.08</v>
       </c>
       <c r="X127" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y127" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z127" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI127" t="n">
         <v>28</v>
       </c>
-      <c r="AA127" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ127" t="n">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="AK127" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AL127" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AM127" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN127" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO127" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -17668,127 +17668,127 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Paris St-G</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F128" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB128" t="n">
         <v>12</v>
       </c>
-      <c r="G128" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J128" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K128" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M128" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N128" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O128" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P128" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R128" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S128" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T128" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U128" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V128" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X128" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB128" t="n">
+      <c r="AC128" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL128" t="n">
         <v>60</v>
       </c>
-      <c r="AC128" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>460</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>120</v>
-      </c>
       <c r="AM128" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN128" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO128" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -17803,127 +17803,127 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>MTK Budapest</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Ujpest</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="G129" t="n">
-        <v>2.24</v>
+        <v>2.92</v>
       </c>
       <c r="H129" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="I129" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="J129" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="K129" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="L129" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="M129" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N129" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="O129" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="P129" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="R129" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="S129" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="T129" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="U129" t="n">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="V129" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W129" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="X129" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y129" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB129" t="n">
         <v>19</v>
       </c>
-      <c r="Z129" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA129" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>12</v>
-      </c>
       <c r="AC129" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD129" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AE129" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AF129" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG129" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG129" t="n">
-        <v>13</v>
-      </c>
       <c r="AH129" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI129" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ129" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK129" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL129" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM129" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN129" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO129" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -17938,121 +17938,121 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>MTK Budapest</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Ujpest</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="G130" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H130" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="I130" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="J130" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K130" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="L130" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R130" t="n">
         <v>1.25</v>
       </c>
-      <c r="M130" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N130" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O130" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P130" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R130" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S130" t="n">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="T130" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="U130" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="V130" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="W130" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z130" t="n">
         <v>28</v>
       </c>
-      <c r="Y130" t="n">
+      <c r="AA130" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD130" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z130" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE130" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AF130" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH130" t="n">
         <v>26</v>
       </c>
-      <c r="AG130" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI130" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AJ130" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK130" t="n">
         <v>48</v>
       </c>
-      <c r="AK130" t="n">
-        <v>32</v>
-      </c>
       <c r="AL130" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AM130" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN130" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO130" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131">
@@ -18085,16 +18085,16 @@
         <v>2.06</v>
       </c>
       <c r="G131" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H131" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I131" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J131" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K131" t="n">
         <v>3.65</v>
@@ -18106,13 +18106,13 @@
         <v>1.08</v>
       </c>
       <c r="N131" t="n">
-        <v>1.65</v>
+        <v>2.76</v>
       </c>
       <c r="O131" t="n">
         <v>1.42</v>
       </c>
       <c r="P131" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="Q131" t="n">
         <v>2.26</v>
@@ -18121,7 +18121,7 @@
         <v>1.21</v>
       </c>
       <c r="S131" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T131" t="n">
         <v>1.01</v>
@@ -18130,10 +18130,10 @@
         <v>1.01</v>
       </c>
       <c r="V131" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W131" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18172,10 +18172,10 @@
         <v>100</v>
       </c>
       <c r="AJ131" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK131" t="n">
         <v>40</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>38</v>
       </c>
       <c r="AL131" t="n">
         <v>70</v>
@@ -18367,7 +18367,7 @@
         <v>13</v>
       </c>
       <c r="K133" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="L133" t="n">
         <v>1.12</v>
@@ -18418,7 +18418,7 @@
         <v>1000</v>
       </c>
       <c r="AB133" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC133" t="n">
         <v>38</v>
@@ -18433,7 +18433,7 @@
         <v>14</v>
       </c>
       <c r="AG133" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH133" t="n">
         <v>46</v>
@@ -18493,13 +18493,13 @@
         <v>1.72</v>
       </c>
       <c r="H134" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I134" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J134" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K134" t="n">
         <v>4.4</v>
@@ -18517,22 +18517,22 @@
         <v>1.33</v>
       </c>
       <c r="P134" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R134" t="n">
         <v>1.36</v>
       </c>
       <c r="S134" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T134" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="U134" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V134" t="n">
         <v>1.2</v>
@@ -18631,13 +18631,13 @@
         <v>4.9</v>
       </c>
       <c r="I135" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J135" t="n">
         <v>3.9</v>
       </c>
       <c r="K135" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L135" t="n">
         <v>1.29</v>
@@ -19003,7 +19003,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -19018,127 +19018,127 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="G138" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="H138" t="n">
-        <v>2.78</v>
+        <v>3.35</v>
       </c>
       <c r="I138" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K138" t="n">
         <v>3</v>
       </c>
-      <c r="J138" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K138" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L138" t="n">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="M138" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="N138" t="n">
-        <v>4.4</v>
+        <v>2.28</v>
       </c>
       <c r="O138" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="P138" t="n">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.74</v>
+        <v>3.25</v>
       </c>
       <c r="R138" t="n">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
       <c r="S138" t="n">
-        <v>2.84</v>
+        <v>7.4</v>
       </c>
       <c r="T138" t="n">
-        <v>1.63</v>
+        <v>2.48</v>
       </c>
       <c r="U138" t="n">
-        <v>2.32</v>
+        <v>1.64</v>
       </c>
       <c r="V138" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="W138" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X138" t="n">
-        <v>19.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y138" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG138" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z138" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA138" t="n">
+      <c r="AH138" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ138" t="n">
         <v>46</v>
       </c>
-      <c r="AB138" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>36</v>
-      </c>
       <c r="AK138" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AL138" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AM138" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AN138" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AO138" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -19153,127 +19153,127 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.14</v>
+        <v>2.16</v>
       </c>
       <c r="G139" t="n">
-        <v>1.15</v>
+        <v>2.32</v>
       </c>
       <c r="H139" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S139" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z139" t="n">
         <v>29</v>
       </c>
-      <c r="I139" t="n">
-        <v>34</v>
-      </c>
-      <c r="J139" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K139" t="n">
-        <v>11</v>
-      </c>
-      <c r="L139" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M139" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N139" t="n">
-        <v>6</v>
-      </c>
-      <c r="O139" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P139" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R139" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S139" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T139" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="U139" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V139" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W139" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X139" t="n">
+      <c r="AA139" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK139" t="n">
         <v>30</v>
       </c>
-      <c r="Y139" t="n">
+      <c r="AL139" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO139" t="n">
         <v>80</v>
-      </c>
-      <c r="Z139" t="n">
-        <v>420</v>
-      </c>
-      <c r="AA139" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB139" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC139" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>130</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF139" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM139" t="n">
-        <v>440</v>
-      </c>
-      <c r="AN139" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO139" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -19288,127 +19288,127 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.4</v>
+        <v>1.51</v>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>1.59</v>
       </c>
       <c r="H140" t="n">
-        <v>1.86</v>
+        <v>7</v>
       </c>
       <c r="I140" t="n">
-        <v>1.92</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J140" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K140" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="L140" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P140" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R140" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U140" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V140" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="W140" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X140" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y140" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z140" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AA140" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AB140" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC140" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AD140" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE140" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF140" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG140" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AH140" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI140" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AJ140" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK140" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AL140" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AM140" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN140" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO140" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -19423,127 +19423,127 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2.66</v>
+        <v>4.4</v>
       </c>
       <c r="G141" t="n">
-        <v>2.74</v>
+        <v>5</v>
       </c>
       <c r="H141" t="n">
-        <v>3.35</v>
+        <v>1.86</v>
       </c>
       <c r="I141" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="J141" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="K141" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P141" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S141" t="n">
         <v>3</v>
       </c>
-      <c r="L141" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M141" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N141" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O141" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P141" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R141" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S141" t="n">
-        <v>7.4</v>
-      </c>
       <c r="T141" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="U141" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V141" t="n">
-        <v>1.41</v>
+        <v>2.08</v>
       </c>
       <c r="W141" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="X141" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y141" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z141" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA141" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AB141" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AC141" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AD141" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE141" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AF141" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AG141" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AH141" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI141" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AJ141" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK141" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AL141" t="n">
         <v>95</v>
       </c>
       <c r="AM141" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN141" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AO141" t="n">
-        <v>100</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -19558,127 +19558,127 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="G142" t="n">
-        <v>1.59</v>
+        <v>1.15</v>
       </c>
       <c r="H142" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I142" t="n">
-        <v>9.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="J142" t="n">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="K142" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P142" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="Q142" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="U142" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V142" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W142" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="X142" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y142" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z142" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AA142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB142" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC142" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD142" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AE142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF142" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AG142" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AI142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ142" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AK142" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL142" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM142" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AN142" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AO142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -19693,121 +19693,121 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.16</v>
+        <v>2.46</v>
       </c>
       <c r="G143" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P143" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S143" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U143" t="n">
         <v>2.32</v>
       </c>
-      <c r="H143" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K143" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L143" t="n">
+      <c r="V143" t="n">
         <v>1.5</v>
       </c>
-      <c r="M143" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N143" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O143" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P143" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R143" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S143" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T143" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U143" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V143" t="n">
-        <v>1.32</v>
-      </c>
       <c r="W143" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="X143" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG143" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y143" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z143" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA143" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD143" t="n">
+      <c r="AH143" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN143" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE143" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK143" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL143" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM143" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>27</v>
-      </c>
       <c r="AO143" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
@@ -19867,7 +19867,7 @@
         <v>1.35</v>
       </c>
       <c r="P144" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q144" t="n">
         <v>2.08</v>
@@ -19972,40 +19972,40 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="G145" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="H145" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="I145" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q145" t="n">
         <v>1.73</v>
-      </c>
-      <c r="J145" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K145" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O145" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P145" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>1.58</v>
       </c>
       <c r="R145" t="n">
         <v>0</v>
@@ -20107,22 +20107,22 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G146" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H146" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I146" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="J146" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K146" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L146" t="n">
         <v>0</v>
@@ -20137,10 +20137,10 @@
         <v>1.32</v>
       </c>
       <c r="P146" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
@@ -20254,7 +20254,7 @@
         <v>55</v>
       </c>
       <c r="J147" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="K147" t="n">
         <v>19</v>
@@ -20278,16 +20278,16 @@
         <v>1.32</v>
       </c>
       <c r="R147" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S147" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="T147" t="n">
         <v>2.6</v>
       </c>
       <c r="U147" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V147" t="n">
         <v>1.02</v>
@@ -20348,6 +20348,411 @@
       </c>
       <c r="AO147" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S148" t="n">
+        <v>5</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X148" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P149" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Australian A-League Men</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N150" t="n">
+        <v>6</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P150" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S150" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X150" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -700,25 +700,25 @@
         <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -811,16 +811,16 @@
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -961,7 +961,7 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -979,10 +979,10 @@
         <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.41</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G5" t="n">
         <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="I5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>2.72</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>44</v>
@@ -1144,7 +1144,7 @@
         <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>970</v>
@@ -1156,7 +1156,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
@@ -1351,10 +1351,10 @@
         <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1390,7 +1390,7 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1909,13 +1909,13 @@
         <v>1.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>4.6</v>
       </c>
       <c r="K12" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -2041,13 +2041,13 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
         <v>1.76</v>
@@ -2062,19 +2062,19 @@
         <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V12" t="n">
         <v>1.08</v>
       </c>
       <c r="W12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X12" t="n">
         <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
         <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2341,40 +2341,40 @@
         <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2425,19 +2425,19 @@
         <v>4.7</v>
       </c>
       <c r="G15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I15" t="n">
         <v>1.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.38</v>
@@ -2449,31 +2449,31 @@
         <v>2.96</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
         <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
         <v>2.24</v>
       </c>
       <c r="W15" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2695,19 +2695,19 @@
         <v>2.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
         <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.29</v>
@@ -2734,16 +2734,16 @@
         <v>2.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="n">
         <v>2.24</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="X17" t="n">
         <v>22</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>970</v>
       </c>
       <c r="J18" t="n">
         <v>1.09</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>970</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,28 +2851,28 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>2.26</v>
       </c>
       <c r="O18" t="n">
         <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q18" t="n">
         <v>1.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
         <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.41</v>
@@ -2968,7 +2968,7 @@
         <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
         <v>2.12</v>
@@ -2992,7 +2992,7 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
         <v>1.64</v>
@@ -3106,7 +3106,7 @@
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
         <v>3.3</v>
@@ -3130,13 +3130,13 @@
         <v>1.83</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R20" t="n">
         <v>1.31</v>
       </c>
       <c r="S20" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
         <v>1.8</v>
@@ -3235,16 +3235,16 @@
         <v>1.74</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3256,34 +3256,34 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T21" t="n">
         <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3319,13 +3319,13 @@
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>40</v>
@@ -3334,7 +3334,7 @@
         <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO21" t="n">
         <v>80</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
         <v>2.98</v>
@@ -3505,7 +3505,7 @@
         <v>2.48</v>
       </c>
       <c r="G23" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H23" t="n">
         <v>2.68</v>
@@ -3526,19 +3526,19 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
         <v>2.78</v>
@@ -3547,7 +3547,7 @@
         <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
         <v>1.5</v>
@@ -3589,7 +3589,7 @@
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="n">
         <v>46</v>
@@ -3598,16 +3598,16 @@
         <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
         <v>22</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.04</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.08</v>
-      </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
         <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
         <v>1.4</v>
@@ -3667,13 +3667,13 @@
         <v>1.31</v>
       </c>
       <c r="P24" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
         <v>3.35</v>
@@ -3688,19 +3688,19 @@
         <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB24" t="n">
         <v>9.6</v>
@@ -3721,13 +3721,13 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
         <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
         <v>22</v>
@@ -3736,10 +3736,10 @@
         <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AN24" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO24" t="n">
         <v>55</v>
@@ -3778,16 +3778,16 @@
         <v>2.46</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>1.28</v>
@@ -3796,13 +3796,13 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="O25" t="n">
         <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q25" t="n">
         <v>1.71</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
         <v>2.4</v>
@@ -3931,7 +3931,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="O26" t="n">
         <v>1.19</v>
@@ -3949,7 +3949,7 @@
         <v>2.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U26" t="n">
         <v>2.62</v>
@@ -3958,7 +3958,7 @@
         <v>1.43</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
         <v>27</v>
@@ -3976,7 +3976,7 @@
         <v>18</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
         <v>15.5</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G27" t="n">
         <v>1.87</v>
@@ -4075,13 +4075,13 @@
         <v>1.85</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
         <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
         <v>1.86</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
@@ -4228,10 +4228,10 @@
         <v>1.86</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="n">
         <v>12.5</v>
@@ -4249,10 +4249,10 @@
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="n">
         <v>28</v>
@@ -4279,7 +4279,7 @@
         <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
         <v>12</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
         <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
         <v>3.7</v>
@@ -4336,7 +4336,7 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.23</v>
@@ -4345,7 +4345,7 @@
         <v>2.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
         <v>1.52</v>
@@ -4354,7 +4354,7 @@
         <v>2.76</v>
       </c>
       <c r="T29" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U29" t="n">
         <v>2.46</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="G30" t="n">
         <v>4.5</v>
@@ -4456,16 +4456,16 @@
         <v>2.04</v>
       </c>
       <c r="I30" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -4477,13 +4477,13 @@
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
         <v>2.58</v>
@@ -4498,7 +4498,7 @@
         <v>1.59</v>
       </c>
       <c r="W30" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4609,7 +4609,7 @@
         <v>2.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
         <v>1.45</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G32" t="n">
         <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I32" t="n">
         <v>2.02</v>
@@ -4732,7 +4732,7 @@
         <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
@@ -4744,13 +4744,13 @@
         <v>3.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R32" t="n">
         <v>1.38</v>
@@ -4759,7 +4759,7 @@
         <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U32" t="n">
         <v>2.1</v>
@@ -4795,7 +4795,7 @@
         <v>25</v>
       </c>
       <c r="AF32" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="n">
         <v>22</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G33" t="n">
         <v>3.15</v>
@@ -4867,7 +4867,7 @@
         <v>3.15</v>
       </c>
       <c r="K33" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
@@ -5008,19 +5008,19 @@
         <v>1.46</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
         <v>1.27</v>
@@ -5032,7 +5032,7 @@
         <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V34" t="n">
         <v>1.31</v>
@@ -5083,7 +5083,7 @@
         <v>30</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM34" t="n">
         <v>160</v>
@@ -5128,7 +5128,7 @@
         <v>1.33</v>
       </c>
       <c r="H35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
         <v>13.5</v>
@@ -5137,7 +5137,7 @@
         <v>5.9</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
         <v>1.35</v>
@@ -5146,28 +5146,28 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="T35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
         <v>1.08</v>
@@ -5179,7 +5179,7 @@
         <v>18.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="n">
         <v>120</v>
@@ -5188,7 +5188,7 @@
         <v>620</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC35" t="n">
         <v>13</v>
@@ -5197,37 +5197,37 @@
         <v>46</v>
       </c>
       <c r="AE35" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.4</v>
       </c>
       <c r="AK35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="n">
         <v>5.3</v>
       </c>
       <c r="AO35" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36">
@@ -5272,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>950</v>
       </c>
       <c r="L36" t="n">
         <v>1.32</v>
@@ -5287,10 +5287,10 @@
         <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
         <v>1.29</v>
@@ -5395,13 +5395,13 @@
         <v>2.6</v>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="H37" t="n">
         <v>2.48</v>
       </c>
       <c r="I37" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J37" t="n">
         <v>3.75</v>
@@ -5416,46 +5416,46 @@
         <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
         <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R37" t="n">
         <v>1.54</v>
       </c>
       <c r="S37" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T37" t="n">
         <v>1.56</v>
       </c>
       <c r="U37" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W37" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="X37" t="n">
         <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z37" t="n">
         <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="n">
         <v>19</v>
@@ -5668,13 +5668,13 @@
         <v>2.64</v>
       </c>
       <c r="H39" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I39" t="n">
         <v>3.05</v>
       </c>
       <c r="J39" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>4.1</v>
@@ -5686,7 +5686,7 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="O39" t="n">
         <v>1.2</v>
@@ -5698,10 +5698,10 @@
         <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="S39" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="T39" t="n">
         <v>1.56</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G40" t="n">
         <v>1.88</v>
@@ -5809,13 +5809,13 @@
         <v>5.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K40" t="n">
         <v>4.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -5827,10 +5827,10 @@
         <v>1.23</v>
       </c>
       <c r="P40" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="R40" t="n">
         <v>1.47</v>
@@ -5842,7 +5842,7 @@
         <v>1.67</v>
       </c>
       <c r="U40" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
         <v>1.24</v>
@@ -5872,7 +5872,7 @@
         <v>23</v>
       </c>
       <c r="AE40" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF40" t="n">
         <v>15</v>
@@ -5884,10 +5884,10 @@
         <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ40" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK40" t="n">
         <v>22</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
       </c>
       <c r="H41" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I41" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="J41" t="n">
         <v>3.55</v>
       </c>
       <c r="K41" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5980,7 +5980,7 @@
         <v>1.04</v>
       </c>
       <c r="V41" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W41" t="n">
         <v>1.33</v>
@@ -6082,7 +6082,7 @@
         <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L42" t="n">
         <v>1.28</v>
@@ -6112,7 +6112,7 @@
         <v>1.69</v>
       </c>
       <c r="U42" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V42" t="n">
         <v>1.43</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H43" t="n">
-        <v>1.61</v>
+        <v>2.18</v>
       </c>
       <c r="I43" t="n">
         <v>2.7</v>
@@ -6217,85 +6217,85 @@
         <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P43" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="T43" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U43" t="n">
         <v>1.87</v>
       </c>
       <c r="V43" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W43" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
         <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
@@ -6304,10 +6304,10 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H44" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="I44" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>3.4</v>
@@ -6361,88 +6361,88 @@
         <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O44" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P44" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R44" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S44" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U44" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="W44" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X44" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AB44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD44" t="n">
         <v>13</v>
       </c>
-      <c r="AC44" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>14</v>
-      </c>
       <c r="AE44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
         <v>55</v>
       </c>
       <c r="AJ44" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK44" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL44" t="n">
         <v>65</v>
       </c>
       <c r="AM44" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN44" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AO44" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G45" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H45" t="n">
         <v>5.1</v>
@@ -6523,7 +6523,7 @@
         <v>1.2</v>
       </c>
       <c r="W45" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X45" t="n">
         <v>9.6</v>
@@ -6562,7 +6562,7 @@
         <v>250</v>
       </c>
       <c r="AJ45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK45" t="n">
         <v>38</v>
@@ -6610,16 +6610,16 @@
         <v>2.3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H46" t="n">
         <v>3.35</v>
       </c>
       <c r="I46" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="K46" t="n">
         <v>3.4</v>
@@ -6655,10 +6655,10 @@
         <v>1.8</v>
       </c>
       <c r="V46" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W46" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X46" t="n">
         <v>11</v>
@@ -6754,13 +6754,13 @@
         <v>1.84</v>
       </c>
       <c r="J47" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K47" t="n">
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M47" t="n">
         <v>1.06</v>
@@ -6775,7 +6775,7 @@
         <v>1.91</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R47" t="n">
         <v>1.35</v>
@@ -6877,40 +6877,40 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="G48" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J48" t="n">
         <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L48" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M48" t="n">
         <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O48" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P48" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R48" t="n">
         <v>1.22</v>
@@ -6919,25 +6919,25 @@
         <v>4.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U48" t="n">
         <v>1.87</v>
       </c>
       <c r="V48" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="W48" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="X48" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA48" t="n">
         <v>65</v>
@@ -6949,10 +6949,10 @@
         <v>8.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF48" t="n">
         <v>20</v>
@@ -6961,10 +6961,10 @@
         <v>15.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="n">
         <v>55</v>
@@ -6982,7 +6982,7 @@
         <v>46</v>
       </c>
       <c r="AO48" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -7018,7 +7018,7 @@
         <v>2.66</v>
       </c>
       <c r="H49" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
         <v>5.3</v>
@@ -7036,7 +7036,7 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="O49" t="n">
         <v>1.31</v>
@@ -7150,7 +7150,7 @@
         <v>2.26</v>
       </c>
       <c r="G50" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="H50" t="n">
         <v>3.2</v>
@@ -7159,7 +7159,7 @@
         <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="n">
         <v>3.65</v>
@@ -7285,7 +7285,7 @@
         <v>3.3</v>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>2.38</v>
@@ -7294,7 +7294,7 @@
         <v>2.62</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K51" t="n">
         <v>3.3</v>
@@ -7417,43 +7417,43 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G52" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H52" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I52" t="n">
         <v>2.42</v>
       </c>
       <c r="J52" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K52" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N52" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O52" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P52" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R52" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S52" t="n">
         <v>4.5</v>
@@ -7462,16 +7462,16 @@
         <v>1.96</v>
       </c>
       <c r="U52" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V52" t="n">
         <v>1.7</v>
       </c>
       <c r="W52" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X52" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
         <v>8.199999999999999</v>
@@ -7483,46 +7483,46 @@
         <v>34</v>
       </c>
       <c r="AB52" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD52" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE52" t="n">
         <v>30</v>
       </c>
       <c r="AF52" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG52" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI52" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ52" t="n">
         <v>80</v>
       </c>
       <c r="AK52" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL52" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM52" t="n">
         <v>170</v>
       </c>
       <c r="AN52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO52" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -7570,10 +7570,10 @@
         <v>3.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
         <v>3</v>
@@ -7585,7 +7585,7 @@
         <v>1.66</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R53" t="n">
         <v>1.24</v>
@@ -7690,19 +7690,19 @@
         <v>2.04</v>
       </c>
       <c r="G54" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7711,85 +7711,85 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>1.65</v>
+        <v>2.62</v>
       </c>
       <c r="O54" t="n">
         <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R54" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S54" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U54" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W54" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X54" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G55" t="n">
         <v>3.3</v>
@@ -7831,13 +7831,13 @@
         <v>2.38</v>
       </c>
       <c r="I55" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L55" t="n">
         <v>1.38</v>
@@ -7846,13 +7846,13 @@
         <v>1.06</v>
       </c>
       <c r="N55" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O55" t="n">
         <v>1.28</v>
       </c>
       <c r="P55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q55" t="n">
         <v>1.84</v>
@@ -7870,13 +7870,13 @@
         <v>2.28</v>
       </c>
       <c r="V55" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W55" t="n">
         <v>1.44</v>
       </c>
       <c r="X55" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y55" t="n">
         <v>14</v>
@@ -7921,13 +7921,13 @@
         <v>44</v>
       </c>
       <c r="AM55" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="n">
         <v>30</v>
       </c>
       <c r="AO55" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K56" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -8008,7 +8008,7 @@
         <v>1.33</v>
       </c>
       <c r="W56" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X56" t="n">
         <v>10.5</v>
@@ -8017,31 +8017,31 @@
         <v>12</v>
       </c>
       <c r="Z56" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA56" t="n">
         <v>100</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF56" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG56" t="n">
         <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI56" t="n">
         <v>80</v>
@@ -8050,7 +8050,7 @@
         <v>36</v>
       </c>
       <c r="AK56" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="n">
         <v>60</v>
@@ -8062,7 +8062,7 @@
         <v>32</v>
       </c>
       <c r="AO56" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
@@ -8092,28 +8092,28 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G57" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H57" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
         <v>3.15</v>
@@ -8122,58 +8122,58 @@
         <v>1.42</v>
       </c>
       <c r="P57" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R57" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U57" t="n">
         <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W57" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y57" t="n">
         <v>13</v>
       </c>
-      <c r="Y57" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z57" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA57" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB57" t="n">
         <v>10.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AD57" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG57" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH57" t="n">
         <v>19</v>
@@ -8188,16 +8188,16 @@
         <v>30</v>
       </c>
       <c r="AL57" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
         <v>140</v>
       </c>
       <c r="AN57" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO57" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G58" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>4.5</v>
       </c>
       <c r="I58" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.4</v>
       </c>
       <c r="L58" t="n">
         <v>1.5</v>
@@ -8257,10 +8257,10 @@
         <v>1.45</v>
       </c>
       <c r="P58" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R58" t="n">
         <v>1.26</v>
@@ -8272,13 +8272,13 @@
         <v>2.04</v>
       </c>
       <c r="U58" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V58" t="n">
         <v>1.27</v>
       </c>
       <c r="W58" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X58" t="n">
         <v>10.5</v>
@@ -8296,13 +8296,13 @@
         <v>7.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD58" t="n">
         <v>18.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF58" t="n">
         <v>11</v>
@@ -8311,7 +8311,7 @@
         <v>11</v>
       </c>
       <c r="AH58" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI58" t="n">
         <v>80</v>
@@ -8326,10 +8326,10 @@
         <v>48</v>
       </c>
       <c r="AM58" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN58" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO58" t="n">
         <v>90</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G59" t="n">
         <v>2.52</v>
@@ -8395,7 +8395,7 @@
         <v>1.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R59" t="n">
         <v>1.23</v>
@@ -8404,10 +8404,10 @@
         <v>5</v>
       </c>
       <c r="T59" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U59" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V59" t="n">
         <v>1.31</v>
@@ -8500,19 +8500,19 @@
         <v>1.82</v>
       </c>
       <c r="G60" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I60" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K60" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8521,10 +8521,10 @@
         <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O60" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -8533,10 +8533,10 @@
         <v>1.83</v>
       </c>
       <c r="R60" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S60" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T60" t="n">
         <v>1.8</v>
@@ -8548,16 +8548,16 @@
         <v>1.24</v>
       </c>
       <c r="W60" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X60" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y60" t="n">
         <v>21</v>
       </c>
-      <c r="Y60" t="n">
-        <v>22</v>
-      </c>
       <c r="Z60" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA60" t="n">
         <v>140</v>
@@ -8566,13 +8566,13 @@
         <v>11.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD60" t="n">
         <v>23</v>
       </c>
       <c r="AE60" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF60" t="n">
         <v>14</v>
@@ -8584,7 +8584,7 @@
         <v>24</v>
       </c>
       <c r="AI60" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ60" t="n">
         <v>23</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G61" t="n">
         <v>1.92</v>
@@ -8641,7 +8641,7 @@
         <v>4.2</v>
       </c>
       <c r="I61" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
         <v>3.6</v>
@@ -8656,22 +8656,22 @@
         <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.23</v>
       </c>
       <c r="P61" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R61" t="n">
         <v>1.47</v>
       </c>
       <c r="S61" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="T61" t="n">
         <v>1.68</v>
@@ -8701,7 +8701,7 @@
         <v>13</v>
       </c>
       <c r="AC61" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD61" t="n">
         <v>22</v>
@@ -8710,7 +8710,7 @@
         <v>65</v>
       </c>
       <c r="AF61" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG61" t="n">
         <v>12.5</v>
@@ -8767,40 +8767,40 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H62" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I62" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J62" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K62" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M62" t="n">
         <v>1.12</v>
       </c>
       <c r="N62" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="O62" t="n">
         <v>1.51</v>
       </c>
       <c r="P62" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="R62" t="n">
         <v>1.22</v>
@@ -8815,28 +8815,28 @@
         <v>1.85</v>
       </c>
       <c r="V62" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W62" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X62" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y62" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z62" t="n">
         <v>26</v>
       </c>
       <c r="AA62" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB62" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC62" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD62" t="n">
         <v>17</v>
@@ -8845,10 +8845,10 @@
         <v>60</v>
       </c>
       <c r="AF62" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG62" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH62" t="n">
         <v>23</v>
@@ -8857,7 +8857,7 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AK62" t="n">
         <v>36</v>
@@ -8866,13 +8866,13 @@
         <v>60</v>
       </c>
       <c r="AM62" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN62" t="n">
         <v>36</v>
       </c>
       <c r="AO62" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G63" t="n">
         <v>4.2</v>
       </c>
       <c r="H63" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I63" t="n">
         <v>2.14</v>
       </c>
       <c r="J63" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K63" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L63" t="n">
         <v>1.01</v>
@@ -8944,7 +8944,7 @@
         <v>2.58</v>
       </c>
       <c r="T63" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U63" t="n">
         <v>1.04</v>
@@ -8953,7 +8953,7 @@
         <v>1.87</v>
       </c>
       <c r="W63" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X63" t="n">
         <v>1000</v>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G64" t="n">
         <v>2.04</v>
@@ -9046,10 +9046,10 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K64" t="n">
         <v>4.3</v>
@@ -9070,22 +9070,22 @@
         <v>2</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R64" t="n">
         <v>1.39</v>
       </c>
       <c r="S64" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="T64" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U64" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V64" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W64" t="n">
         <v>1.96</v>
@@ -9097,7 +9097,7 @@
         <v>21</v>
       </c>
       <c r="Z64" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA64" t="n">
         <v>110</v>
@@ -9115,7 +9115,7 @@
         <v>65</v>
       </c>
       <c r="AF64" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
         <v>12.5</v>
@@ -9124,16 +9124,16 @@
         <v>22</v>
       </c>
       <c r="AI64" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ64" t="n">
         <v>27</v>
       </c>
       <c r="AK64" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL64" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM64" t="n">
         <v>110</v>
@@ -9178,10 +9178,10 @@
         <v>2.12</v>
       </c>
       <c r="H65" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I65" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.75</v>
       </c>
       <c r="J65" t="n">
         <v>3.9</v>
@@ -9196,7 +9196,7 @@
         <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O65" t="n">
         <v>1.21</v>
@@ -9217,10 +9217,10 @@
         <v>1.6</v>
       </c>
       <c r="U65" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V65" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W65" t="n">
         <v>1.89</v>
@@ -9250,7 +9250,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG65" t="n">
         <v>11</v>
@@ -9328,10 +9328,10 @@
         <v>1.27</v>
       </c>
       <c r="M66" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O66" t="n">
         <v>1.27</v>
@@ -9340,13 +9340,13 @@
         <v>2.06</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="R66" t="n">
         <v>1.41</v>
       </c>
       <c r="S66" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T66" t="n">
         <v>2</v>
@@ -9379,7 +9379,7 @@
         <v>13.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE66" t="n">
         <v>180</v>
@@ -9472,10 +9472,10 @@
         <v>1.21</v>
       </c>
       <c r="P67" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R67" t="n">
         <v>1.59</v>
@@ -9484,10 +9484,10 @@
         <v>2.6</v>
       </c>
       <c r="T67" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U67" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V67" t="n">
         <v>1.25</v>
@@ -9529,7 +9529,7 @@
         <v>17</v>
       </c>
       <c r="AI67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ67" t="n">
         <v>18.5</v>
@@ -9541,10 +9541,10 @@
         <v>28</v>
       </c>
       <c r="AM67" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN67" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO67" t="n">
         <v>44</v>
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="F68" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G68" t="n">
         <v>1.75</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.76</v>
       </c>
       <c r="H68" t="n">
         <v>4.9</v>
@@ -9607,7 +9607,7 @@
         <v>1.18</v>
       </c>
       <c r="P68" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q68" t="n">
         <v>1.57</v>
@@ -9616,7 +9616,7 @@
         <v>1.69</v>
       </c>
       <c r="S68" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T68" t="n">
         <v>1.6</v>
@@ -9628,7 +9628,7 @@
         <v>1.25</v>
       </c>
       <c r="W68" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X68" t="n">
         <v>27</v>
@@ -9637,10 +9637,10 @@
         <v>26</v>
       </c>
       <c r="Z68" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA68" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB68" t="n">
         <v>13.5</v>
@@ -9661,7 +9661,7 @@
         <v>10.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI68" t="n">
         <v>48</v>
@@ -9679,7 +9679,7 @@
         <v>65</v>
       </c>
       <c r="AN68" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO68" t="n">
         <v>38</v>
@@ -9712,16 +9712,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G69" t="n">
         <v>2.06</v>
       </c>
       <c r="H69" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I69" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J69" t="n">
         <v>3.5</v>
@@ -9742,7 +9742,7 @@
         <v>1.41</v>
       </c>
       <c r="P69" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q69" t="n">
         <v>2.24</v>
@@ -9757,13 +9757,13 @@
         <v>2</v>
       </c>
       <c r="U69" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V69" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W69" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X69" t="n">
         <v>11.5</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="G70" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="H70" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="I70" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="J70" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K70" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L70" t="n">
         <v>1.32</v>
@@ -9871,88 +9871,88 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O70" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R70" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S70" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T70" t="n">
         <v>1.7</v>
       </c>
       <c r="U70" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V70" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W70" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y70" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z70" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA70" t="n">
         <v>55</v>
       </c>
       <c r="AB70" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC70" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD70" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE70" t="n">
         <v>36</v>
       </c>
       <c r="AF70" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG70" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH70" t="n">
         <v>17.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ70" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK70" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL70" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM70" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN70" t="n">
         <v>23</v>
       </c>
       <c r="AO70" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -9994,7 +9994,7 @@
         <v>2.5</v>
       </c>
       <c r="J71" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K71" t="n">
         <v>3.65</v>
@@ -10021,7 +10021,7 @@
         <v>1.38</v>
       </c>
       <c r="S71" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T71" t="n">
         <v>1.73</v>
@@ -10030,7 +10030,7 @@
         <v>2.22</v>
       </c>
       <c r="V71" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W71" t="n">
         <v>1.44</v>
@@ -10132,7 +10132,7 @@
         <v>3.65</v>
       </c>
       <c r="K72" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L72" t="n">
         <v>1.41</v>
@@ -10147,7 +10147,7 @@
         <v>1.32</v>
       </c>
       <c r="P72" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q72" t="n">
         <v>1.92</v>
@@ -10159,7 +10159,7 @@
         <v>3.4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U72" t="n">
         <v>2.06</v>
@@ -10255,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
         <v>2.74</v>
@@ -10264,40 +10264,40 @@
         <v>4.3</v>
       </c>
       <c r="J73" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K73" t="n">
         <v>7.4</v>
       </c>
       <c r="L73" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M73" t="n">
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="O73" t="n">
         <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="R73" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S73" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U73" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V73" t="n">
         <v>1.31</v>
@@ -10402,7 +10402,7 @@
         <v>4.1</v>
       </c>
       <c r="K74" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10453,10 +10453,10 @@
         <v>24</v>
       </c>
       <c r="AB74" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC74" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD74" t="n">
         <v>13</v>
@@ -10465,31 +10465,31 @@
         <v>21</v>
       </c>
       <c r="AF74" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AG74" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ74" t="n">
         <v>110</v>
       </c>
       <c r="AK74" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL74" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM74" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO74" t="n">
         <v>8</v>
@@ -10522,58 +10522,58 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H75" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I75" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J75" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K75" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O75" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="P75" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="R75" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="S75" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="T75" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="U75" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W75" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X75" t="n">
         <v>970</v>
@@ -10582,10 +10582,10 @@
         <v>970</v>
       </c>
       <c r="Z75" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA75" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB75" t="n">
         <v>970</v>
@@ -10597,7 +10597,7 @@
         <v>970</v>
       </c>
       <c r="AE75" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF75" t="n">
         <v>970</v>
@@ -10609,16 +10609,16 @@
         <v>970</v>
       </c>
       <c r="AI75" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ75" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK75" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL75" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM75" t="n">
         <v>1000</v>
@@ -10627,7 +10627,7 @@
         <v>970</v>
       </c>
       <c r="AO75" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76">
@@ -10663,7 +10663,7 @@
         <v>2.74</v>
       </c>
       <c r="H76" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="I76" t="n">
         <v>3.2</v>
@@ -10810,22 +10810,22 @@
         <v>5.6</v>
       </c>
       <c r="L77" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M77" t="n">
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="O77" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P77" t="n">
         <v>1.99</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R77" t="n">
         <v>1.37</v>
@@ -10837,7 +10837,7 @@
         <v>1.79</v>
       </c>
       <c r="U77" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V77" t="n">
         <v>2.26</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G78" t="n">
         <v>3.35</v>
@@ -10957,19 +10957,19 @@
         <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q78" t="n">
         <v>1.81</v>
       </c>
       <c r="R78" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S78" t="n">
         <v>3.05</v>
       </c>
       <c r="T78" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U78" t="n">
         <v>2.2</v>
@@ -10987,7 +10987,7 @@
         <v>13.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AA78" t="n">
         <v>40</v>
@@ -11005,7 +11005,7 @@
         <v>32</v>
       </c>
       <c r="AF78" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG78" t="n">
         <v>16</v>
@@ -11017,16 +11017,16 @@
         <v>44</v>
       </c>
       <c r="AJ78" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="n">
         <v>42</v>
       </c>
       <c r="AL78" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM78" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN78" t="n">
         <v>36</v>
@@ -11065,19 +11065,19 @@
         <v>1.94</v>
       </c>
       <c r="G79" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H79" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I79" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J79" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K79" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L79" t="n">
         <v>1.33</v>
@@ -11086,7 +11086,7 @@
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O79" t="n">
         <v>1.32</v>
@@ -11095,16 +11095,16 @@
         <v>1.87</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R79" t="n">
         <v>1.33</v>
       </c>
       <c r="S79" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T79" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U79" t="n">
         <v>2.02</v>
@@ -11113,7 +11113,7 @@
         <v>1.27</v>
       </c>
       <c r="W79" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X79" t="n">
         <v>970</v>
@@ -11155,7 +11155,7 @@
         <v>34</v>
       </c>
       <c r="AK79" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL79" t="n">
         <v>46</v>
@@ -11197,70 +11197,70 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I80" t="n">
         <v>4.6</v>
       </c>
       <c r="J80" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K80" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L80" t="n">
         <v>1.28</v>
       </c>
       <c r="M80" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N80" t="n">
         <v>4</v>
       </c>
       <c r="O80" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P80" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="R80" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S80" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="T80" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U80" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V80" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W80" t="n">
         <v>2</v>
       </c>
       <c r="X80" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y80" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z80" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA80" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB80" t="n">
         <v>970</v>
@@ -11281,10 +11281,10 @@
         <v>970</v>
       </c>
       <c r="AH80" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI80" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ80" t="n">
         <v>970</v>
@@ -11293,16 +11293,16 @@
         <v>970</v>
       </c>
       <c r="AL80" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM80" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN80" t="n">
         <v>970</v>
       </c>
       <c r="AO80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
@@ -11332,22 +11332,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G81" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I81" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J81" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K81" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L81" t="n">
         <v>1.36</v>
@@ -11356,13 +11356,13 @@
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O81" t="n">
         <v>1.01</v>
       </c>
       <c r="P81" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q81" t="n">
         <v>1.95</v>
@@ -11383,7 +11383,7 @@
         <v>1.69</v>
       </c>
       <c r="W81" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
@@ -11467,46 +11467,46 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="G82" t="n">
         <v>2.12</v>
       </c>
       <c r="H82" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I82" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J82" t="n">
         <v>3.2</v>
       </c>
       <c r="K82" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L82" t="n">
         <v>1.38</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O82" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P82" t="n">
         <v>1.68</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="R82" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S82" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T82" t="n">
         <v>1.92</v>
@@ -11524,13 +11524,13 @@
         <v>13.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA82" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB82" t="n">
         <v>9.199999999999999</v>
@@ -11545,7 +11545,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG82" t="n">
         <v>13</v>
@@ -11554,10 +11554,10 @@
         <v>26</v>
       </c>
       <c r="AI82" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ82" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK82" t="n">
         <v>30</v>
@@ -11569,10 +11569,10 @@
         <v>180</v>
       </c>
       <c r="AN82" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO82" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
@@ -11602,58 +11602,58 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="G83" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="H83" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="I83" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J83" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K83" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="L83" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M83" t="n">
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.29</v>
+        <v>2.42</v>
       </c>
       <c r="O83" t="n">
         <v>1.01</v>
       </c>
       <c r="P83" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.02</v>
+        <v>1.92</v>
       </c>
       <c r="R83" t="n">
         <v>1.18</v>
       </c>
       <c r="S83" t="n">
-        <v>1.43</v>
+        <v>2.68</v>
       </c>
       <c r="T83" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U83" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V83" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W83" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11737,46 +11737,46 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="G84" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I84" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J84" t="n">
-        <v>1.02</v>
+        <v>2.48</v>
       </c>
       <c r="K84" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L84" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M84" t="n">
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>1.29</v>
+        <v>1.99</v>
       </c>
       <c r="O84" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P84" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="R84" t="n">
         <v>1.18</v>
       </c>
       <c r="S84" t="n">
-        <v>1.05</v>
+        <v>2.84</v>
       </c>
       <c r="T84" t="n">
         <v>1.04</v>
@@ -11785,10 +11785,10 @@
         <v>1.04</v>
       </c>
       <c r="V84" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="W84" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X84" t="n">
         <v>1000</v>
@@ -11872,16 +11872,16 @@
         </is>
       </c>
       <c r="F85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G85" t="n">
         <v>1.72</v>
       </c>
-      <c r="G85" t="n">
-        <v>1.73</v>
-      </c>
       <c r="H85" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I85" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J85" t="n">
         <v>4.1</v>
@@ -11905,7 +11905,7 @@
         <v>2.08</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R85" t="n">
         <v>1.41</v>
@@ -11920,10 +11920,10 @@
         <v>2.06</v>
       </c>
       <c r="V85" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W85" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X85" t="n">
         <v>15.5</v>
@@ -11932,7 +11932,7 @@
         <v>19.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA85" t="n">
         <v>140</v>
@@ -11977,7 +11977,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO85" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G86" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H86" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I86" t="n">
         <v>4.9</v>
       </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
       <c r="J86" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K86" t="n">
         <v>4.4</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4.5</v>
       </c>
       <c r="L86" t="n">
         <v>1.28</v>
@@ -12031,61 +12031,61 @@
         <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O86" t="n">
         <v>1.19</v>
       </c>
       <c r="P86" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R86" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S86" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T86" t="n">
         <v>1.61</v>
       </c>
       <c r="U86" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="V86" t="n">
         <v>1.25</v>
       </c>
       <c r="W86" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="X86" t="n">
         <v>25</v>
       </c>
       <c r="Y86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z86" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA86" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB86" t="n">
         <v>13</v>
       </c>
       <c r="AC86" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE86" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF86" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG86" t="n">
         <v>9.800000000000001</v>
@@ -12103,16 +12103,16 @@
         <v>15</v>
       </c>
       <c r="AL86" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM86" t="n">
         <v>65</v>
       </c>
       <c r="AN86" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AO86" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="G87" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H87" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J87" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K87" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
         <v>1.35</v>
@@ -12169,13 +12169,13 @@
         <v>3.9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P87" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R87" t="n">
         <v>1.37</v>
@@ -12187,13 +12187,13 @@
         <v>2.08</v>
       </c>
       <c r="U87" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V87" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W87" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="X87" t="n">
         <v>21</v>
@@ -12202,22 +12202,22 @@
         <v>34</v>
       </c>
       <c r="Z87" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA87" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="AB87" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC87" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD87" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE87" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF87" t="n">
         <v>9.800000000000001</v>
@@ -12226,28 +12226,28 @@
         <v>12.5</v>
       </c>
       <c r="AH87" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AI87" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK87" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL87" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM87" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN87" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO87" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88">
@@ -12277,16 +12277,16 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G88" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H88" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I88" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J88" t="n">
         <v>3.35</v>
@@ -12313,16 +12313,16 @@
         <v>2.04</v>
       </c>
       <c r="R88" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S88" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T88" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U88" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V88" t="n">
         <v>1.17</v>
@@ -12337,7 +12337,7 @@
         <v>970</v>
       </c>
       <c r="Z88" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA88" t="n">
         <v>1000</v>
@@ -12349,10 +12349,10 @@
         <v>970</v>
       </c>
       <c r="AD88" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE88" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF88" t="n">
         <v>970</v>
@@ -12361,7 +12361,7 @@
         <v>970</v>
       </c>
       <c r="AH88" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI88" t="n">
         <v>1000</v>
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G89" t="n">
         <v>2.64</v>
@@ -12421,7 +12421,7 @@
         <v>3.45</v>
       </c>
       <c r="I89" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J89" t="n">
         <v>2.9</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J90" t="n">
         <v>3.05</v>
       </c>
-      <c r="G90" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3</v>
-      </c>
       <c r="K90" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L90" t="n">
         <v>1.31</v>
@@ -12571,31 +12571,31 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="O90" t="n">
         <v>1.01</v>
       </c>
       <c r="P90" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="R90" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S90" t="n">
         <v>2.86</v>
       </c>
       <c r="T90" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="W90" t="n">
         <v>1.29</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G91" t="n">
         <v>2.16</v>
@@ -12697,7 +12697,7 @@
         <v>3.4</v>
       </c>
       <c r="K91" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L91" t="n">
         <v>1.37</v>
@@ -12709,13 +12709,13 @@
         <v>3.1</v>
       </c>
       <c r="O91" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P91" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R91" t="n">
         <v>1.28</v>
@@ -12730,13 +12730,13 @@
         <v>1.9</v>
       </c>
       <c r="V91" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W91" t="n">
         <v>1.86</v>
       </c>
       <c r="X91" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y91" t="n">
         <v>20</v>
@@ -12745,7 +12745,7 @@
         <v>30</v>
       </c>
       <c r="AA91" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB91" t="n">
         <v>8.6</v>
@@ -12772,7 +12772,7 @@
         <v>90</v>
       </c>
       <c r="AJ91" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK91" t="n">
         <v>26</v>
@@ -12823,37 +12823,37 @@
         <v>6.4</v>
       </c>
       <c r="H92" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I92" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="J92" t="n">
         <v>3.25</v>
       </c>
       <c r="K92" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L92" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M92" t="n">
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="O92" t="n">
         <v>1.04</v>
       </c>
       <c r="P92" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q92" t="n">
         <v>1.94</v>
       </c>
       <c r="R92" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S92" t="n">
         <v>3.4</v>
@@ -12865,10 +12865,10 @@
         <v>1.04</v>
       </c>
       <c r="V92" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="W92" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X92" t="n">
         <v>1000</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G93" t="n">
         <v>2.58</v>
@@ -12970,7 +12970,7 @@
         <v>3.2</v>
       </c>
       <c r="L93" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M93" t="n">
         <v>1.11</v>
@@ -12982,7 +12982,7 @@
         <v>1.49</v>
       </c>
       <c r="P93" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q93" t="n">
         <v>2.46</v>
@@ -12994,13 +12994,13 @@
         <v>4.9</v>
       </c>
       <c r="T93" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U93" t="n">
         <v>1.9</v>
       </c>
       <c r="V93" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W93" t="n">
         <v>1.64</v>
@@ -13009,7 +13009,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y93" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z93" t="n">
         <v>21</v>
@@ -13024,10 +13024,10 @@
         <v>7</v>
       </c>
       <c r="AD93" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE93" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF93" t="n">
         <v>14.5</v>
@@ -13057,7 +13057,7 @@
         <v>34</v>
       </c>
       <c r="AO93" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
@@ -13087,22 +13087,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="G94" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H94" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I94" t="n">
         <v>4.1</v>
       </c>
       <c r="J94" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K94" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L94" t="n">
         <v>1.5</v>
@@ -13111,16 +13111,16 @@
         <v>1.1</v>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="O94" t="n">
         <v>1.45</v>
       </c>
       <c r="P94" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R94" t="n">
         <v>1.25</v>
@@ -13132,22 +13132,22 @@
         <v>1.96</v>
       </c>
       <c r="U94" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V94" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W94" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y94" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA94" t="n">
         <v>100</v>
@@ -13156,22 +13156,22 @@
         <v>8.4</v>
       </c>
       <c r="AC94" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD94" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE94" t="n">
         <v>60</v>
       </c>
       <c r="AF94" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG94" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI94" t="n">
         <v>75</v>
@@ -13180,19 +13180,19 @@
         <v>34</v>
       </c>
       <c r="AK94" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL94" t="n">
         <v>55</v>
       </c>
       <c r="AM94" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN94" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO94" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
@@ -13222,22 +13222,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G95" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H95" t="n">
         <v>5.4</v>
       </c>
       <c r="I95" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J95" t="n">
         <v>4</v>
       </c>
       <c r="K95" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L95" t="n">
         <v>1.38</v>
@@ -13255,7 +13255,7 @@
         <v>1.98</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R95" t="n">
         <v>1.38</v>
@@ -13264,40 +13264,40 @@
         <v>3.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U95" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V95" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W95" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X95" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z95" t="n">
         <v>46</v>
       </c>
       <c r="AA95" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB95" t="n">
         <v>8.6</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD95" t="n">
         <v>22</v>
       </c>
       <c r="AE95" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF95" t="n">
         <v>10.5</v>
@@ -13306,16 +13306,16 @@
         <v>10.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI95" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ95" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK95" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL95" t="n">
         <v>38</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G96" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="H96" t="n">
         <v>3.35</v>
       </c>
       <c r="I96" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K96" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K96" t="n">
-        <v>3.4</v>
       </c>
       <c r="L96" t="n">
         <v>1.48</v>
@@ -13384,19 +13384,19 @@
         <v>3.25</v>
       </c>
       <c r="O96" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P96" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R96" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S96" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T96" t="n">
         <v>1.87</v>
@@ -13408,10 +13408,10 @@
         <v>1.4</v>
       </c>
       <c r="W96" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y96" t="n">
         <v>11.5</v>
@@ -13462,7 +13462,7 @@
         <v>25</v>
       </c>
       <c r="AO96" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97">
@@ -13492,10 +13492,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G97" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="H97" t="n">
         <v>4.7</v>
@@ -13507,7 +13507,7 @@
         <v>3.7</v>
       </c>
       <c r="K97" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L97" t="n">
         <v>1.25</v>
@@ -13516,25 +13516,25 @@
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O97" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S97" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="T97" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U97" t="n">
         <v>2.22</v>
@@ -13543,7 +13543,7 @@
         <v>1.18</v>
       </c>
       <c r="W97" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="X97" t="n">
         <v>29</v>
@@ -13579,7 +13579,7 @@
         <v>22</v>
       </c>
       <c r="AI97" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ97" t="n">
         <v>22</v>
@@ -13594,10 +13594,10 @@
         <v>90</v>
       </c>
       <c r="AN97" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO97" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G98" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H98" t="n">
         <v>1.96</v>
@@ -13657,7 +13657,7 @@
         <v>1.16</v>
       </c>
       <c r="P98" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q98" t="n">
         <v>1.5</v>
@@ -13678,7 +13678,7 @@
         <v>2</v>
       </c>
       <c r="W98" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X98" t="n">
         <v>36</v>
@@ -13732,7 +13732,7 @@
         <v>24</v>
       </c>
       <c r="AO98" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -13774,7 +13774,7 @@
         <v>2.34</v>
       </c>
       <c r="J99" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K99" t="n">
         <v>3.2</v>
@@ -13786,40 +13786,40 @@
         <v>1.13</v>
       </c>
       <c r="N99" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O99" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="P99" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="R99" t="n">
         <v>1.19</v>
       </c>
       <c r="S99" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T99" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V99" t="n">
         <v>1.76</v>
-      </c>
-      <c r="V99" t="n">
-        <v>1.74</v>
       </c>
       <c r="W99" t="n">
         <v>1.32</v>
       </c>
       <c r="X99" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="Y99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z99" t="n">
         <v>14</v>
@@ -13828,7 +13828,7 @@
         <v>36</v>
       </c>
       <c r="AB99" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC99" t="n">
         <v>7.2</v>
@@ -13837,25 +13837,25 @@
         <v>12.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF99" t="n">
         <v>29</v>
       </c>
       <c r="AG99" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH99" t="n">
         <v>25</v>
       </c>
       <c r="AI99" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ99" t="n">
         <v>120</v>
       </c>
       <c r="AK99" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL99" t="n">
         <v>120</v>
@@ -13897,61 +13897,61 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G100" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H100" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I100" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J100" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K100" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L100" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M100" t="n">
         <v>1.1</v>
       </c>
       <c r="N100" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O100" t="n">
         <v>1.45</v>
       </c>
       <c r="P100" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R100" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S100" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T100" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U100" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="V100" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W100" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X100" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y100" t="n">
         <v>12.5</v>
@@ -13960,7 +13960,7 @@
         <v>29</v>
       </c>
       <c r="AA100" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB100" t="n">
         <v>7.6</v>
@@ -13972,7 +13972,7 @@
         <v>970</v>
       </c>
       <c r="AE100" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF100" t="n">
         <v>970</v>
@@ -13981,28 +13981,28 @@
         <v>970</v>
       </c>
       <c r="AH100" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI100" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ100" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK100" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL100" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM100" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN100" t="n">
         <v>970</v>
       </c>
       <c r="AO100" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -14032,16 +14032,16 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G101" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H101" t="n">
         <v>3.55</v>
       </c>
       <c r="I101" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J101" t="n">
         <v>3.6</v>
@@ -14056,7 +14056,7 @@
         <v>1.05</v>
       </c>
       <c r="N101" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O101" t="n">
         <v>1.26</v>
@@ -14068,7 +14068,7 @@
         <v>1.76</v>
       </c>
       <c r="R101" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S101" t="n">
         <v>2.92</v>
@@ -14080,10 +14080,10 @@
         <v>2.2</v>
       </c>
       <c r="V101" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W101" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X101" t="n">
         <v>21</v>
@@ -14167,16 +14167,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G102" t="n">
         <v>2.06</v>
       </c>
       <c r="H102" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I102" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J102" t="n">
         <v>3.5</v>
@@ -14191,7 +14191,7 @@
         <v>1.06</v>
       </c>
       <c r="N102" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O102" t="n">
         <v>1.29</v>
@@ -14209,7 +14209,7 @@
         <v>3.25</v>
       </c>
       <c r="T102" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U102" t="n">
         <v>2.12</v>
@@ -14302,13 +14302,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H103" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I103" t="n">
         <v>4.6</v>
@@ -14350,16 +14350,16 @@
         <v>2.28</v>
       </c>
       <c r="V103" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W103" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X103" t="n">
         <v>18.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z103" t="n">
         <v>36</v>
@@ -14440,19 +14440,19 @@
         <v>1.57</v>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I104" t="n">
         <v>8</v>
       </c>
       <c r="J104" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L104" t="n">
         <v>1.01</v>
@@ -14467,10 +14467,10 @@
         <v>1.28</v>
       </c>
       <c r="P104" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R104" t="n">
         <v>1.33</v>
@@ -14485,16 +14485,16 @@
         <v>1.01</v>
       </c>
       <c r="V104" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W104" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="X104" t="n">
         <v>25</v>
       </c>
       <c r="Y104" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z104" t="n">
         <v>75</v>
@@ -14539,7 +14539,7 @@
         <v>1000</v>
       </c>
       <c r="AN104" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO104" t="n">
         <v>1000</v>
@@ -14614,7 +14614,7 @@
         <v>3.85</v>
       </c>
       <c r="T105" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U105" t="n">
         <v>1.98</v>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G106" t="n">
         <v>2.44</v>
@@ -14725,13 +14725,13 @@
         <v>3.45</v>
       </c>
       <c r="L106" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M106" t="n">
         <v>1.1</v>
       </c>
       <c r="N106" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O106" t="n">
         <v>1.43</v>
@@ -14749,7 +14749,7 @@
         <v>4.2</v>
       </c>
       <c r="T106" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U106" t="n">
         <v>1.91</v>
@@ -14842,109 +14842,109 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="G107" t="n">
-        <v>1000</v>
+        <v>1.34</v>
       </c>
       <c r="H107" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I107" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J107" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="K107" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="L107" t="n">
         <v>1.01</v>
       </c>
       <c r="M107" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N107" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="O107" t="n">
         <v>1.21</v>
       </c>
       <c r="P107" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R107" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S107" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="T107" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="U107" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V107" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W107" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="X107" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y107" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z107" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA107" t="n">
         <v>1000</v>
       </c>
       <c r="AB107" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC107" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD107" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE107" t="n">
         <v>1000</v>
       </c>
       <c r="AF107" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG107" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH107" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI107" t="n">
         <v>1000</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL107" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM107" t="n">
         <v>1000</v>
       </c>
       <c r="AN107" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO107" t="n">
         <v>1000</v>
@@ -14977,22 +14977,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G108" t="n">
         <v>2.84</v>
       </c>
       <c r="H108" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I108" t="n">
         <v>3.05</v>
       </c>
       <c r="J108" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K108" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L108" t="n">
         <v>1.36</v>
@@ -15001,28 +15001,28 @@
         <v>1.07</v>
       </c>
       <c r="N108" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O108" t="n">
         <v>1.35</v>
       </c>
       <c r="P108" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q108" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R108" t="n">
         <v>1.31</v>
       </c>
       <c r="S108" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T108" t="n">
         <v>1.77</v>
       </c>
       <c r="U108" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V108" t="n">
         <v>1.48</v>
@@ -15040,7 +15040,7 @@
         <v>24</v>
       </c>
       <c r="AA108" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB108" t="n">
         <v>13</v>
@@ -15049,10 +15049,10 @@
         <v>9.4</v>
       </c>
       <c r="AD108" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE108" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF108" t="n">
         <v>22</v>
@@ -15061,7 +15061,7 @@
         <v>15</v>
       </c>
       <c r="AH108" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI108" t="n">
         <v>60</v>
@@ -15112,10 +15112,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G109" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>4.4</v>
@@ -15124,7 +15124,7 @@
         <v>4.9</v>
       </c>
       <c r="J109" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K109" t="n">
         <v>3.8</v>
@@ -15142,7 +15142,7 @@
         <v>1.34</v>
       </c>
       <c r="P109" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q109" t="n">
         <v>2.02</v>
@@ -15154,19 +15154,19 @@
         <v>3.6</v>
       </c>
       <c r="T109" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U109" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V109" t="n">
         <v>1.25</v>
       </c>
       <c r="W109" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X109" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y109" t="n">
         <v>18.5</v>
@@ -15196,7 +15196,7 @@
         <v>11</v>
       </c>
       <c r="AH109" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI109" t="n">
         <v>75</v>
@@ -15274,7 +15274,7 @@
         <v>1.64</v>
       </c>
       <c r="O110" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P110" t="n">
         <v>1.48</v>
@@ -15388,7 +15388,7 @@
         <v>3.1</v>
       </c>
       <c r="H111" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I111" t="n">
         <v>4.1</v>
@@ -15397,7 +15397,7 @@
         <v>2.72</v>
       </c>
       <c r="K111" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L111" t="n">
         <v>1.4</v>
@@ -15409,10 +15409,10 @@
         <v>2.42</v>
       </c>
       <c r="O111" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P111" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Q111" t="n">
         <v>2.08</v>
@@ -15421,7 +15421,7 @@
         <v>1.18</v>
       </c>
       <c r="S111" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T111" t="n">
         <v>1.04</v>
@@ -15517,37 +15517,37 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G112" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H112" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I112" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J112" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K112" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L112" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M112" t="n">
         <v>1.1</v>
       </c>
       <c r="N112" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O112" t="n">
         <v>1.47</v>
       </c>
       <c r="P112" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q112" t="n">
         <v>2.34</v>
@@ -15559,16 +15559,16 @@
         <v>4.2</v>
       </c>
       <c r="T112" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U112" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V112" t="n">
         <v>1.27</v>
       </c>
       <c r="W112" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X112" t="n">
         <v>10.5</v>
@@ -15601,7 +15601,7 @@
         <v>12</v>
       </c>
       <c r="AH112" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI112" t="n">
         <v>110</v>
@@ -15616,7 +15616,7 @@
         <v>65</v>
       </c>
       <c r="AM112" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN112" t="n">
         <v>29</v>
@@ -15658,7 +15658,7 @@
         <v>10.5</v>
       </c>
       <c r="H113" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="I113" t="n">
         <v>1.37</v>
@@ -15685,7 +15685,7 @@
         <v>2.6</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R113" t="n">
         <v>1.64</v>
@@ -15739,7 +15739,7 @@
         <v>32</v>
       </c>
       <c r="AI113" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ113" t="n">
         <v>360</v>
@@ -15754,10 +15754,10 @@
         <v>150</v>
       </c>
       <c r="AN113" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AO113" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="114">
@@ -15787,22 +15787,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G114" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I114" t="n">
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K114" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
@@ -15829,19 +15829,19 @@
         <v>2.58</v>
       </c>
       <c r="T114" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U114" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V114" t="n">
         <v>1.33</v>
       </c>
       <c r="W114" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X114" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y114" t="n">
         <v>21</v>
@@ -15850,46 +15850,46 @@
         <v>32</v>
       </c>
       <c r="AA114" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB114" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC114" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD114" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE114" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF114" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH114" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI114" t="n">
         <v>48</v>
       </c>
       <c r="AJ114" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK114" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AL114" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM114" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN114" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO114" t="n">
         <v>32</v>
@@ -15961,10 +15961,10 @@
         <v>1.67</v>
       </c>
       <c r="S115" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T115" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U115" t="n">
         <v>2.32</v>
@@ -16057,10 +16057,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G116" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="H116" t="n">
         <v>4.7</v>
@@ -16105,10 +16105,10 @@
         <v>2.12</v>
       </c>
       <c r="V116" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W116" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X116" t="n">
         <v>22</v>
@@ -16192,10 +16192,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="H117" t="n">
         <v>3.25</v>
@@ -16210,10 +16210,10 @@
         <v>4.1</v>
       </c>
       <c r="L117" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M117" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N117" t="n">
         <v>3.5</v>
@@ -16225,10 +16225,10 @@
         <v>2.1</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R117" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S117" t="n">
         <v>2.68</v>
@@ -16243,7 +16243,7 @@
         <v>1.32</v>
       </c>
       <c r="W117" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="X117" t="n">
         <v>20</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G118" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H118" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I118" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J118" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K118" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L118" t="n">
         <v>1.52</v>
@@ -16366,7 +16366,7 @@
         <v>1.24</v>
       </c>
       <c r="S118" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T118" t="n">
         <v>2.08</v>
@@ -16375,10 +16375,10 @@
         <v>1.87</v>
       </c>
       <c r="V118" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W118" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X118" t="n">
         <v>9.800000000000001</v>
@@ -16501,7 +16501,7 @@
         <v>1.48</v>
       </c>
       <c r="S119" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="T119" t="n">
         <v>2.02</v>
@@ -16597,31 +16597,31 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G120" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H120" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I120" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="J120" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K120" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L120" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M120" t="n">
         <v>1.04</v>
       </c>
       <c r="N120" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="O120" t="n">
         <v>1.05</v>
@@ -16630,7 +16630,7 @@
         <v>1.25</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R120" t="n">
         <v>1.24</v>
@@ -16645,7 +16645,7 @@
         <v>1.02</v>
       </c>
       <c r="V120" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W120" t="n">
         <v>1.2</v>
@@ -16732,22 +16732,22 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="H121" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I121" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J121" t="n">
         <v>4.2</v>
       </c>
       <c r="K121" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L121" t="n">
         <v>1.01</v>
@@ -16759,55 +16759,55 @@
         <v>4.3</v>
       </c>
       <c r="O121" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P121" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R121" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S121" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="T121" t="n">
         <v>1.75</v>
       </c>
       <c r="U121" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V121" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W121" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="X121" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y121" t="n">
         <v>26</v>
       </c>
-      <c r="Y121" t="n">
-        <v>28</v>
-      </c>
       <c r="Z121" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA121" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB121" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD121" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE121" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF121" t="n">
         <v>13</v>
@@ -16834,10 +16834,10 @@
         <v>120</v>
       </c>
       <c r="AN121" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO121" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122">
@@ -17002,16 +17002,16 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G123" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H123" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J123" t="n">
         <v>3.65</v>
@@ -17026,16 +17026,16 @@
         <v>1.09</v>
       </c>
       <c r="N123" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O123" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P123" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R123" t="n">
         <v>1.31</v>
@@ -17044,28 +17044,28 @@
         <v>4</v>
       </c>
       <c r="T123" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="U123" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V123" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W123" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X123" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y123" t="n">
         <v>8.4</v>
       </c>
       <c r="Z123" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA123" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB123" t="n">
         <v>13.5</v>
@@ -17077,37 +17077,37 @@
         <v>10.5</v>
       </c>
       <c r="AE123" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF123" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG123" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH123" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI123" t="n">
         <v>42</v>
       </c>
       <c r="AJ123" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK123" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL123" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM123" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN123" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO123" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="124">
@@ -17164,25 +17164,25 @@
         <v>6</v>
       </c>
       <c r="O124" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P124" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R124" t="n">
         <v>1.66</v>
       </c>
       <c r="S124" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T124" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U124" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V124" t="n">
         <v>1.21</v>
@@ -17209,7 +17209,7 @@
         <v>11</v>
       </c>
       <c r="AD124" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE124" t="n">
         <v>65</v>
@@ -17272,7 +17272,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="G125" t="n">
         <v>1.48</v>
@@ -17281,10 +17281,10 @@
         <v>6.8</v>
       </c>
       <c r="I125" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J125" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="K125" t="n">
         <v>6.6</v>
@@ -17299,19 +17299,19 @@
         <v>7.6</v>
       </c>
       <c r="O125" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P125" t="n">
         <v>3.35</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R125" t="n">
         <v>1.96</v>
       </c>
       <c r="S125" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T125" t="n">
         <v>1.56</v>
@@ -17320,7 +17320,7 @@
         <v>2.42</v>
       </c>
       <c r="V125" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W125" t="n">
         <v>3.05</v>
@@ -17332,7 +17332,7 @@
         <v>46</v>
       </c>
       <c r="Z125" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AA125" t="n">
         <v>220</v>
@@ -17341,37 +17341,37 @@
         <v>21</v>
       </c>
       <c r="AC125" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AD125" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AE125" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF125" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH125" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI125" t="n">
         <v>65</v>
       </c>
       <c r="AJ125" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AK125" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AL125" t="n">
         <v>29</v>
       </c>
       <c r="AM125" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN125" t="n">
         <v>4.7</v>
@@ -17410,16 +17410,16 @@
         <v>1.16</v>
       </c>
       <c r="G126" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H126" t="n">
         <v>16</v>
       </c>
       <c r="I126" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J126" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="K126" t="n">
         <v>10.5</v>
@@ -17431,25 +17431,25 @@
         <v>1.02</v>
       </c>
       <c r="N126" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O126" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P126" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R126" t="n">
         <v>1.74</v>
       </c>
       <c r="S126" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T126" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U126" t="n">
         <v>1.63</v>
@@ -17458,10 +17458,10 @@
         <v>1.04</v>
       </c>
       <c r="W126" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="X126" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y126" t="n">
         <v>80</v>
@@ -17497,7 +17497,7 @@
         <v>1000</v>
       </c>
       <c r="AJ126" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK126" t="n">
         <v>970</v>
@@ -17509,7 +17509,7 @@
         <v>1000</v>
       </c>
       <c r="AN126" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AO126" t="n">
         <v>1000</v>
@@ -17551,13 +17551,13 @@
         <v>14.5</v>
       </c>
       <c r="I127" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J127" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K127" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L127" t="n">
         <v>1.17</v>
@@ -17578,22 +17578,22 @@
         <v>1.28</v>
       </c>
       <c r="R127" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="S127" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T127" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U127" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V127" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W127" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X127" t="n">
         <v>65</v>
@@ -17608,7 +17608,7 @@
         <v>540</v>
       </c>
       <c r="AB127" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC127" t="n">
         <v>22</v>
@@ -17623,16 +17623,16 @@
         <v>12.5</v>
       </c>
       <c r="AG127" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI127" t="n">
         <v>110</v>
       </c>
       <c r="AJ127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK127" t="n">
         <v>12</v>
@@ -17689,7 +17689,7 @@
         <v>4.9</v>
       </c>
       <c r="J128" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K128" t="n">
         <v>4.3</v>
@@ -17710,7 +17710,7 @@
         <v>2.1</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R128" t="n">
         <v>1.42</v>
@@ -17764,13 +17764,13 @@
         <v>20</v>
       </c>
       <c r="AI128" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ128" t="n">
         <v>22</v>
       </c>
       <c r="AK128" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL128" t="n">
         <v>34</v>
@@ -17779,7 +17779,7 @@
         <v>120</v>
       </c>
       <c r="AN128" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO128" t="n">
         <v>60</v>
@@ -17812,13 +17812,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G129" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H129" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I129" t="n">
         <v>8.199999999999999</v>
@@ -17827,7 +17827,7 @@
         <v>4.9</v>
       </c>
       <c r="K129" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L129" t="n">
         <v>1.26</v>
@@ -17845,13 +17845,13 @@
         <v>2.58</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R129" t="n">
         <v>1.64</v>
       </c>
       <c r="S129" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T129" t="n">
         <v>1.78</v>
@@ -17860,7 +17860,7 @@
         <v>2.12</v>
       </c>
       <c r="V129" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W129" t="n">
         <v>3</v>
@@ -17971,7 +17971,7 @@
         <v>1.02</v>
       </c>
       <c r="N130" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O130" t="n">
         <v>1.12</v>
@@ -17986,7 +17986,7 @@
         <v>1.95</v>
       </c>
       <c r="S130" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T130" t="n">
         <v>1.81</v>
@@ -18043,16 +18043,16 @@
         <v>160</v>
       </c>
       <c r="AL130" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM130" t="n">
         <v>110</v>
       </c>
       <c r="AN130" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO130" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="131">
@@ -18082,10 +18082,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G131" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H131" t="n">
         <v>3.7</v>
@@ -18094,10 +18094,10 @@
         <v>4.2</v>
       </c>
       <c r="J131" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K131" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L131" t="n">
         <v>1.45</v>
@@ -18112,7 +18112,7 @@
         <v>1.37</v>
       </c>
       <c r="P131" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q131" t="n">
         <v>2.1</v>
@@ -18124,10 +18124,10 @@
         <v>3.85</v>
       </c>
       <c r="T131" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U131" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V131" t="n">
         <v>1.31</v>
@@ -18142,7 +18142,7 @@
         <v>16</v>
       </c>
       <c r="Z131" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA131" t="n">
         <v>110</v>
@@ -18151,13 +18151,13 @@
         <v>10.5</v>
       </c>
       <c r="AC131" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD131" t="n">
         <v>20</v>
       </c>
       <c r="AE131" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF131" t="n">
         <v>16</v>
@@ -18172,7 +18172,7 @@
         <v>70</v>
       </c>
       <c r="AJ131" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK131" t="n">
         <v>32</v>
@@ -18187,7 +18187,7 @@
         <v>25</v>
       </c>
       <c r="AO131" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132">
@@ -18223,7 +18223,7 @@
         <v>3.2</v>
       </c>
       <c r="H132" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="I132" t="n">
         <v>3.05</v>
@@ -18232,7 +18232,7 @@
         <v>3.25</v>
       </c>
       <c r="K132" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L132" t="n">
         <v>1.01</v>
@@ -18241,16 +18241,16 @@
         <v>1.03</v>
       </c>
       <c r="N132" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O132" t="n">
         <v>1.2</v>
       </c>
       <c r="P132" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R132" t="n">
         <v>1.47</v>
@@ -18352,19 +18352,19 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G133" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H133" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I133" t="n">
         <v>2.8</v>
       </c>
       <c r="J133" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K133" t="n">
         <v>3.5</v>
@@ -18376,7 +18376,7 @@
         <v>1.08</v>
       </c>
       <c r="N133" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O133" t="n">
         <v>1.38</v>
@@ -18388,7 +18388,7 @@
         <v>2.16</v>
       </c>
       <c r="R133" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S133" t="n">
         <v>3.85</v>
@@ -18403,7 +18403,7 @@
         <v>1.55</v>
       </c>
       <c r="W133" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X133" t="n">
         <v>15</v>
@@ -18433,7 +18433,7 @@
         <v>23</v>
       </c>
       <c r="AG133" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH133" t="n">
         <v>22</v>
@@ -18490,10 +18490,10 @@
         <v>2.02</v>
       </c>
       <c r="G134" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I134" t="n">
         <v>4.7</v>
@@ -18502,7 +18502,7 @@
         <v>3.25</v>
       </c>
       <c r="K134" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L134" t="n">
         <v>1.41</v>
@@ -18517,7 +18517,7 @@
         <v>1.42</v>
       </c>
       <c r="P134" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q134" t="n">
         <v>2.22</v>
@@ -18538,7 +18538,7 @@
         <v>1.27</v>
       </c>
       <c r="W134" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X134" t="n">
         <v>11.5</v>
@@ -18565,7 +18565,7 @@
         <v>75</v>
       </c>
       <c r="AF134" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG134" t="n">
         <v>13.5</v>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G135" t="n">
         <v>1.87</v>
@@ -18667,7 +18667,7 @@
         <v>1.89</v>
       </c>
       <c r="U135" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V135" t="n">
         <v>1.23</v>
@@ -18676,7 +18676,7 @@
         <v>2.14</v>
       </c>
       <c r="X135" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y135" t="n">
         <v>21</v>
@@ -18688,7 +18688,7 @@
         <v>160</v>
       </c>
       <c r="AB135" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC135" t="n">
         <v>10.5</v>
@@ -18703,10 +18703,10 @@
         <v>13.5</v>
       </c>
       <c r="AG135" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI135" t="n">
         <v>95</v>
@@ -18766,7 +18766,7 @@
         <v>25</v>
       </c>
       <c r="I136" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J136" t="n">
         <v>13</v>
@@ -18784,7 +18784,7 @@
         <v>13.5</v>
       </c>
       <c r="O136" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P136" t="n">
         <v>5.2</v>
@@ -18796,43 +18796,43 @@
         <v>2.64</v>
       </c>
       <c r="S136" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="T136" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U136" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V136" t="n">
         <v>1.03</v>
       </c>
       <c r="W136" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="X136" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y136" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Z136" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AA136" t="n">
         <v>1000</v>
       </c>
       <c r="AB136" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC136" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD136" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE136" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AF136" t="n">
         <v>14</v>
@@ -18841,13 +18841,13 @@
         <v>17.5</v>
       </c>
       <c r="AH136" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AI136" t="n">
         <v>210</v>
       </c>
       <c r="AJ136" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AK136" t="n">
         <v>14</v>
@@ -18859,7 +18859,7 @@
         <v>180</v>
       </c>
       <c r="AN136" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AO136" t="n">
         <v>260</v>
@@ -18895,10 +18895,10 @@
         <v>1.73</v>
       </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H137" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I137" t="n">
         <v>5.6</v>
@@ -18934,7 +18934,7 @@
         <v>3.3</v>
       </c>
       <c r="T137" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U137" t="n">
         <v>1.94</v>
@@ -18946,10 +18946,10 @@
         <v>2.24</v>
       </c>
       <c r="X137" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z137" t="n">
         <v>55</v>
@@ -18958,10 +18958,10 @@
         <v>170</v>
       </c>
       <c r="AB137" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC137" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD137" t="n">
         <v>23</v>
@@ -18970,10 +18970,10 @@
         <v>95</v>
       </c>
       <c r="AF137" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG137" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>12</v>
       </c>
       <c r="AH137" t="n">
         <v>22</v>
@@ -18982,10 +18982,10 @@
         <v>95</v>
       </c>
       <c r="AJ137" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK137" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL137" t="n">
         <v>46</v>
@@ -18994,7 +18994,7 @@
         <v>150</v>
       </c>
       <c r="AN137" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO137" t="n">
         <v>120</v>
@@ -19030,7 +19030,7 @@
         <v>1.79</v>
       </c>
       <c r="G138" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H138" t="n">
         <v>5</v>
@@ -19054,22 +19054,22 @@
         <v>5.4</v>
       </c>
       <c r="O138" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P138" t="n">
         <v>2.48</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R138" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="S138" t="n">
         <v>2.46</v>
       </c>
       <c r="T138" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U138" t="n">
         <v>2.44</v>
@@ -19078,13 +19078,13 @@
         <v>1.23</v>
       </c>
       <c r="W138" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X138" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y138" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z138" t="n">
         <v>44</v>
@@ -19096,7 +19096,7 @@
         <v>12.5</v>
       </c>
       <c r="AC138" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD138" t="n">
         <v>21</v>
@@ -19129,10 +19129,10 @@
         <v>65</v>
       </c>
       <c r="AN138" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AO138" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139">
@@ -19207,7 +19207,7 @@
         <v>1.54</v>
       </c>
       <c r="U139" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V139" t="n">
         <v>1.33</v>
@@ -19216,7 +19216,7 @@
         <v>1.94</v>
       </c>
       <c r="X139" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y139" t="n">
         <v>26</v>
@@ -19246,7 +19246,7 @@
         <v>13.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI139" t="n">
         <v>48</v>
@@ -19261,7 +19261,7 @@
         <v>32</v>
       </c>
       <c r="AM139" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN139" t="n">
         <v>11.5</v>
@@ -19297,16 +19297,16 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G140" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H140" t="n">
+        <v>10</v>
+      </c>
+      <c r="I140" t="n">
         <v>10.5</v>
-      </c>
-      <c r="I140" t="n">
-        <v>11</v>
       </c>
       <c r="J140" t="n">
         <v>5.6</v>
@@ -19327,13 +19327,13 @@
         <v>1.26</v>
       </c>
       <c r="P140" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q140" t="n">
         <v>1.76</v>
       </c>
       <c r="R140" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S140" t="n">
         <v>2.94</v>
@@ -19348,7 +19348,7 @@
         <v>1.1</v>
       </c>
       <c r="W140" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X140" t="n">
         <v>19</v>
@@ -19387,7 +19387,7 @@
         <v>150</v>
       </c>
       <c r="AJ140" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK140" t="n">
         <v>14.5</v>
@@ -19402,7 +19402,7 @@
         <v>5.8</v>
       </c>
       <c r="AO140" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141">
@@ -19450,7 +19450,7 @@
         <v>2.98</v>
       </c>
       <c r="L141" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="M141" t="n">
         <v>1.17</v>
@@ -19462,7 +19462,7 @@
         <v>1.73</v>
       </c>
       <c r="P141" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q141" t="n">
         <v>3.25</v>
@@ -19474,7 +19474,7 @@
         <v>7.4</v>
       </c>
       <c r="T141" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U141" t="n">
         <v>1.64</v>
@@ -19507,7 +19507,7 @@
         <v>17</v>
       </c>
       <c r="AE141" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF141" t="n">
         <v>15</v>
@@ -19567,28 +19567,28 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G142" t="n">
         <v>2.34</v>
       </c>
       <c r="H142" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I142" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
         <v>3.2</v>
       </c>
       <c r="K142" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L142" t="n">
         <v>1.52</v>
       </c>
       <c r="M142" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N142" t="n">
         <v>2.84</v>
@@ -19615,13 +19615,13 @@
         <v>1.85</v>
       </c>
       <c r="V142" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W142" t="n">
         <v>1.74</v>
       </c>
       <c r="X142" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y142" t="n">
         <v>12</v>
@@ -19705,28 +19705,28 @@
         <v>1.51</v>
       </c>
       <c r="G143" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H143" t="n">
         <v>7.6</v>
       </c>
       <c r="I143" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="J143" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K143" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L143" t="n">
         <v>1.38</v>
       </c>
       <c r="M143" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O143" t="n">
         <v>1.3</v>
@@ -19735,28 +19735,28 @@
         <v>1.98</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="R143" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S143" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T143" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U143" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V143" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W143" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X143" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y143" t="n">
         <v>29</v>
@@ -19837,7 +19837,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -19846,13 +19846,13 @@
         <v>1.85</v>
       </c>
       <c r="I144" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J144" t="n">
         <v>3.65</v>
       </c>
       <c r="K144" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L144" t="n">
         <v>1.38</v>
@@ -19978,10 +19978,10 @@
         <v>1.15</v>
       </c>
       <c r="H145" t="n">
+        <v>29</v>
+      </c>
+      <c r="I145" t="n">
         <v>30</v>
-      </c>
-      <c r="I145" t="n">
-        <v>32</v>
       </c>
       <c r="J145" t="n">
         <v>10.5</v>
@@ -20005,7 +20005,7 @@
         <v>2.72</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R145" t="n">
         <v>1.68</v>
@@ -20014,10 +20014,10 @@
         <v>2.44</v>
       </c>
       <c r="T145" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="U145" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="V145" t="n">
         <v>1.03</v>
@@ -20026,7 +20026,7 @@
         <v>7.6</v>
       </c>
       <c r="X145" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y145" t="n">
         <v>80</v>
@@ -20041,7 +20041,7 @@
         <v>9.4</v>
       </c>
       <c r="AC145" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD145" t="n">
         <v>120</v>
@@ -20053,7 +20053,7 @@
         <v>6.4</v>
       </c>
       <c r="AG145" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH145" t="n">
         <v>75</v>
@@ -20062,13 +20062,13 @@
         <v>1000</v>
       </c>
       <c r="AJ145" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AK145" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL145" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM145" t="n">
         <v>490</v>
@@ -20107,13 +20107,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G146" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I146" t="n">
         <v>3</v>
@@ -20131,10 +20131,10 @@
         <v>1.05</v>
       </c>
       <c r="N146" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O146" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P146" t="n">
         <v>2.18</v>
@@ -20143,7 +20143,7 @@
         <v>1.76</v>
       </c>
       <c r="R146" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S146" t="n">
         <v>2.88</v>
@@ -20158,7 +20158,7 @@
         <v>1.5</v>
       </c>
       <c r="W146" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X146" t="n">
         <v>20</v>
@@ -20242,16 +20242,16 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="G147" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H147" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I147" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3.2</v>
       </c>
       <c r="J147" t="n">
         <v>3.4</v>
@@ -20281,19 +20281,19 @@
         <v>1.33</v>
       </c>
       <c r="S147" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T147" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U147" t="n">
         <v>2.12</v>
       </c>
       <c r="V147" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W147" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X147" t="n">
         <v>12.5</v>
@@ -20377,22 +20377,22 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G148" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H148" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I148" t="n">
         <v>1.96</v>
       </c>
       <c r="J148" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K148" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -20407,7 +20407,7 @@
         <v>1.25</v>
       </c>
       <c r="P148" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q148" t="n">
         <v>1.74</v>
@@ -20512,16 +20512,16 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G149" t="n">
         <v>1000</v>
       </c>
       <c r="H149" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I149" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J149" t="n">
         <v>1.03</v>
@@ -20536,13 +20536,13 @@
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O149" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P149" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q149" t="n">
         <v>1.86</v>
@@ -20656,13 +20656,13 @@
         <v>38</v>
       </c>
       <c r="I150" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J150" t="n">
         <v>15.5</v>
       </c>
       <c r="K150" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="L150" t="n">
         <v>1.19</v>
@@ -20677,7 +20677,7 @@
         <v>1.11</v>
       </c>
       <c r="P150" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q150" t="n">
         <v>1.32</v>
@@ -20689,7 +20689,7 @@
         <v>1.84</v>
       </c>
       <c r="T150" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U150" t="n">
         <v>1.55</v>
@@ -20701,13 +20701,13 @@
         <v>11</v>
       </c>
       <c r="X150" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y150" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Z150" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="AA150" t="n">
         <v>1000</v>
@@ -20716,40 +20716,40 @@
         <v>15.5</v>
       </c>
       <c r="AC150" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD150" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AE150" t="n">
         <v>1000</v>
       </c>
       <c r="AF150" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG150" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AH150" t="n">
         <v>110</v>
       </c>
       <c r="AI150" t="n">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="AJ150" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AK150" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL150" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM150" t="n">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="AN150" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="AO150" t="n">
         <v>1000</v>
@@ -20785,16 +20785,16 @@
         <v>2.52</v>
       </c>
       <c r="G151" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H151" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I151" t="n">
         <v>3.65</v>
       </c>
       <c r="J151" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K151" t="n">
         <v>3.15</v>
@@ -20803,55 +20803,55 @@
         <v>1.01</v>
       </c>
       <c r="M151" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N151" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O151" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P151" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="R151" t="n">
         <v>1.16</v>
       </c>
       <c r="S151" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T151" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U151" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V151" t="n">
         <v>1.38</v>
       </c>
       <c r="W151" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X151" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y151" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z151" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA151" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB151" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC151" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD151" t="n">
         <v>19.5</v>
@@ -20878,7 +20878,7 @@
         <v>50</v>
       </c>
       <c r="AL151" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM151" t="n">
         <v>260</v>
@@ -21052,16 +21052,16 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G153" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H153" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="I153" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="J153" t="n">
         <v>4</v>
@@ -21076,40 +21076,40 @@
         <v>1.03</v>
       </c>
       <c r="N153" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O153" t="n">
         <v>1.17</v>
       </c>
       <c r="P153" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R153" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S153" t="n">
         <v>2.26</v>
       </c>
       <c r="T153" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U153" t="n">
         <v>2.78</v>
       </c>
       <c r="V153" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W153" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X153" t="n">
         <v>36</v>
       </c>
       <c r="Y153" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z153" t="n">
         <v>1000</v>
@@ -21127,7 +21127,7 @@
         <v>15.5</v>
       </c>
       <c r="AE153" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AF153" t="n">
         <v>22</v>
@@ -21142,7 +21142,7 @@
         <v>1000</v>
       </c>
       <c r="AJ153" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK153" t="n">
         <v>26</v>
@@ -21157,7 +21157,7 @@
         <v>12</v>
       </c>
       <c r="AO153" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G2" t="n">
         <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
         <v>2.02</v>
@@ -769,7 +769,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
         <v>55</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.14</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.42</v>
@@ -832,28 +832,28 @@
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
         <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X3" t="n">
         <v>14.5</v>
@@ -901,13 +901,13 @@
         <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -940,28 +940,28 @@
         <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -970,25 +970,25 @@
         <v>2.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>6.8</v>
@@ -1105,40 +1105,40 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="R5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="U5" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
         <v>44</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
         <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
         <v>970</v>
@@ -1162,7 +1162,7 @@
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
         <v>46</v>
@@ -1177,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
@@ -1234,31 +1234,31 @@
         <v>5.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S6" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T6" t="n">
         <v>1.54</v>
       </c>
       <c r="U6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V6" t="n">
         <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1270,7 +1270,7 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
         <v>15.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.28</v>
       </c>
       <c r="H9" t="n">
         <v>1.04</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1750,16 +1750,16 @@
         <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
         <v>1000</v>
@@ -1891,10 +1891,10 @@
         <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>1.31</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
         <v>1000</v>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25</v>
+        <v>2.52</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2431,16 +2431,16 @@
         <v>1.61</v>
       </c>
       <c r="I15" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2452,10 +2452,10 @@
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
         <v>1.26</v>
@@ -2464,16 +2464,16 @@
         <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
         <v>1.75</v>
       </c>
       <c r="V15" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
         <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
         <v>3.85</v>
@@ -2728,10 +2728,10 @@
         <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T17" t="n">
         <v>1.73</v>
@@ -2749,7 +2749,7 @@
         <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
@@ -2767,7 +2767,7 @@
         <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
         <v>17.5</v>
@@ -2776,7 +2776,7 @@
         <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
@@ -2797,7 +2797,7 @@
         <v>16.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>970</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>970</v>
@@ -2857,7 +2857,7 @@
         <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
         <v>1.63</v>
@@ -2869,16 +2869,16 @@
         <v>2.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U18" t="n">
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G19" t="n">
         <v>3.7</v>
@@ -2971,13 +2971,13 @@
         <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J19" t="n">
         <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -2986,7 +2986,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
@@ -2995,22 +2995,22 @@
         <v>2.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
         <v>1.59</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
         <v>1.58</v>
       </c>
       <c r="U19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
@@ -3022,7 +3022,7 @@
         <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA19" t="n">
         <v>27</v>
@@ -3061,7 +3061,7 @@
         <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3106,7 +3106,7 @@
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.3</v>
@@ -3136,7 +3136,7 @@
         <v>1.31</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
         <v>1.8</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3262,7 +3262,7 @@
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
         <v>1.77</v>
@@ -3277,13 +3277,13 @@
         <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="X21" t="n">
         <v>21</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G22" t="n">
         <v>2.98</v>
@@ -3382,7 +3382,7 @@
         <v>2.98</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.32</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="G23" t="n">
         <v>2.74</v>
@@ -3511,10 +3511,10 @@
         <v>2.68</v>
       </c>
       <c r="I23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
         <v>4.1</v>
@@ -3532,10 +3532,10 @@
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
         <v>1.46</v>
@@ -3544,10 +3544,10 @@
         <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
         <v>1.5</v>
@@ -3559,7 +3559,7 @@
         <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
         <v>26</v>
@@ -3568,10 +3568,10 @@
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>15.5</v>
@@ -3589,7 +3589,7 @@
         <v>19</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
         <v>46</v>
@@ -3598,7 +3598,7 @@
         <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM23" t="n">
         <v>85</v>
@@ -3637,28 +3637,28 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H24" t="n">
         <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
         <v>3.95</v>
@@ -3667,37 +3667,37 @@
         <v>1.31</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
         <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
         <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
         <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
         <v>90</v>
@@ -3706,31 +3706,31 @@
         <v>9.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
         <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>36</v>
@@ -3739,10 +3739,10 @@
         <v>980</v>
       </c>
       <c r="AN24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>1.92</v>
       </c>
       <c r="G25" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
@@ -3802,10 +3802,10 @@
         <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
         <v>1.35</v>
@@ -3823,7 +3823,7 @@
         <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3916,7 +3916,7 @@
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J26" t="n">
         <v>3.65</v>
@@ -3931,7 +3931,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O26" t="n">
         <v>1.19</v>
@@ -4060,7 +4060,7 @@
         <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -4072,16 +4072,16 @@
         <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R27" t="n">
         <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
         <v>1.86</v>
@@ -4180,19 +4180,19 @@
         <v>3.55</v>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I28" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
         <v>1.33</v>
@@ -4210,13 +4210,13 @@
         <v>2.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R28" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S28" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T28" t="n">
         <v>1.62</v>
@@ -4225,10 +4225,10 @@
         <v>2.4</v>
       </c>
       <c r="V28" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X28" t="n">
         <v>19</v>
@@ -4243,19 +4243,19 @@
         <v>26</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC28" t="n">
         <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>20</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -4267,7 +4267,7 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK28" t="n">
         <v>38</v>
@@ -4279,7 +4279,7 @@
         <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
         <v>12</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G29" t="n">
         <v>2.18</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
         <v>3.65</v>
@@ -4336,34 +4336,34 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S29" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T29" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U29" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W29" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X29" t="n">
         <v>24</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G30" t="n">
         <v>4.5</v>
@@ -4456,13 +4456,13 @@
         <v>2.04</v>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J30" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K30" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.34</v>
@@ -4477,13 +4477,13 @@
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q30" t="n">
         <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S30" t="n">
         <v>2.58</v>
@@ -4495,7 +4495,7 @@
         <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W30" t="n">
         <v>1.28</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.9</v>
+        <v>1.04</v>
       </c>
       <c r="G31" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I31" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="K31" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,34 +4606,34 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>2.1</v>
+        <v>1.46</v>
       </c>
       <c r="O31" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
       <c r="T31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.01</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>1.01</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.28</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4723,19 +4723,19 @@
         <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I32" t="n">
         <v>2.02</v>
       </c>
       <c r="J32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
         <v>4.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -4744,13 +4744,13 @@
         <v>3.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
         <v>1.38</v>
@@ -4759,7 +4759,7 @@
         <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U32" t="n">
         <v>2.1</v>
@@ -4786,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="AC32" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
         <v>12.5</v>
@@ -4795,7 +4795,7 @@
         <v>25</v>
       </c>
       <c r="AF32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="n">
         <v>22</v>
@@ -4804,7 +4804,7 @@
         <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
         <v>120</v>
@@ -4819,7 +4819,7 @@
         <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO32" t="n">
         <v>15.5</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G33" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>6.2</v>
+        <v>970</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P33" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G34" t="n">
         <v>2.2</v>
@@ -4999,7 +4999,7 @@
         <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
         <v>3.5</v>
@@ -5011,28 +5011,28 @@
         <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P34" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R34" t="n">
         <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T34" t="n">
         <v>1.94</v>
       </c>
       <c r="U34" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V34" t="n">
         <v>1.31</v>
@@ -5041,55 +5041,55 @@
         <v>1.83</v>
       </c>
       <c r="X34" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z34" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA34" t="n">
         <v>110</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="n">
         <v>70</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH34" t="n">
         <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK34" t="n">
         <v>30</v>
       </c>
       <c r="AL34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
         <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO34" t="n">
         <v>90</v>
@@ -5152,7 +5152,7 @@
         <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q35" t="n">
         <v>1.75</v>
@@ -5161,7 +5161,7 @@
         <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T35" t="n">
         <v>2.3</v>
@@ -5200,7 +5200,7 @@
         <v>260</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG35" t="n">
         <v>11</v>
@@ -5224,10 +5224,10 @@
         <v>210</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO35" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36">
@@ -5257,58 +5257,58 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K36" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="O36" t="n">
         <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.86</v>
+        <v>1.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="n">
         <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W36" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5398,7 +5398,7 @@
         <v>2.74</v>
       </c>
       <c r="H37" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I37" t="n">
         <v>2.76</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="G38" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I38" t="n">
         <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K38" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
@@ -5551,22 +5551,22 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>2.84</v>
+        <v>1.1</v>
       </c>
       <c r="O38" t="n">
         <v>1.24</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>1.09</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="R38" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="S38" t="n">
-        <v>2.48</v>
+        <v>1.24</v>
       </c>
       <c r="T38" t="n">
         <v>1.04</v>
@@ -5575,10 +5575,10 @@
         <v>1.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W38" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="G39" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="H39" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
         <v>1.25</v>
@@ -5686,37 +5686,37 @@
         <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O39" t="n">
         <v>1.2</v>
       </c>
       <c r="P39" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R39" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S39" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T39" t="n">
         <v>1.56</v>
       </c>
       <c r="U39" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V39" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="W39" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="X39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y39" t="n">
         <v>19.5</v>
@@ -5725,10 +5725,10 @@
         <v>27</v>
       </c>
       <c r="AA39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB39" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC39" t="n">
         <v>11.5</v>
@@ -5752,19 +5752,19 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL39" t="n">
         <v>38</v>
       </c>
       <c r="AM39" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN39" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO39" t="n">
         <v>970</v>
@@ -5797,25 +5797,25 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G40" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H40" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I40" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K40" t="n">
         <v>4.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M40" t="n">
         <v>1.05</v>
@@ -5827,10 +5827,10 @@
         <v>1.23</v>
       </c>
       <c r="P40" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
         <v>1.47</v>
@@ -5839,40 +5839,40 @@
         <v>2.76</v>
       </c>
       <c r="T40" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W40" t="n">
         <v>2.16</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.12</v>
       </c>
       <c r="X40" t="n">
         <v>24</v>
       </c>
       <c r="Y40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z40" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
         <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD40" t="n">
         <v>23</v>
       </c>
       <c r="AE40" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF40" t="n">
         <v>15</v>
@@ -5884,10 +5884,10 @@
         <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK40" t="n">
         <v>22</v>
@@ -5974,7 +5974,7 @@
         <v>2.28</v>
       </c>
       <c r="T41" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="U41" t="n">
         <v>1.04</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G42" t="n">
         <v>2.56</v>
@@ -6076,7 +6076,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J42" t="n">
         <v>3.45</v>
@@ -6085,7 +6085,7 @@
         <v>3.85</v>
       </c>
       <c r="L42" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
         <v>1.06</v>
@@ -6097,10 +6097,10 @@
         <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R42" t="n">
         <v>1.38</v>
@@ -6115,7 +6115,7 @@
         <v>2.22</v>
       </c>
       <c r="V42" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
         <v>1.64</v>
@@ -6169,7 +6169,7 @@
         <v>100</v>
       </c>
       <c r="AN42" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
         <v>36</v>
@@ -6205,13 +6205,13 @@
         <v>3.05</v>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H43" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J43" t="n">
         <v>3.15</v>
@@ -6232,10 +6232,10 @@
         <v>1.37</v>
       </c>
       <c r="P43" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R43" t="n">
         <v>1.24</v>
@@ -6244,16 +6244,16 @@
         <v>3.45</v>
       </c>
       <c r="T43" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U43" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W43" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X43" t="n">
         <v>970</v>
@@ -6340,13 +6340,13 @@
         <v>3.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J44" t="n">
         <v>3.25</v>
@@ -6367,7 +6367,7 @@
         <v>1.39</v>
       </c>
       <c r="P44" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q44" t="n">
         <v>2.16</v>
@@ -6385,7 +6385,7 @@
         <v>2.02</v>
       </c>
       <c r="V44" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W44" t="n">
         <v>1.36</v>
@@ -6427,7 +6427,7 @@
         <v>55</v>
       </c>
       <c r="AJ44" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK44" t="n">
         <v>48</v>
@@ -6436,7 +6436,7 @@
         <v>65</v>
       </c>
       <c r="AM44" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN44" t="n">
         <v>60</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G45" t="n">
         <v>1.92</v>
@@ -6487,37 +6487,37 @@
         <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L45" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M45" t="n">
         <v>1.11</v>
       </c>
       <c r="N45" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P45" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="R45" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S45" t="n">
         <v>4.9</v>
       </c>
       <c r="T45" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U45" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V45" t="n">
         <v>1.2</v>
@@ -6526,22 +6526,22 @@
         <v>2.08</v>
       </c>
       <c r="X45" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y45" t="n">
         <v>14.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA45" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD45" t="n">
         <v>24</v>
@@ -6550,34 +6550,34 @@
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG45" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
         <v>21</v>
       </c>
       <c r="AK45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM45" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="n">
         <v>21</v>
       </c>
       <c r="AO45" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6610,13 +6610,13 @@
         <v>2.3</v>
       </c>
       <c r="G46" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H46" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J46" t="n">
         <v>2.68</v>
@@ -6655,10 +6655,10 @@
         <v>1.8</v>
       </c>
       <c r="V46" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W46" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X46" t="n">
         <v>11</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G48" t="n">
         <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I48" t="n">
         <v>3.15</v>
@@ -7027,7 +7027,7 @@
         <v>2.6</v>
       </c>
       <c r="K49" t="n">
-        <v>970</v>
+        <v>4.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
@@ -7036,7 +7036,7 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="O49" t="n">
         <v>1.31</v>
@@ -7051,13 +7051,13 @@
         <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V49" t="n">
         <v>1.23</v>
@@ -7291,16 +7291,16 @@
         <v>2.38</v>
       </c>
       <c r="I51" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="J51" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7330,7 +7330,7 @@
         <v>2.02</v>
       </c>
       <c r="V51" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="W51" t="n">
         <v>1.37</v>
@@ -7420,7 +7420,7 @@
         <v>3.65</v>
       </c>
       <c r="G52" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H52" t="n">
         <v>2.32</v>
@@ -7429,7 +7429,7 @@
         <v>2.42</v>
       </c>
       <c r="J52" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K52" t="n">
         <v>3.25</v>
@@ -7555,7 +7555,7 @@
         <v>2.22</v>
       </c>
       <c r="G53" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H53" t="n">
         <v>3.5</v>
@@ -7570,7 +7570,7 @@
         <v>3.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
@@ -7585,13 +7585,13 @@
         <v>1.66</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R53" t="n">
         <v>1.24</v>
       </c>
       <c r="S53" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T53" t="n">
         <v>1.89</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G54" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H54" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I54" t="n">
         <v>4.8</v>
@@ -7702,7 +7702,7 @@
         <v>3.2</v>
       </c>
       <c r="K54" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7717,13 +7717,13 @@
         <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R54" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S54" t="n">
         <v>4</v>
@@ -7738,7 +7738,7 @@
         <v>1.26</v>
       </c>
       <c r="W54" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H55" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I55" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L55" t="n">
         <v>1.38</v>
@@ -7852,7 +7852,7 @@
         <v>1.28</v>
       </c>
       <c r="P55" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q55" t="n">
         <v>1.84</v>
@@ -7870,7 +7870,7 @@
         <v>2.28</v>
       </c>
       <c r="V55" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W55" t="n">
         <v>1.44</v>
@@ -7903,7 +7903,7 @@
         <v>23</v>
       </c>
       <c r="AG55" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH55" t="n">
         <v>16.5</v>
@@ -7927,7 +7927,7 @@
         <v>30</v>
       </c>
       <c r="AO55" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G56" t="n">
         <v>2.38</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -8002,10 +8002,10 @@
         <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V56" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W56" t="n">
         <v>1.72</v>
@@ -8029,10 +8029,10 @@
         <v>8.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF56" t="n">
         <v>16.5</v>
@@ -8041,7 +8041,7 @@
         <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI56" t="n">
         <v>80</v>
@@ -8056,13 +8056,13 @@
         <v>60</v>
       </c>
       <c r="AM56" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN56" t="n">
         <v>32</v>
       </c>
       <c r="AO56" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G57" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J57" t="n">
         <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L57" t="n">
         <v>1.48</v>
@@ -8116,13 +8116,13 @@
         <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O57" t="n">
         <v>1.42</v>
       </c>
       <c r="P57" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q57" t="n">
         <v>2.26</v>
@@ -8134,13 +8134,13 @@
         <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V57" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W57" t="n">
         <v>1.71</v>
@@ -8158,22 +8158,22 @@
         <v>90</v>
       </c>
       <c r="AB57" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD57" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE57" t="n">
         <v>60</v>
       </c>
       <c r="AF57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG57" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH57" t="n">
         <v>19</v>
@@ -8188,16 +8188,16 @@
         <v>30</v>
       </c>
       <c r="AL57" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM57" t="n">
         <v>140</v>
       </c>
       <c r="AN57" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO57" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58">
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H58" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I58" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4.6</v>
       </c>
       <c r="J58" t="n">
         <v>3.3</v>
@@ -8245,46 +8245,46 @@
         <v>3.35</v>
       </c>
       <c r="L58" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M58" t="n">
         <v>1.1</v>
       </c>
       <c r="N58" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O58" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P58" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R58" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S58" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U58" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V58" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W58" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X58" t="n">
         <v>10.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z58" t="n">
         <v>30</v>
@@ -8293,28 +8293,28 @@
         <v>110</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC58" t="n">
         <v>7.2</v>
       </c>
       <c r="AD58" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE58" t="n">
         <v>65</v>
       </c>
       <c r="AF58" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG58" t="n">
         <v>11</v>
       </c>
       <c r="AH58" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI58" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ58" t="n">
         <v>24</v>
@@ -8323,16 +8323,16 @@
         <v>24</v>
       </c>
       <c r="AL58" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM58" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN58" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO58" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -8395,7 +8395,7 @@
         <v>1.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="R59" t="n">
         <v>1.23</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H60" t="n">
         <v>4.4</v>
@@ -8509,10 +8509,10 @@
         <v>5.1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K60" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
@@ -8527,10 +8527,10 @@
         <v>1.29</v>
       </c>
       <c r="P60" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R60" t="n">
         <v>1.38</v>
@@ -8545,7 +8545,7 @@
         <v>2.06</v>
       </c>
       <c r="V60" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W60" t="n">
         <v>2.08</v>
@@ -8557,10 +8557,10 @@
         <v>21</v>
       </c>
       <c r="Z60" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA60" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB60" t="n">
         <v>11.5</v>
@@ -8581,7 +8581,7 @@
         <v>12.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI60" t="n">
         <v>75</v>
@@ -8602,7 +8602,7 @@
         <v>13</v>
       </c>
       <c r="AO60" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G61" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H61" t="n">
         <v>4.2</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K61" t="n">
         <v>4.5</v>
@@ -8662,7 +8662,7 @@
         <v>1.23</v>
       </c>
       <c r="P61" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q61" t="n">
         <v>1.61</v>
@@ -8671,7 +8671,7 @@
         <v>1.47</v>
       </c>
       <c r="S61" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="T61" t="n">
         <v>1.68</v>
@@ -8767,37 +8767,37 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="G62" t="n">
         <v>2.44</v>
       </c>
       <c r="H62" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K62" t="n">
         <v>3.2</v>
       </c>
       <c r="L62" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M62" t="n">
         <v>1.12</v>
       </c>
       <c r="N62" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O62" t="n">
         <v>1.51</v>
       </c>
       <c r="P62" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q62" t="n">
         <v>2.36</v>
@@ -8809,70 +8809,70 @@
         <v>4.8</v>
       </c>
       <c r="T62" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U62" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V62" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W62" t="n">
         <v>1.69</v>
       </c>
       <c r="X62" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y62" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA62" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AB62" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC62" t="n">
         <v>8.6</v>
       </c>
       <c r="AD62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF62" t="n">
         <v>17</v>
       </c>
-      <c r="AE62" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>15</v>
-      </c>
       <c r="AG62" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI62" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL62" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM62" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN62" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO62" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
@@ -8905,16 +8905,16 @@
         <v>3.65</v>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I63" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J63" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K63" t="n">
         <v>4.2</v>
@@ -8932,16 +8932,16 @@
         <v>1.23</v>
       </c>
       <c r="P63" t="n">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.61</v>
+        <v>1.23</v>
       </c>
       <c r="R63" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S63" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="T63" t="n">
         <v>1.5</v>
@@ -8950,7 +8950,7 @@
         <v>1.04</v>
       </c>
       <c r="V63" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W63" t="n">
         <v>1.32</v>
@@ -9040,10 +9040,10 @@
         <v>1.86</v>
       </c>
       <c r="G64" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I64" t="n">
         <v>4.9</v>
@@ -9070,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R64" t="n">
         <v>1.39</v>
@@ -9088,7 +9088,7 @@
         <v>1.26</v>
       </c>
       <c r="W64" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X64" t="n">
         <v>21</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G65" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H65" t="n">
         <v>3.65</v>
@@ -9211,10 +9211,10 @@
         <v>1.59</v>
       </c>
       <c r="S65" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T65" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U65" t="n">
         <v>2.56</v>
@@ -9223,7 +9223,7 @@
         <v>1.37</v>
       </c>
       <c r="W65" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="X65" t="n">
         <v>22</v>
@@ -9235,7 +9235,7 @@
         <v>29</v>
       </c>
       <c r="AA65" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB65" t="n">
         <v>13</v>
@@ -9244,7 +9244,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD65" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE65" t="n">
         <v>38</v>
@@ -9256,7 +9256,7 @@
         <v>11</v>
       </c>
       <c r="AH65" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI65" t="n">
         <v>40</v>
@@ -9274,7 +9274,7 @@
         <v>65</v>
       </c>
       <c r="AN65" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO65" t="n">
         <v>27</v>
@@ -9337,10 +9337,10 @@
         <v>1.27</v>
       </c>
       <c r="P66" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="R66" t="n">
         <v>1.41</v>
@@ -9352,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="U66" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V66" t="n">
         <v>1.09</v>
@@ -9442,19 +9442,19 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G67" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="H67" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I67" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J67" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K67" t="n">
         <v>4.4</v>
@@ -9466,16 +9466,16 @@
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O67" t="n">
         <v>1.21</v>
       </c>
       <c r="P67" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R67" t="n">
         <v>1.59</v>
@@ -9484,16 +9484,16 @@
         <v>2.6</v>
       </c>
       <c r="T67" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U67" t="n">
         <v>2.44</v>
       </c>
       <c r="V67" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W67" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="X67" t="n">
         <v>23</v>
@@ -9502,37 +9502,37 @@
         <v>22</v>
       </c>
       <c r="Z67" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA67" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB67" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC67" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD67" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF67" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG67" t="n">
         <v>10</v>
       </c>
       <c r="AH67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ67" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK67" t="n">
         <v>16</v>
@@ -9544,10 +9544,10 @@
         <v>70</v>
       </c>
       <c r="AN67" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO67" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G68" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H68" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I68" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J68" t="n">
         <v>4.4</v>
@@ -9607,7 +9607,7 @@
         <v>1.18</v>
       </c>
       <c r="P68" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="Q68" t="n">
         <v>1.57</v>
@@ -9616,31 +9616,31 @@
         <v>1.69</v>
       </c>
       <c r="S68" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T68" t="n">
         <v>1.6</v>
       </c>
       <c r="U68" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V68" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W68" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X68" t="n">
         <v>27</v>
       </c>
       <c r="Y68" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z68" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA68" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB68" t="n">
         <v>13.5</v>
@@ -9649,28 +9649,28 @@
         <v>10.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE68" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF68" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG68" t="n">
         <v>10.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ68" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL68" t="n">
         <v>24</v>
@@ -9679,10 +9679,10 @@
         <v>65</v>
       </c>
       <c r="AN68" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO68" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -9715,10 +9715,10 @@
         <v>2.04</v>
       </c>
       <c r="G69" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H69" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I69" t="n">
         <v>4.5</v>
@@ -9742,7 +9742,7 @@
         <v>1.41</v>
       </c>
       <c r="P69" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q69" t="n">
         <v>2.24</v>
@@ -9754,16 +9754,16 @@
         <v>4.3</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U69" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V69" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W69" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X69" t="n">
         <v>11.5</v>
@@ -9850,7 +9850,7 @@
         <v>2.34</v>
       </c>
       <c r="G70" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H70" t="n">
         <v>3.05</v>
@@ -9859,61 +9859,61 @@
         <v>3.4</v>
       </c>
       <c r="J70" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K70" t="n">
         <v>3.7</v>
       </c>
       <c r="L70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O70" t="n">
         <v>1.32</v>
       </c>
-      <c r="M70" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P70" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="R70" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S70" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T70" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U70" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V70" t="n">
         <v>1.42</v>
       </c>
       <c r="W70" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X70" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y70" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z70" t="n">
         <v>26</v>
       </c>
       <c r="AA70" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB70" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC70" t="n">
         <v>8.199999999999999</v>
@@ -9922,7 +9922,7 @@
         <v>13.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF70" t="n">
         <v>17</v>
@@ -9934,25 +9934,25 @@
         <v>17.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ70" t="n">
         <v>36</v>
       </c>
       <c r="AK70" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL70" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN70" t="n">
         <v>23</v>
       </c>
       <c r="AO70" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
@@ -9982,13 +9982,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G71" t="n">
         <v>3.3</v>
       </c>
       <c r="H71" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I71" t="n">
         <v>2.5</v>
@@ -9997,7 +9997,7 @@
         <v>3.45</v>
       </c>
       <c r="K71" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L71" t="n">
         <v>1.4</v>
@@ -10006,22 +10006,22 @@
         <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O71" t="n">
         <v>1.31</v>
       </c>
       <c r="P71" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R71" t="n">
         <v>1.38</v>
       </c>
       <c r="S71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T71" t="n">
         <v>1.73</v>
@@ -10039,55 +10039,55 @@
         <v>18.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA71" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB71" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AC71" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD71" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE71" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF71" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG71" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI71" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ71" t="n">
         <v>65</v>
       </c>
       <c r="AK71" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AL71" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM71" t="n">
         <v>110</v>
       </c>
       <c r="AN71" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO71" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G72" t="n">
         <v>1.98</v>
@@ -10129,7 +10129,7 @@
         <v>4.5</v>
       </c>
       <c r="J72" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K72" t="n">
         <v>3.85</v>
@@ -10177,7 +10177,7 @@
         <v>15.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA72" t="n">
         <v>100</v>
@@ -10252,46 +10252,46 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G73" t="n">
-        <v>2.7</v>
+        <v>1000</v>
       </c>
       <c r="H73" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I73" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J73" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K73" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="L73" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M73" t="n">
         <v>1.01</v>
       </c>
       <c r="N73" t="n">
-        <v>2.14</v>
+        <v>1.1</v>
       </c>
       <c r="O73" t="n">
         <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="R73" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="S73" t="n">
-        <v>2.66</v>
+        <v>1.25</v>
       </c>
       <c r="T73" t="n">
         <v>1.04</v>
@@ -10300,10 +10300,10 @@
         <v>1.04</v>
       </c>
       <c r="V73" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W73" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="X73" t="n">
         <v>1000</v>
@@ -10402,7 +10402,7 @@
         <v>4.1</v>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L74" t="n">
         <v>1.01</v>
@@ -10429,7 +10429,7 @@
         <v>2.32</v>
       </c>
       <c r="T74" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U74" t="n">
         <v>2.36</v>
@@ -10438,61 +10438,61 @@
         <v>2.16</v>
       </c>
       <c r="W74" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X74" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y74" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z74" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA74" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC74" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD74" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE74" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF74" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG74" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH74" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI74" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ74" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK74" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL74" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM74" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO74" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G75" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>3.1</v>
       </c>
       <c r="I75" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J75" t="n">
         <v>3.4</v>
       </c>
       <c r="K75" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
         <v>1.01</v>
@@ -10552,7 +10552,7 @@
         <v>1.24</v>
       </c>
       <c r="P75" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q75" t="n">
         <v>1.62</v>
@@ -10570,10 +10570,10 @@
         <v>2.2</v>
       </c>
       <c r="V75" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W75" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X75" t="n">
         <v>970</v>
@@ -10582,10 +10582,10 @@
         <v>970</v>
       </c>
       <c r="Z75" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA75" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB75" t="n">
         <v>970</v>
@@ -10612,10 +10612,10 @@
         <v>65</v>
       </c>
       <c r="AJ75" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AK75" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL75" t="n">
         <v>44</v>
@@ -10657,19 +10657,19 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="G76" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I76" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J76" t="n">
-        <v>3.55</v>
+        <v>2.66</v>
       </c>
       <c r="K76" t="n">
         <v>970</v>
@@ -10681,22 +10681,22 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>3.3</v>
+        <v>1.12</v>
       </c>
       <c r="O76" t="n">
         <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>2.02</v>
+        <v>1.12</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="R76" t="n">
-        <v>1.42</v>
+        <v>1.12</v>
       </c>
       <c r="S76" t="n">
-        <v>2.46</v>
+        <v>1.22</v>
       </c>
       <c r="T76" t="n">
         <v>1.04</v>
@@ -10705,10 +10705,10 @@
         <v>1.04</v>
       </c>
       <c r="V76" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="W76" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X76" t="n">
         <v>25</v>
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G77" t="n">
         <v>5.9</v>
@@ -10801,7 +10801,7 @@
         <v>1.58</v>
       </c>
       <c r="I77" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J77" t="n">
         <v>4.1</v>
@@ -10816,10 +10816,10 @@
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P77" t="n">
         <v>1.99</v>
@@ -10831,7 +10831,7 @@
         <v>1.37</v>
       </c>
       <c r="S77" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T77" t="n">
         <v>1.79</v>
@@ -10840,7 +10840,7 @@
         <v>1.93</v>
       </c>
       <c r="V77" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W77" t="n">
         <v>1.2</v>
@@ -10867,7 +10867,7 @@
         <v>970</v>
       </c>
       <c r="AE77" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AF77" t="n">
         <v>44</v>
@@ -10888,13 +10888,13 @@
         <v>85</v>
       </c>
       <c r="AL77" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM77" t="n">
         <v>1000</v>
       </c>
       <c r="AN77" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AO77" t="n">
         <v>970</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G78" t="n">
         <v>3.35</v>
@@ -10939,13 +10939,13 @@
         <v>2.6</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K78" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L78" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -10957,7 +10957,7 @@
         <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
         <v>1.81</v>
@@ -10984,19 +10984,19 @@
         <v>19.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA78" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB78" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC78" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD78" t="n">
         <v>14</v>
@@ -11005,28 +11005,28 @@
         <v>32</v>
       </c>
       <c r="AF78" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG78" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI78" t="n">
         <v>44</v>
       </c>
       <c r="AJ78" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK78" t="n">
         <v>42</v>
       </c>
       <c r="AL78" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM78" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN78" t="n">
         <v>36</v>
@@ -11062,40 +11062,40 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G79" t="n">
         <v>2.12</v>
       </c>
       <c r="H79" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I79" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="J79" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K79" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L79" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.32</v>
       </c>
       <c r="P79" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R79" t="n">
         <v>1.33</v>
@@ -11125,19 +11125,19 @@
         <v>40</v>
       </c>
       <c r="AA79" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB79" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC79" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD79" t="n">
         <v>970</v>
       </c>
       <c r="AE79" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF79" t="n">
         <v>970</v>
@@ -11152,16 +11152,16 @@
         <v>75</v>
       </c>
       <c r="AJ79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK79" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL79" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM79" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN79" t="n">
         <v>970</v>
@@ -11209,7 +11209,7 @@
         <v>4.6</v>
       </c>
       <c r="J80" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K80" t="n">
         <v>4.2</v>
@@ -11335,28 +11335,28 @@
         <v>3.25</v>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H81" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I81" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="J81" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K81" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L81" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M81" t="n">
         <v>1.01</v>
       </c>
       <c r="N81" t="n">
-        <v>2.72</v>
+        <v>1.69</v>
       </c>
       <c r="O81" t="n">
         <v>1.01</v>
@@ -11365,25 +11365,25 @@
         <v>1.69</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.95</v>
+        <v>1.02</v>
       </c>
       <c r="R81" t="n">
         <v>1.26</v>
       </c>
       <c r="S81" t="n">
-        <v>3.4</v>
+        <v>1.05</v>
       </c>
       <c r="T81" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U81" t="n">
         <v>1.04</v>
       </c>
       <c r="V81" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W81" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
@@ -11467,22 +11467,22 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G82" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H82" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I82" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K82" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L82" t="n">
         <v>1.38</v>
@@ -11497,10 +11497,10 @@
         <v>1.41</v>
       </c>
       <c r="P82" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R82" t="n">
         <v>1.24</v>
@@ -11509,16 +11509,16 @@
         <v>3.75</v>
       </c>
       <c r="T82" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U82" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V82" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W82" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X82" t="n">
         <v>13.5</v>
@@ -11602,31 +11602,31 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="G83" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="I83" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="J83" t="n">
         <v>3.15</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L83" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M83" t="n">
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="O83" t="n">
         <v>1.01</v>
@@ -11635,13 +11635,13 @@
         <v>1.56</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R83" t="n">
         <v>1.18</v>
       </c>
       <c r="S83" t="n">
-        <v>2.68</v>
+        <v>2.88</v>
       </c>
       <c r="T83" t="n">
         <v>1.04</v>
@@ -11650,10 +11650,10 @@
         <v>1.04</v>
       </c>
       <c r="V83" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="W83" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="X83" t="n">
         <v>1000</v>
@@ -11737,22 +11737,22 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="I84" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J84" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="K84" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="L84" t="n">
         <v>1.48</v>
@@ -11761,22 +11761,22 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>1.99</v>
+        <v>2.44</v>
       </c>
       <c r="O84" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="P84" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R84" t="n">
         <v>1.18</v>
       </c>
       <c r="S84" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T84" t="n">
         <v>1.04</v>
@@ -11785,64 +11785,64 @@
         <v>1.04</v>
       </c>
       <c r="V84" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W84" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X84" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y84" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z84" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA84" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB84" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC84" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD84" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE84" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF84" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG84" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH84" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI84" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ84" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK84" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL84" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM84" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN84" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO84" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
@@ -11872,13 +11872,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G85" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H85" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I85" t="n">
         <v>5.8</v>
@@ -11908,7 +11908,7 @@
         <v>1.89</v>
       </c>
       <c r="R85" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S85" t="n">
         <v>3.3</v>
@@ -11920,10 +11920,10 @@
         <v>2.06</v>
       </c>
       <c r="V85" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W85" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X85" t="n">
         <v>15.5</v>
@@ -11932,7 +11932,7 @@
         <v>19.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA85" t="n">
         <v>140</v>
@@ -11941,10 +11941,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD85" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE85" t="n">
         <v>70</v>
@@ -11962,7 +11962,7 @@
         <v>75</v>
       </c>
       <c r="AJ85" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK85" t="n">
         <v>17</v>
@@ -12007,16 +12007,16 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G86" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I86" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4.9</v>
       </c>
       <c r="J86" t="n">
         <v>4.3</v>
@@ -12025,13 +12025,13 @@
         <v>4.4</v>
       </c>
       <c r="L86" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M86" t="n">
         <v>1.04</v>
       </c>
       <c r="N86" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O86" t="n">
         <v>1.19</v>
@@ -12055,10 +12055,10 @@
         <v>2.58</v>
       </c>
       <c r="V86" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W86" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="X86" t="n">
         <v>25</v>
@@ -12076,7 +12076,7 @@
         <v>13</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD86" t="n">
         <v>18</v>
@@ -12097,10 +12097,10 @@
         <v>48</v>
       </c>
       <c r="AJ86" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK86" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL86" t="n">
         <v>25</v>
@@ -12145,13 +12145,13 @@
         <v>1.45</v>
       </c>
       <c r="G87" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H87" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J87" t="n">
         <v>4.4</v>
@@ -12172,16 +12172,16 @@
         <v>1.28</v>
       </c>
       <c r="P87" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R87" t="n">
         <v>1.37</v>
       </c>
       <c r="S87" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T87" t="n">
         <v>2.08</v>
@@ -12193,7 +12193,7 @@
         <v>1.11</v>
       </c>
       <c r="W87" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="X87" t="n">
         <v>21</v>
@@ -12202,7 +12202,7 @@
         <v>34</v>
       </c>
       <c r="Z87" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA87" t="n">
         <v>370</v>
@@ -12280,7 +12280,7 @@
         <v>1.69</v>
       </c>
       <c r="G88" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="H88" t="n">
         <v>5.1</v>
@@ -12295,7 +12295,7 @@
         <v>4.2</v>
       </c>
       <c r="L88" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
@@ -12325,10 +12325,10 @@
         <v>1.8</v>
       </c>
       <c r="V88" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W88" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X88" t="n">
         <v>970</v>
@@ -12412,13 +12412,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G89" t="n">
         <v>2.64</v>
       </c>
       <c r="H89" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I89" t="n">
         <v>3.85</v>
@@ -12445,7 +12445,7 @@
         <v>1.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R89" t="n">
         <v>1.18</v>
@@ -12463,7 +12463,7 @@
         <v>1.35</v>
       </c>
       <c r="W89" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X89" t="n">
         <v>8.800000000000001</v>
@@ -12556,13 +12556,13 @@
         <v>2.02</v>
       </c>
       <c r="I90" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J90" t="n">
         <v>3.05</v>
       </c>
       <c r="K90" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L90" t="n">
         <v>1.31</v>
@@ -12571,16 +12571,16 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="O90" t="n">
         <v>1.01</v>
       </c>
       <c r="P90" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="R90" t="n">
         <v>1.29</v>
@@ -12595,7 +12595,7 @@
         <v>1.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="W90" t="n">
         <v>1.29</v>
@@ -12688,16 +12688,16 @@
         <v>2.16</v>
       </c>
       <c r="H91" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I91" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J91" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K91" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L91" t="n">
         <v>1.37</v>
@@ -12715,7 +12715,7 @@
         <v>1.73</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R91" t="n">
         <v>1.28</v>
@@ -12730,13 +12730,13 @@
         <v>1.9</v>
       </c>
       <c r="V91" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W91" t="n">
         <v>1.86</v>
       </c>
       <c r="X91" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y91" t="n">
         <v>20</v>
@@ -12745,7 +12745,7 @@
         <v>30</v>
       </c>
       <c r="AA91" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB91" t="n">
         <v>8.6</v>
@@ -12841,7 +12841,7 @@
         <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O92" t="n">
         <v>1.04</v>
@@ -12850,7 +12850,7 @@
         <v>1.64</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R92" t="n">
         <v>1.26</v>
@@ -12952,10 +12952,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G93" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>3.35</v>
@@ -12973,10 +12973,10 @@
         <v>1.52</v>
       </c>
       <c r="M93" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N93" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O93" t="n">
         <v>1.49</v>
@@ -12997,16 +12997,16 @@
         <v>2.06</v>
       </c>
       <c r="U93" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V93" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W93" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X93" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y93" t="n">
         <v>10.5</v>
@@ -13057,7 +13057,7 @@
         <v>34</v>
       </c>
       <c r="AO93" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94">
@@ -13090,19 +13090,19 @@
         <v>2.3</v>
       </c>
       <c r="G94" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H94" t="n">
         <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J94" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K94" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L94" t="n">
         <v>1.5</v>
@@ -13111,16 +13111,16 @@
         <v>1.1</v>
       </c>
       <c r="N94" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O94" t="n">
         <v>1.45</v>
       </c>
       <c r="P94" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.32</v>
+        <v>1.46</v>
       </c>
       <c r="R94" t="n">
         <v>1.25</v>
@@ -13132,67 +13132,67 @@
         <v>1.96</v>
       </c>
       <c r="U94" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V94" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W94" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X94" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y94" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Z94" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA94" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB94" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AC94" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AD94" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE94" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF94" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG94" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH94" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI94" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK94" t="n">
         <v>34</v>
       </c>
-      <c r="AK94" t="n">
-        <v>32</v>
-      </c>
       <c r="AL94" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM94" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN94" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO94" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95">
@@ -13222,19 +13222,19 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G95" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="H95" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K95" t="n">
         <v>4.3</v>
@@ -13246,25 +13246,25 @@
         <v>1.06</v>
       </c>
       <c r="N95" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O95" t="n">
         <v>1.31</v>
       </c>
       <c r="P95" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R95" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S95" t="n">
         <v>3.3</v>
       </c>
       <c r="T95" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U95" t="n">
         <v>1.98</v>
@@ -13273,58 +13273,58 @@
         <v>1.2</v>
       </c>
       <c r="W95" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="X95" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Z95" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA95" t="n">
         <v>180</v>
       </c>
       <c r="AB95" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD95" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE95" t="n">
         <v>95</v>
       </c>
       <c r="AF95" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG95" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI95" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AJ95" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AK95" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AL95" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM95" t="n">
         <v>150</v>
       </c>
       <c r="AN95" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AO95" t="n">
         <v>120</v>
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G96" t="n">
         <v>2.52</v>
@@ -13372,7 +13372,7 @@
         <v>3.25</v>
       </c>
       <c r="K96" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L96" t="n">
         <v>1.48</v>
@@ -13387,7 +13387,7 @@
         <v>1.41</v>
       </c>
       <c r="P96" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q96" t="n">
         <v>2.22</v>
@@ -13426,7 +13426,7 @@
         <v>9.4</v>
       </c>
       <c r="AC96" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD96" t="n">
         <v>14.5</v>
@@ -13492,22 +13492,22 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G97" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="H97" t="n">
         <v>4.7</v>
       </c>
       <c r="I97" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J97" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K97" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L97" t="n">
         <v>1.25</v>
@@ -13522,13 +13522,13 @@
         <v>1.2</v>
       </c>
       <c r="P97" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q97" t="n">
         <v>1.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S97" t="n">
         <v>2.34</v>
@@ -13540,16 +13540,16 @@
         <v>2.22</v>
       </c>
       <c r="V97" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W97" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="X97" t="n">
         <v>29</v>
       </c>
       <c r="Y97" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z97" t="n">
         <v>55</v>
@@ -13561,22 +13561,22 @@
         <v>970</v>
       </c>
       <c r="AC97" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD97" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE97" t="n">
         <v>70</v>
       </c>
       <c r="AF97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH97" t="n">
         <v>970</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>22</v>
       </c>
       <c r="AI97" t="n">
         <v>65</v>
@@ -13627,16 +13627,16 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G98" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H98" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J98" t="n">
         <v>4.1</v>
@@ -13657,25 +13657,25 @@
         <v>1.16</v>
       </c>
       <c r="P98" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R98" t="n">
         <v>1.74</v>
       </c>
       <c r="S98" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T98" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U98" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V98" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W98" t="n">
         <v>1.34</v>
@@ -13717,7 +13717,7 @@
         <v>26</v>
       </c>
       <c r="AJ98" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK98" t="n">
         <v>38</v>
@@ -13726,13 +13726,13 @@
         <v>38</v>
       </c>
       <c r="AM98" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN98" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO98" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="99">
@@ -13768,13 +13768,13 @@
         <v>4.1</v>
       </c>
       <c r="H99" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I99" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K99" t="n">
         <v>3.2</v>
@@ -13786,7 +13786,7 @@
         <v>1.13</v>
       </c>
       <c r="N99" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O99" t="n">
         <v>1.59</v>
@@ -13900,7 +13900,7 @@
         <v>2.04</v>
       </c>
       <c r="G100" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H100" t="n">
         <v>3.95</v>
@@ -13930,7 +13930,7 @@
         <v>1.57</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R100" t="n">
         <v>1.22</v>
@@ -13948,7 +13948,7 @@
         <v>1.27</v>
       </c>
       <c r="W100" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X100" t="n">
         <v>11.5</v>
@@ -14035,7 +14035,7 @@
         <v>1.99</v>
       </c>
       <c r="G101" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H101" t="n">
         <v>3.55</v>
@@ -14047,7 +14047,7 @@
         <v>3.6</v>
       </c>
       <c r="K101" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L101" t="n">
         <v>1.27</v>
@@ -14083,7 +14083,7 @@
         <v>1.32</v>
       </c>
       <c r="W101" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X101" t="n">
         <v>21</v>
@@ -14167,16 +14167,16 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G102" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H102" t="n">
         <v>4.2</v>
       </c>
       <c r="I102" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J102" t="n">
         <v>3.5</v>
@@ -14191,7 +14191,7 @@
         <v>1.06</v>
       </c>
       <c r="N102" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O102" t="n">
         <v>1.29</v>
@@ -14215,10 +14215,10 @@
         <v>2.12</v>
       </c>
       <c r="V102" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W102" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X102" t="n">
         <v>18.5</v>
@@ -14233,43 +14233,43 @@
         <v>110</v>
       </c>
       <c r="AB102" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC102" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD102" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE102" t="n">
         <v>60</v>
       </c>
       <c r="AF102" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG102" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH102" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI102" t="n">
         <v>65</v>
       </c>
       <c r="AJ102" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK102" t="n">
         <v>25</v>
       </c>
       <c r="AL102" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM102" t="n">
         <v>120</v>
       </c>
       <c r="AN102" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AO102" t="n">
         <v>60</v>
@@ -14305,7 +14305,7 @@
         <v>1.88</v>
       </c>
       <c r="G103" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H103" t="n">
         <v>4.3</v>
@@ -14332,10 +14332,10 @@
         <v>1.25</v>
       </c>
       <c r="P103" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R103" t="n">
         <v>1.48</v>
@@ -14347,7 +14347,7 @@
         <v>1.72</v>
       </c>
       <c r="U103" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V103" t="n">
         <v>1.28</v>
@@ -14359,7 +14359,7 @@
         <v>18.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z103" t="n">
         <v>36</v>
@@ -14443,19 +14443,19 @@
         <v>1.7</v>
       </c>
       <c r="H104" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I104" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J104" t="n">
         <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L104" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M104" t="n">
         <v>1.01</v>
@@ -14479,10 +14479,10 @@
         <v>2.68</v>
       </c>
       <c r="T104" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U104" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V104" t="n">
         <v>1.16</v>
@@ -14578,13 +14578,13 @@
         <v>4.3</v>
       </c>
       <c r="H105" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I105" t="n">
         <v>2.18</v>
       </c>
       <c r="J105" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K105" t="n">
         <v>3.65</v>
@@ -14605,7 +14605,7 @@
         <v>1.78</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R105" t="n">
         <v>1.29</v>
@@ -14620,7 +14620,7 @@
         <v>1.98</v>
       </c>
       <c r="V105" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W105" t="n">
         <v>1.3</v>
@@ -14638,7 +14638,7 @@
         <v>27</v>
       </c>
       <c r="AB105" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC105" t="n">
         <v>8</v>
@@ -14707,112 +14707,112 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G106" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H106" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I106" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J106" t="n">
         <v>3.15</v>
       </c>
       <c r="K106" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L106" t="n">
         <v>1.49</v>
       </c>
       <c r="M106" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N106" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O106" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P106" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R106" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S106" t="n">
         <v>4.2</v>
       </c>
       <c r="T106" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U106" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="V106" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W106" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="X106" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y106" t="n">
         <v>14</v>
       </c>
       <c r="Z106" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA106" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC106" t="n">
         <v>9</v>
       </c>
       <c r="AD106" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE106" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF106" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG106" t="n">
         <v>14</v>
       </c>
       <c r="AH106" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI106" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ106" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK106" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL106" t="n">
         <v>60</v>
       </c>
       <c r="AM106" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN106" t="n">
         <v>32</v>
       </c>
       <c r="AO106" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107">
@@ -14845,7 +14845,7 @@
         <v>1.25</v>
       </c>
       <c r="G107" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="H107" t="n">
         <v>12</v>
@@ -14869,19 +14869,19 @@
         <v>4.6</v>
       </c>
       <c r="O107" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P107" t="n">
         <v>2.24</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R107" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S107" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T107" t="n">
         <v>2.2</v>
@@ -14893,7 +14893,7 @@
         <v>1.05</v>
       </c>
       <c r="W107" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X107" t="n">
         <v>27</v>
@@ -14977,19 +14977,19 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G108" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H108" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="I108" t="n">
         <v>3.05</v>
       </c>
       <c r="J108" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K108" t="n">
         <v>3.6</v>
@@ -14998,10 +14998,10 @@
         <v>1.36</v>
       </c>
       <c r="M108" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N108" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O108" t="n">
         <v>1.35</v>
@@ -15010,28 +15010,28 @@
         <v>1.83</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R108" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S108" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T108" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U108" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V108" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W108" t="n">
         <v>1.54</v>
       </c>
       <c r="X108" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y108" t="n">
         <v>13.5</v>
@@ -15040,7 +15040,7 @@
         <v>24</v>
       </c>
       <c r="AA108" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB108" t="n">
         <v>13</v>
@@ -15049,19 +15049,19 @@
         <v>9.4</v>
       </c>
       <c r="AD108" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG108" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE108" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>15</v>
-      </c>
       <c r="AH108" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI108" t="n">
         <v>60</v>
@@ -15079,10 +15079,10 @@
         <v>120</v>
       </c>
       <c r="AN108" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO108" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109">
@@ -15154,10 +15154,10 @@
         <v>3.6</v>
       </c>
       <c r="T109" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U109" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V109" t="n">
         <v>1.25</v>
@@ -15247,58 +15247,58 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H110" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="I110" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="J110" t="n">
-        <v>2.6</v>
+        <v>1.02</v>
       </c>
       <c r="K110" t="n">
-        <v>4.7</v>
+        <v>970</v>
       </c>
       <c r="L110" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M110" t="n">
         <v>1.01</v>
       </c>
       <c r="N110" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="O110" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="P110" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.18</v>
+        <v>1.32</v>
       </c>
       <c r="R110" t="n">
         <v>1.18</v>
       </c>
       <c r="S110" t="n">
-        <v>3.25</v>
+        <v>1.32</v>
       </c>
       <c r="T110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V110" t="n">
         <v>1.01</v>
       </c>
-      <c r="U110" t="n">
+      <c r="W110" t="n">
         <v>1.01</v>
-      </c>
-      <c r="V110" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W110" t="n">
-        <v>1.33</v>
       </c>
       <c r="X110" t="n">
         <v>1000</v>
@@ -15388,7 +15388,7 @@
         <v>3.1</v>
       </c>
       <c r="H111" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I111" t="n">
         <v>4.1</v>
@@ -15421,7 +15421,7 @@
         <v>1.18</v>
       </c>
       <c r="S111" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T111" t="n">
         <v>1.04</v>
@@ -15547,7 +15547,7 @@
         <v>1.47</v>
       </c>
       <c r="P112" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q112" t="n">
         <v>2.34</v>
@@ -15652,13 +15652,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H113" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="I113" t="n">
         <v>1.37</v>
@@ -15682,22 +15682,22 @@
         <v>1.18</v>
       </c>
       <c r="P113" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q113" t="n">
         <v>1.54</v>
       </c>
       <c r="R113" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S113" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T113" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U113" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V113" t="n">
         <v>3.7</v>
@@ -15718,7 +15718,7 @@
         <v>14</v>
       </c>
       <c r="AB113" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AC113" t="n">
         <v>16.5</v>
@@ -15727,22 +15727,22 @@
         <v>13</v>
       </c>
       <c r="AE113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF113" t="n">
         <v>110</v>
       </c>
       <c r="AG113" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="n">
         <v>32</v>
       </c>
       <c r="AI113" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ113" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AK113" t="n">
         <v>160</v>
@@ -15754,10 +15754,10 @@
         <v>150</v>
       </c>
       <c r="AN113" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AO113" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -15787,19 +15787,19 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G114" t="n">
         <v>2.1</v>
       </c>
       <c r="H114" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I114" t="n">
         <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K114" t="n">
         <v>4.3</v>
@@ -15865,7 +15865,7 @@
         <v>44</v>
       </c>
       <c r="AF114" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG114" t="n">
         <v>11</v>
@@ -15952,16 +15952,16 @@
         <v>1.17</v>
       </c>
       <c r="P115" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R115" t="n">
         <v>1.67</v>
       </c>
       <c r="S115" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="T115" t="n">
         <v>1.64</v>
@@ -15985,7 +15985,7 @@
         <v>55</v>
       </c>
       <c r="AA115" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB115" t="n">
         <v>13.5</v>
@@ -16027,7 +16027,7 @@
         <v>7.2</v>
       </c>
       <c r="AO115" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116">
@@ -16057,10 +16057,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G116" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H116" t="n">
         <v>4.7</v>
@@ -16072,7 +16072,7 @@
         <v>3.9</v>
       </c>
       <c r="K116" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L116" t="n">
         <v>1.01</v>
@@ -16105,10 +16105,10 @@
         <v>2.12</v>
       </c>
       <c r="V116" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W116" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X116" t="n">
         <v>22</v>
@@ -16195,7 +16195,7 @@
         <v>2.16</v>
       </c>
       <c r="G117" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H117" t="n">
         <v>3.25</v>
@@ -16225,7 +16225,7 @@
         <v>2.1</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R117" t="n">
         <v>1.39</v>
@@ -16234,16 +16234,16 @@
         <v>2.68</v>
       </c>
       <c r="T117" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U117" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V117" t="n">
         <v>1.32</v>
       </c>
       <c r="W117" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X117" t="n">
         <v>20</v>
@@ -16348,7 +16348,7 @@
         <v>1.52</v>
       </c>
       <c r="M118" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
         <v>2.98</v>
@@ -16363,10 +16363,10 @@
         <v>2.42</v>
       </c>
       <c r="R118" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S118" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T118" t="n">
         <v>2.08</v>
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G119" t="n">
         <v>1.42</v>
@@ -16486,28 +16486,28 @@
         <v>1.04</v>
       </c>
       <c r="N119" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O119" t="n">
         <v>1.23</v>
       </c>
       <c r="P119" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="R119" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S119" t="n">
         <v>2.68</v>
       </c>
       <c r="T119" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U119" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V119" t="n">
         <v>1.09</v>
@@ -16597,16 +16597,16 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G120" t="n">
         <v>6</v>
       </c>
       <c r="H120" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I120" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J120" t="n">
         <v>3.15</v>
@@ -16621,16 +16621,16 @@
         <v>1.04</v>
       </c>
       <c r="N120" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="O120" t="n">
         <v>1.05</v>
       </c>
       <c r="P120" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R120" t="n">
         <v>1.24</v>
@@ -16642,10 +16642,10 @@
         <v>1.76</v>
       </c>
       <c r="U120" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="V120" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W120" t="n">
         <v>1.2</v>
@@ -16741,10 +16741,10 @@
         <v>5</v>
       </c>
       <c r="I121" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J121" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K121" t="n">
         <v>5</v>
@@ -16780,7 +16780,7 @@
         <v>2.06</v>
       </c>
       <c r="V121" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W121" t="n">
         <v>2.34</v>
@@ -16792,7 +16792,7 @@
         <v>26</v>
       </c>
       <c r="Z121" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA121" t="n">
         <v>160</v>
@@ -16807,7 +16807,7 @@
         <v>26</v>
       </c>
       <c r="AE121" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF121" t="n">
         <v>13</v>
@@ -16819,7 +16819,7 @@
         <v>25</v>
       </c>
       <c r="AI121" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ121" t="n">
         <v>21</v>
@@ -16834,7 +16834,7 @@
         <v>120</v>
       </c>
       <c r="AN121" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AO121" t="n">
         <v>90</v>
@@ -16879,7 +16879,7 @@
         <v>1000</v>
       </c>
       <c r="J122" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K122" t="n">
         <v>1000</v>
@@ -16891,22 +16891,22 @@
         <v>1.01</v>
       </c>
       <c r="N122" t="n">
-        <v>1.34</v>
+        <v>2.68</v>
       </c>
       <c r="O122" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P122" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="R122" t="n">
         <v>1.18</v>
       </c>
       <c r="S122" t="n">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="T122" t="n">
         <v>1.01</v>
@@ -16921,58 +16921,58 @@
         <v>1.01</v>
       </c>
       <c r="X122" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y122" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z122" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA122" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB122" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC122" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD122" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE122" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF122" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG122" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH122" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI122" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ122" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK122" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL122" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM122" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN122" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO122" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
@@ -17026,7 +17026,7 @@
         <v>1.09</v>
       </c>
       <c r="N123" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O123" t="n">
         <v>1.4</v>
@@ -17035,16 +17035,16 @@
         <v>1.81</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R123" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S123" t="n">
         <v>4</v>
       </c>
       <c r="T123" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U123" t="n">
         <v>1.96</v>
@@ -17056,10 +17056,10 @@
         <v>1.29</v>
       </c>
       <c r="X123" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y123" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z123" t="n">
         <v>11</v>
@@ -17068,7 +17068,7 @@
         <v>23</v>
       </c>
       <c r="AB123" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC123" t="n">
         <v>8</v>
@@ -17077,13 +17077,13 @@
         <v>10.5</v>
       </c>
       <c r="AE123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF123" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG123" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH123" t="n">
         <v>22</v>
@@ -17104,10 +17104,10 @@
         <v>130</v>
       </c>
       <c r="AN123" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO123" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -17137,19 +17137,19 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G124" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H124" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I124" t="n">
         <v>5.7</v>
       </c>
-      <c r="I124" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J124" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K124" t="n">
         <v>4.8</v>
@@ -17161,25 +17161,25 @@
         <v>1.03</v>
       </c>
       <c r="N124" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O124" t="n">
         <v>1.18</v>
       </c>
       <c r="P124" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R124" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S124" t="n">
         <v>2.4</v>
       </c>
       <c r="T124" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U124" t="n">
         <v>2.46</v>
@@ -17188,13 +17188,13 @@
         <v>1.21</v>
       </c>
       <c r="W124" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X124" t="n">
         <v>26</v>
       </c>
       <c r="Y124" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z124" t="n">
         <v>50</v>
@@ -17203,7 +17203,7 @@
         <v>140</v>
       </c>
       <c r="AB124" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC124" t="n">
         <v>11</v>
@@ -17212,7 +17212,7 @@
         <v>21</v>
       </c>
       <c r="AE124" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF124" t="n">
         <v>12</v>
@@ -17224,10 +17224,10 @@
         <v>17.5</v>
       </c>
       <c r="AI124" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ124" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK124" t="n">
         <v>14.5</v>
@@ -17236,13 +17236,13 @@
         <v>26</v>
       </c>
       <c r="AM124" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN124" t="n">
         <v>6.4</v>
       </c>
       <c r="AO124" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125">
@@ -17272,22 +17272,22 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G125" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>6.8</v>
       </c>
       <c r="I125" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J125" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K125" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L125" t="n">
         <v>1.01</v>
@@ -17296,34 +17296,34 @@
         <v>1.01</v>
       </c>
       <c r="N125" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="O125" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P125" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="R125" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="S125" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="T125" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U125" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="V125" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W125" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X125" t="n">
         <v>46</v>
@@ -17332,52 +17332,52 @@
         <v>46</v>
       </c>
       <c r="Z125" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE125" t="n">
         <v>95</v>
       </c>
-      <c r="AA125" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>90</v>
-      </c>
       <c r="AF125" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH125" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI125" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ125" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AK125" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AL125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM125" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO125" t="n">
         <v>80</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO125" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="126">
@@ -17407,22 +17407,22 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="G126" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="H126" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="I126" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J126" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="K126" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L126" t="n">
         <v>1.2</v>
@@ -17431,40 +17431,40 @@
         <v>1.02</v>
       </c>
       <c r="N126" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="O126" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P126" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="R126" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="S126" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T126" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="U126" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V126" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W126" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="X126" t="n">
         <v>40</v>
       </c>
       <c r="Y126" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z126" t="n">
         <v>1000</v>
@@ -17476,40 +17476,40 @@
         <v>970</v>
       </c>
       <c r="AC126" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD126" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AE126" t="n">
         <v>1000</v>
       </c>
       <c r="AF126" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG126" t="n">
         <v>970</v>
       </c>
       <c r="AH126" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AI126" t="n">
         <v>1000</v>
       </c>
       <c r="AJ126" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AK126" t="n">
         <v>970</v>
       </c>
       <c r="AL126" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM126" t="n">
         <v>1000</v>
       </c>
       <c r="AN126" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="AO126" t="n">
         <v>1000</v>
@@ -17548,10 +17548,10 @@
         <v>1.24</v>
       </c>
       <c r="H127" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="I127" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J127" t="n">
         <v>8</v>
@@ -17578,16 +17578,16 @@
         <v>1.28</v>
       </c>
       <c r="R127" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S127" t="n">
         <v>1.7</v>
       </c>
       <c r="T127" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U127" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V127" t="n">
         <v>1.07</v>
@@ -17605,7 +17605,7 @@
         <v>190</v>
       </c>
       <c r="AA127" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AB127" t="n">
         <v>18</v>
@@ -17617,7 +17617,7 @@
         <v>55</v>
       </c>
       <c r="AE127" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF127" t="n">
         <v>12.5</v>
@@ -17632,19 +17632,19 @@
         <v>110</v>
       </c>
       <c r="AJ127" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK127" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL127" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM127" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN127" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AO127" t="n">
         <v>150</v>
@@ -17677,10 +17677,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G128" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H128" t="n">
         <v>4.3</v>
@@ -17689,7 +17689,7 @@
         <v>4.9</v>
       </c>
       <c r="J128" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K128" t="n">
         <v>4.3</v>
@@ -17710,7 +17710,7 @@
         <v>2.1</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R128" t="n">
         <v>1.42</v>
@@ -17722,7 +17722,7 @@
         <v>1.75</v>
       </c>
       <c r="U128" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V128" t="n">
         <v>1.25</v>
@@ -17749,7 +17749,7 @@
         <v>9.6</v>
       </c>
       <c r="AD128" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE128" t="n">
         <v>60</v>
@@ -17818,16 +17818,16 @@
         <v>1.49</v>
       </c>
       <c r="H129" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I129" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J129" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K129" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L129" t="n">
         <v>1.26</v>
@@ -17848,7 +17848,7 @@
         <v>1.58</v>
       </c>
       <c r="R129" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S129" t="n">
         <v>2.4</v>
@@ -17857,10 +17857,10 @@
         <v>1.78</v>
       </c>
       <c r="U129" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V129" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W129" t="n">
         <v>3</v>
@@ -17947,22 +17947,22 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="H130" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="I130" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="J130" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="K130" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L130" t="n">
         <v>1.22</v>
@@ -17971,52 +17971,52 @@
         <v>1.02</v>
       </c>
       <c r="N130" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O130" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P130" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R130" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S130" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="T130" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U130" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V130" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="W130" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X130" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y130" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z130" t="n">
         <v>10.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AC130" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD130" t="n">
         <v>11</v>
@@ -18025,34 +18025,34 @@
         <v>12.5</v>
       </c>
       <c r="AF130" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AG130" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AH130" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI130" t="n">
         <v>28</v>
       </c>
       <c r="AJ130" t="n">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="AK130" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AL130" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN130" t="n">
         <v>110</v>
       </c>
-      <c r="AM130" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>120</v>
-      </c>
       <c r="AO130" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="131">
@@ -18088,7 +18088,7 @@
         <v>2.28</v>
       </c>
       <c r="H131" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I131" t="n">
         <v>4.2</v>
@@ -18097,10 +18097,10 @@
         <v>3.25</v>
       </c>
       <c r="K131" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L131" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M131" t="n">
         <v>1.08</v>
@@ -18112,34 +18112,34 @@
         <v>1.37</v>
       </c>
       <c r="P131" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="R131" t="n">
         <v>1.28</v>
       </c>
       <c r="S131" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T131" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U131" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V131" t="n">
         <v>1.31</v>
       </c>
       <c r="W131" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X131" t="n">
         <v>14.5</v>
       </c>
       <c r="Y131" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z131" t="n">
         <v>34</v>
@@ -18151,13 +18151,13 @@
         <v>10.5</v>
       </c>
       <c r="AC131" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD131" t="n">
         <v>20</v>
       </c>
       <c r="AE131" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF131" t="n">
         <v>16</v>
@@ -18169,10 +18169,10 @@
         <v>24</v>
       </c>
       <c r="AI131" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ131" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AK131" t="n">
         <v>32</v>
@@ -18184,10 +18184,10 @@
         <v>150</v>
       </c>
       <c r="AN131" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO131" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132">
@@ -18217,19 +18217,19 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="H132" t="n">
-        <v>2.36</v>
+        <v>1.32</v>
       </c>
       <c r="I132" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="J132" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="K132" t="n">
         <v>4.2</v>
@@ -18241,22 +18241,22 @@
         <v>1.03</v>
       </c>
       <c r="N132" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="O132" t="n">
         <v>1.2</v>
       </c>
       <c r="P132" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="S132" t="n">
-        <v>2.28</v>
+        <v>1.2</v>
       </c>
       <c r="T132" t="n">
         <v>1.04</v>
@@ -18265,10 +18265,10 @@
         <v>1.04</v>
       </c>
       <c r="V132" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W132" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="X132" t="n">
         <v>1000</v>
@@ -18358,7 +18358,7 @@
         <v>2.96</v>
       </c>
       <c r="H133" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I133" t="n">
         <v>2.8</v>
@@ -18376,7 +18376,7 @@
         <v>1.08</v>
       </c>
       <c r="N133" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O133" t="n">
         <v>1.38</v>
@@ -18385,10 +18385,10 @@
         <v>1.8</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R133" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S133" t="n">
         <v>3.85</v>
@@ -18487,31 +18487,31 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H134" t="n">
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J134" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K134" t="n">
         <v>3.6</v>
       </c>
       <c r="L134" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M134" t="n">
         <v>1.09</v>
       </c>
       <c r="N134" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O134" t="n">
         <v>1.42</v>
@@ -18520,7 +18520,7 @@
         <v>1.67</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R134" t="n">
         <v>1.24</v>
@@ -18538,7 +18538,7 @@
         <v>1.27</v>
       </c>
       <c r="W134" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X134" t="n">
         <v>11.5</v>
@@ -18568,7 +18568,7 @@
         <v>14.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH134" t="n">
         <v>26</v>
@@ -18580,7 +18580,7 @@
         <v>28</v>
       </c>
       <c r="AK134" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL134" t="n">
         <v>60</v>
@@ -18622,19 +18622,19 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G135" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H135" t="n">
         <v>4.8</v>
       </c>
       <c r="I135" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J135" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K135" t="n">
         <v>3.9</v>
@@ -18652,10 +18652,10 @@
         <v>1.34</v>
       </c>
       <c r="P135" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R135" t="n">
         <v>1.33</v>
@@ -18670,10 +18670,10 @@
         <v>1.98</v>
       </c>
       <c r="V135" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W135" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X135" t="n">
         <v>16.5</v>
@@ -18700,19 +18700,19 @@
         <v>90</v>
       </c>
       <c r="AF135" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG135" t="n">
         <v>12.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI135" t="n">
         <v>95</v>
       </c>
       <c r="AJ135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK135" t="n">
         <v>25</v>
@@ -18721,7 +18721,7 @@
         <v>48</v>
       </c>
       <c r="AM135" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN135" t="n">
         <v>16</v>
@@ -18757,22 +18757,22 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G136" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="H136" t="n">
+        <v>24</v>
+      </c>
+      <c r="I136" t="n">
         <v>25</v>
       </c>
-      <c r="I136" t="n">
-        <v>27</v>
-      </c>
       <c r="J136" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K136" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L136" t="n">
         <v>1.12</v>
@@ -18787,10 +18787,10 @@
         <v>1.06</v>
       </c>
       <c r="P136" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="R136" t="n">
         <v>2.64</v>
@@ -18799,70 +18799,70 @@
         <v>1.54</v>
       </c>
       <c r="T136" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U136" t="n">
         <v>2.12</v>
       </c>
       <c r="V136" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W136" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="X136" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="Y136" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="Z136" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AA136" t="n">
         <v>1000</v>
       </c>
       <c r="AB136" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC136" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD136" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AE136" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="AF136" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG136" t="n">
         <v>17.5</v>
       </c>
       <c r="AH136" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI136" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AJ136" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK136" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL136" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM136" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AN136" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AO136" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137">
@@ -18892,19 +18892,19 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G137" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H137" t="n">
         <v>5.2</v>
       </c>
       <c r="I137" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J137" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K137" t="n">
         <v>4.2</v>
@@ -18922,16 +18922,16 @@
         <v>1.31</v>
       </c>
       <c r="P137" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q137" t="n">
         <v>1.9</v>
       </c>
       <c r="R137" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S137" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T137" t="n">
         <v>1.87</v>
@@ -18943,13 +18943,13 @@
         <v>1.21</v>
       </c>
       <c r="W137" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="X137" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y137" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z137" t="n">
         <v>55</v>
@@ -18958,43 +18958,43 @@
         <v>170</v>
       </c>
       <c r="AB137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC137" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>11</v>
       </c>
       <c r="AD137" t="n">
         <v>23</v>
       </c>
       <c r="AE137" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF137" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG137" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH137" t="n">
         <v>22</v>
       </c>
       <c r="AI137" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ137" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK137" t="n">
         <v>23</v>
       </c>
       <c r="AL137" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM137" t="n">
         <v>150</v>
       </c>
       <c r="AN137" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO137" t="n">
         <v>120</v>
@@ -19030,16 +19030,16 @@
         <v>1.79</v>
       </c>
       <c r="G138" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H138" t="n">
         <v>5</v>
       </c>
       <c r="I138" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J138" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K138" t="n">
         <v>4.1</v>
@@ -19051,7 +19051,7 @@
         <v>1.03</v>
       </c>
       <c r="N138" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O138" t="n">
         <v>1.2</v>
@@ -19066,7 +19066,7 @@
         <v>1.61</v>
       </c>
       <c r="S138" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T138" t="n">
         <v>1.6</v>
@@ -19078,7 +19078,7 @@
         <v>1.23</v>
       </c>
       <c r="W138" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X138" t="n">
         <v>27</v>
@@ -19087,10 +19087,10 @@
         <v>25</v>
       </c>
       <c r="Z138" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA138" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB138" t="n">
         <v>12.5</v>
@@ -19129,7 +19129,7 @@
         <v>65</v>
       </c>
       <c r="AN138" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AO138" t="n">
         <v>42</v>
@@ -19165,31 +19165,31 @@
         <v>1.97</v>
       </c>
       <c r="G139" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H139" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J139" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.85</v>
       </c>
       <c r="K139" t="n">
         <v>4.2</v>
       </c>
       <c r="L139" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M139" t="n">
         <v>1.03</v>
       </c>
       <c r="N139" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="O139" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P139" t="n">
         <v>2.56</v>
@@ -19219,55 +19219,55 @@
         <v>30</v>
       </c>
       <c r="Y139" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z139" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA139" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB139" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC139" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD139" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE139" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI139" t="n">
         <v>46</v>
       </c>
-      <c r="AF139" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>48</v>
-      </c>
       <c r="AJ139" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL139" t="n">
         <v>30</v>
       </c>
-      <c r="AK139" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>32</v>
-      </c>
       <c r="AM139" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN139" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AO139" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140">
@@ -19324,31 +19324,31 @@
         <v>4.7</v>
       </c>
       <c r="O140" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P140" t="n">
         <v>2.26</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R140" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S140" t="n">
         <v>2.94</v>
       </c>
       <c r="T140" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U140" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V140" t="n">
         <v>1.1</v>
       </c>
       <c r="W140" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X140" t="n">
         <v>19</v>
@@ -19369,7 +19369,7 @@
         <v>12</v>
       </c>
       <c r="AD140" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE140" t="n">
         <v>190</v>
@@ -19381,7 +19381,7 @@
         <v>10.5</v>
       </c>
       <c r="AH140" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI140" t="n">
         <v>150</v>
@@ -19393,10 +19393,10 @@
         <v>14.5</v>
       </c>
       <c r="AL140" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM140" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN140" t="n">
         <v>5.8</v>
@@ -19441,103 +19441,103 @@
         <v>3.45</v>
       </c>
       <c r="I141" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J141" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K141" t="n">
         <v>2.96</v>
-      </c>
-      <c r="K141" t="n">
-        <v>2.98</v>
       </c>
       <c r="L141" t="n">
         <v>1.7</v>
       </c>
       <c r="M141" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N141" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="O141" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="P141" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="Q141" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="R141" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S141" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X141" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y141" t="n">
         <v>7.4</v>
       </c>
-      <c r="T141" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U141" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V141" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W141" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="X141" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y141" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="Z141" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA141" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE141" t="n">
         <v>75</v>
       </c>
-      <c r="AB141" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC141" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD141" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE141" t="n">
-        <v>70</v>
-      </c>
       <c r="AF141" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG141" t="n">
         <v>15</v>
       </c>
-      <c r="AG141" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH141" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI141" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ141" t="n">
         <v>46</v>
       </c>
       <c r="AK141" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AL141" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AM141" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="AN141" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO141" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
@@ -19573,7 +19573,7 @@
         <v>2.34</v>
       </c>
       <c r="H142" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I142" t="n">
         <v>4</v>
@@ -19591,25 +19591,25 @@
         <v>1.12</v>
       </c>
       <c r="N142" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O142" t="n">
         <v>1.48</v>
       </c>
       <c r="P142" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R142" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S142" t="n">
         <v>4.8</v>
       </c>
       <c r="T142" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U142" t="n">
         <v>1.85</v>
@@ -19621,58 +19621,58 @@
         <v>1.74</v>
       </c>
       <c r="X142" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y142" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z142" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA142" t="n">
         <v>110</v>
       </c>
       <c r="AB142" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC142" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD142" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE142" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF142" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG142" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI142" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ142" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AK142" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL142" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM142" t="n">
         <v>190</v>
       </c>
       <c r="AN142" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO142" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G143" t="n">
         <v>1.55</v>
@@ -19726,28 +19726,28 @@
         <v>1.05</v>
       </c>
       <c r="N143" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O143" t="n">
         <v>1.3</v>
       </c>
       <c r="P143" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q143" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="R143" t="n">
         <v>1.35</v>
       </c>
       <c r="S143" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T143" t="n">
         <v>1.96</v>
       </c>
       <c r="U143" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V143" t="n">
         <v>1.12</v>
@@ -19837,16 +19837,16 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
       </c>
       <c r="H144" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I144" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="J144" t="n">
         <v>3.65</v>
@@ -19867,7 +19867,7 @@
         <v>1.3</v>
       </c>
       <c r="P144" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q144" t="n">
         <v>1.89</v>
@@ -19885,7 +19885,7 @@
         <v>2.06</v>
       </c>
       <c r="V144" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W144" t="n">
         <v>1.25</v>
@@ -19903,7 +19903,7 @@
         <v>22</v>
       </c>
       <c r="AB144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC144" t="n">
         <v>10.5</v>
@@ -19912,7 +19912,7 @@
         <v>12.5</v>
       </c>
       <c r="AE144" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF144" t="n">
         <v>44</v>
@@ -19924,16 +19924,16 @@
         <v>23</v>
       </c>
       <c r="AI144" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AJ144" t="n">
         <v>130</v>
       </c>
       <c r="AK144" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL144" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM144" t="n">
         <v>130</v>
@@ -19972,22 +19972,22 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G145" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="H145" t="n">
+        <v>28</v>
+      </c>
+      <c r="I145" t="n">
         <v>29</v>
       </c>
-      <c r="I145" t="n">
-        <v>30</v>
-      </c>
       <c r="J145" t="n">
+        <v>10</v>
+      </c>
+      <c r="K145" t="n">
         <v>10.5</v>
-      </c>
-      <c r="K145" t="n">
-        <v>11</v>
       </c>
       <c r="L145" t="n">
         <v>1.26</v>
@@ -20002,28 +20002,28 @@
         <v>1.18</v>
       </c>
       <c r="P145" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R145" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S145" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T145" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="U145" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="V145" t="n">
         <v>1.03</v>
       </c>
       <c r="W145" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X145" t="n">
         <v>30</v>
@@ -20038,7 +20038,7 @@
         <v>1000</v>
       </c>
       <c r="AB145" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC145" t="n">
         <v>25</v>
@@ -20050,19 +20050,19 @@
         <v>1000</v>
       </c>
       <c r="AF145" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG145" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI145" t="n">
         <v>1000</v>
       </c>
       <c r="AJ145" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AK145" t="n">
         <v>16</v>
@@ -20074,7 +20074,7 @@
         <v>490</v>
       </c>
       <c r="AN145" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AO145" t="n">
         <v>1000</v>
@@ -20107,22 +20107,22 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H146" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J146" t="n">
         <v>3.6</v>
       </c>
       <c r="K146" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L146" t="n">
         <v>1.33</v>
@@ -20134,13 +20134,13 @@
         <v>4.4</v>
       </c>
       <c r="O146" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P146" t="n">
         <v>2.18</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R146" t="n">
         <v>1.47</v>
@@ -20155,46 +20155,46 @@
         <v>2.38</v>
       </c>
       <c r="V146" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W146" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X146" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y146" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Z146" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA146" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB146" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC146" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD146" t="n">
         <v>16</v>
       </c>
       <c r="AE146" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF146" t="n">
         <v>22</v>
       </c>
       <c r="AG146" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH146" t="n">
         <v>19</v>
       </c>
       <c r="AI146" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ146" t="n">
         <v>42</v>
@@ -20212,7 +20212,7 @@
         <v>21</v>
       </c>
       <c r="AO146" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
@@ -20242,7 +20242,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G147" t="n">
         <v>2.62</v>
@@ -20257,37 +20257,37 @@
         <v>3.4</v>
       </c>
       <c r="K147" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L147" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M147" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N147" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O147" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P147" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R147" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S147" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T147" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U147" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V147" t="n">
         <v>1.47</v>
@@ -20296,58 +20296,58 @@
         <v>1.61</v>
       </c>
       <c r="X147" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y147" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z147" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA147" t="n">
         <v>55</v>
       </c>
       <c r="AB147" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC147" t="n">
         <v>7.4</v>
       </c>
       <c r="AD147" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE147" t="n">
         <v>38</v>
       </c>
       <c r="AF147" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG147" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH147" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI147" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ147" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO147" t="n">
         <v>38</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO147" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="148">
@@ -20380,10 +20380,10 @@
         <v>4.3</v>
       </c>
       <c r="G148" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="H148" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="I148" t="n">
         <v>1.96</v>
@@ -20392,7 +20392,7 @@
         <v>3.6</v>
       </c>
       <c r="K148" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L148" t="n">
         <v>0</v>
@@ -20401,13 +20401,13 @@
         <v>0</v>
       </c>
       <c r="N148" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O148" t="n">
         <v>1.25</v>
       </c>
       <c r="P148" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q148" t="n">
         <v>1.74</v>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="G149" t="n">
         <v>1000</v>
@@ -20524,7 +20524,7 @@
         <v>4.4</v>
       </c>
       <c r="J149" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K149" t="n">
         <v>3.8</v>
@@ -20647,22 +20647,22 @@
         </is>
       </c>
       <c r="F150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G150" t="n">
         <v>1.09</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1.1</v>
       </c>
       <c r="H150" t="n">
         <v>38</v>
       </c>
       <c r="I150" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J150" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="K150" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="L150" t="n">
         <v>1.19</v>
@@ -20680,40 +20680,40 @@
         <v>3.65</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="R150" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S150" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="T150" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="U150" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V150" t="n">
         <v>1.02</v>
       </c>
       <c r="W150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X150" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y150" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Z150" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AA150" t="n">
         <v>1000</v>
       </c>
       <c r="AB150" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC150" t="n">
         <v>46</v>
@@ -20725,28 +20725,28 @@
         <v>1000</v>
       </c>
       <c r="AF150" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG150" t="n">
         <v>18.5</v>
       </c>
       <c r="AH150" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI150" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AJ150" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AK150" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL150" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM150" t="n">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AN150" t="n">
         <v>2.48</v>
@@ -20809,10 +20809,10 @@
         <v>2.42</v>
       </c>
       <c r="O151" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P151" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q151" t="n">
         <v>2.78</v>
@@ -20839,10 +20839,10 @@
         <v>9.4</v>
       </c>
       <c r="Y151" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z151" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA151" t="n">
         <v>95</v>
@@ -20866,7 +20866,7 @@
         <v>16</v>
       </c>
       <c r="AH151" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI151" t="n">
         <v>110</v>
@@ -20878,10 +20878,10 @@
         <v>50</v>
       </c>
       <c r="AL151" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM151" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN151" t="n">
         <v>60</v>
@@ -21055,10 +21055,10 @@
         <v>2.46</v>
       </c>
       <c r="G153" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I153" t="n">
         <v>2.84</v>
@@ -21106,7 +21106,7 @@
         <v>1.62</v>
       </c>
       <c r="X153" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y153" t="n">
         <v>20</v>
@@ -21124,7 +21124,7 @@
         <v>10.5</v>
       </c>
       <c r="AD153" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE153" t="n">
         <v>26</v>
@@ -21157,7 +21157,7 @@
         <v>12</v>
       </c>
       <c r="AO153" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-13.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>1.08</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>1.14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>220</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>2.86</v>
+        <v>14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.8</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>8.199999999999999</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="U2" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.8</v>
+        <v>16.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>2.72</v>
       </c>
       <c r="G3" t="n">
-        <v>2.64</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="P3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S3" t="n">
+        <v>32</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X3" t="n">
         <v>3.65</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14</v>
-      </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>4.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>620</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="AO3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="G4" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -967,82 +967,82 @@
         <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.79</v>
       </c>
-      <c r="S4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.66</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
         <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB4" t="n">
         <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>13.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
